--- a/firebase_data_from_spyEnsembleValenOpt.xlsx
+++ b/firebase_data_from_spyEnsembleValenOpt.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1175" uniqueCount="711">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1193" uniqueCount="726">
   <si>
     <t>date</t>
   </si>
@@ -1789,6 +1789,33 @@
     <t>2025-10-27</t>
   </si>
   <si>
+    <t>2025-10-28</t>
+  </si>
+  <si>
+    <t>2025-10-29</t>
+  </si>
+  <si>
+    <t>2025-10-30</t>
+  </si>
+  <si>
+    <t>2025-10-31</t>
+  </si>
+  <si>
+    <t>2025-11-03</t>
+  </si>
+  <si>
+    <t>2025-11-04</t>
+  </si>
+  <si>
+    <t>2025-11-05</t>
+  </si>
+  <si>
+    <t>2025-11-06</t>
+  </si>
+  <si>
+    <t>2025-11-07</t>
+  </si>
+  <si>
     <t>100.00</t>
   </si>
   <si>
@@ -2147,6 +2174,24 @@
   </si>
   <si>
     <t>50.24</t>
+  </si>
+  <si>
+    <t>50.42</t>
+  </si>
+  <si>
+    <t>50.45</t>
+  </si>
+  <si>
+    <t>50.82</t>
+  </si>
+  <si>
+    <t>50.28</t>
+  </si>
+  <si>
+    <t>50.12</t>
+  </si>
+  <si>
+    <t>50.06</t>
   </si>
 </sst>
 </file>
@@ -2504,7 +2549,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H585"/>
+  <dimension ref="A1:H594"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2556,7 +2601,7 @@
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2582,7 +2627,7 @@
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2608,7 +2653,7 @@
         <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2634,7 +2679,7 @@
         <v>0.4983795094639457</v>
       </c>
       <c r="H5" t="s">
-        <v>592</v>
+        <v>601</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2660,7 +2705,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2686,7 +2731,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2712,7 +2757,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>593</v>
+        <v>602</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2738,7 +2783,7 @@
         <v>1</v>
       </c>
       <c r="H9" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2764,7 +2809,7 @@
         <v>1</v>
       </c>
       <c r="H10" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2790,7 +2835,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2816,7 +2861,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2842,7 +2887,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2868,7 +2913,7 @@
         <v>1</v>
       </c>
       <c r="H14" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -2894,7 +2939,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2920,7 +2965,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2946,7 +2991,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -2972,7 +3017,7 @@
         <v>0.5302720732550883</v>
       </c>
       <c r="H18" t="s">
-        <v>594</v>
+        <v>603</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2998,7 +3043,7 @@
         <v>1</v>
       </c>
       <c r="H19" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -3024,7 +3069,7 @@
         <v>1</v>
       </c>
       <c r="H20" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -3050,7 +3095,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -3076,7 +3121,7 @@
         <v>1</v>
       </c>
       <c r="H22" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -3102,7 +3147,7 @@
         <v>1</v>
       </c>
       <c r="H23" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -3128,7 +3173,7 @@
         <v>0</v>
       </c>
       <c r="H24" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -3154,7 +3199,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -3180,7 +3225,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -3206,7 +3251,7 @@
         <v>0</v>
       </c>
       <c r="H27" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -3232,7 +3277,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -3258,7 +3303,7 @@
         <v>0.367662797378024</v>
       </c>
       <c r="H29" t="s">
-        <v>595</v>
+        <v>604</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -3284,7 +3329,7 @@
         <v>0</v>
       </c>
       <c r="H30" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -3310,7 +3355,7 @@
         <v>0.6490964230728318</v>
       </c>
       <c r="H31" t="s">
-        <v>596</v>
+        <v>605</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -3336,7 +3381,7 @@
         <v>0.6057603550778452</v>
       </c>
       <c r="H32" t="s">
-        <v>597</v>
+        <v>606</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -3362,7 +3407,7 @@
         <v>1</v>
       </c>
       <c r="H33" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -3388,7 +3433,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -3414,7 +3459,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -3440,7 +3485,7 @@
         <v>0</v>
       </c>
       <c r="H36" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -3466,7 +3511,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -3492,7 +3537,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -3518,7 +3563,7 @@
         <v>0</v>
       </c>
       <c r="H39" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -3544,7 +3589,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -3570,7 +3615,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -3596,7 +3641,7 @@
         <v>0</v>
       </c>
       <c r="H42" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -3622,7 +3667,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -3648,7 +3693,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -3674,7 +3719,7 @@
         <v>1</v>
       </c>
       <c r="H45" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -3700,7 +3745,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -3726,7 +3771,7 @@
         <v>0</v>
       </c>
       <c r="H47" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -3752,7 +3797,7 @@
         <v>1</v>
       </c>
       <c r="H48" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -3778,7 +3823,7 @@
         <v>1</v>
       </c>
       <c r="H49" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -3804,7 +3849,7 @@
         <v>1</v>
       </c>
       <c r="H50" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -3830,7 +3875,7 @@
         <v>1</v>
       </c>
       <c r="H51" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -3856,7 +3901,7 @@
         <v>1</v>
       </c>
       <c r="H52" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -3882,7 +3927,7 @@
         <v>1</v>
       </c>
       <c r="H53" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -3908,7 +3953,7 @@
         <v>1</v>
       </c>
       <c r="H54" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -3934,7 +3979,7 @@
         <v>0.4590532610652691</v>
       </c>
       <c r="H55" t="s">
-        <v>598</v>
+        <v>607</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -3960,7 +4005,7 @@
         <v>0</v>
       </c>
       <c r="H56" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3986,7 +4031,7 @@
         <v>1</v>
       </c>
       <c r="H57" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -4012,7 +4057,7 @@
         <v>0</v>
       </c>
       <c r="H58" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -4038,7 +4083,7 @@
         <v>0</v>
       </c>
       <c r="H59" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -4064,7 +4109,7 @@
         <v>1</v>
       </c>
       <c r="H60" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -4090,7 +4135,7 @@
         <v>1</v>
       </c>
       <c r="H61" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -4116,7 +4161,7 @@
         <v>1</v>
       </c>
       <c r="H62" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -4142,7 +4187,7 @@
         <v>0</v>
       </c>
       <c r="H63" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -4168,7 +4213,7 @@
         <v>1</v>
       </c>
       <c r="H64" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -4194,7 +4239,7 @@
         <v>0.4773667054320679</v>
       </c>
       <c r="H65" t="s">
-        <v>599</v>
+        <v>608</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -4220,7 +4265,7 @@
         <v>0</v>
       </c>
       <c r="H66" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -4246,7 +4291,7 @@
         <v>0</v>
       </c>
       <c r="H67" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -4272,7 +4317,7 @@
         <v>0.5208141133350609</v>
       </c>
       <c r="H68" t="s">
-        <v>600</v>
+        <v>609</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -4298,7 +4343,7 @@
         <v>1</v>
       </c>
       <c r="H69" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -4324,7 +4369,7 @@
         <v>1</v>
       </c>
       <c r="H70" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -4350,7 +4395,7 @@
         <v>1</v>
       </c>
       <c r="H71" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -4376,7 +4421,7 @@
         <v>0</v>
       </c>
       <c r="H72" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -4402,7 +4447,7 @@
         <v>1</v>
       </c>
       <c r="H73" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -4428,7 +4473,7 @@
         <v>0</v>
       </c>
       <c r="H74" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -4454,7 +4499,7 @@
         <v>0.4694271906128297</v>
       </c>
       <c r="H75" t="s">
-        <v>601</v>
+        <v>610</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -4480,7 +4525,7 @@
         <v>1</v>
       </c>
       <c r="H76" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -4506,7 +4551,7 @@
         <v>1</v>
       </c>
       <c r="H77" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -4532,7 +4577,7 @@
         <v>0.6419210570163193</v>
       </c>
       <c r="H78" t="s">
-        <v>602</v>
+        <v>611</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -4558,7 +4603,7 @@
         <v>0.4549904783820721</v>
       </c>
       <c r="H79" t="s">
-        <v>603</v>
+        <v>612</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -4584,7 +4629,7 @@
         <v>1</v>
       </c>
       <c r="H80" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -4610,7 +4655,7 @@
         <v>1</v>
       </c>
       <c r="H81" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -4636,7 +4681,7 @@
         <v>1</v>
       </c>
       <c r="H82" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -4662,7 +4707,7 @@
         <v>1</v>
       </c>
       <c r="H83" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -4688,7 +4733,7 @@
         <v>0</v>
       </c>
       <c r="H84" t="s">
-        <v>593</v>
+        <v>602</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -4714,7 +4759,7 @@
         <v>0</v>
       </c>
       <c r="H85" t="s">
-        <v>593</v>
+        <v>602</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -4740,7 +4785,7 @@
         <v>0</v>
       </c>
       <c r="H86" t="s">
-        <v>593</v>
+        <v>602</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -4766,7 +4811,7 @@
         <v>0</v>
       </c>
       <c r="H87" t="s">
-        <v>593</v>
+        <v>602</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -4792,7 +4837,7 @@
         <v>0</v>
       </c>
       <c r="H88" t="s">
-        <v>593</v>
+        <v>602</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -4818,7 +4863,7 @@
         <v>1</v>
       </c>
       <c r="H89" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -4844,7 +4889,7 @@
         <v>1</v>
       </c>
       <c r="H90" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -4870,7 +4915,7 @@
         <v>0.4892063155061278</v>
       </c>
       <c r="H91" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -4896,7 +4941,7 @@
         <v>1</v>
       </c>
       <c r="H92" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -4922,7 +4967,7 @@
         <v>0.4956272603429394</v>
       </c>
       <c r="H93" t="s">
-        <v>605</v>
+        <v>614</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -4948,7 +4993,7 @@
         <v>0</v>
       </c>
       <c r="H94" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -4974,7 +5019,7 @@
         <v>0.526878458993841</v>
       </c>
       <c r="H95" t="s">
-        <v>606</v>
+        <v>615</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -5000,7 +5045,7 @@
         <v>0.3456361528471477</v>
       </c>
       <c r="H96" t="s">
-        <v>607</v>
+        <v>616</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -5026,7 +5071,7 @@
         <v>0.4542811887331372</v>
       </c>
       <c r="H97" t="s">
-        <v>608</v>
+        <v>617</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -5052,7 +5097,7 @@
         <v>0.5887823063280541</v>
       </c>
       <c r="H98" t="s">
-        <v>609</v>
+        <v>618</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -5078,7 +5123,7 @@
         <v>1</v>
       </c>
       <c r="H99" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -5104,7 +5149,7 @@
         <v>0.5310307226938407</v>
       </c>
       <c r="H100" t="s">
-        <v>610</v>
+        <v>619</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -5130,7 +5175,7 @@
         <v>0.5449963581032603</v>
       </c>
       <c r="H101" t="s">
-        <v>603</v>
+        <v>612</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -5156,7 +5201,7 @@
         <v>0.538849657114027</v>
       </c>
       <c r="H102" t="s">
-        <v>611</v>
+        <v>620</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -5182,7 +5227,7 @@
         <v>1</v>
       </c>
       <c r="H103" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -5208,7 +5253,7 @@
         <v>0.5052296656566035</v>
       </c>
       <c r="H104" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -5234,7 +5279,7 @@
         <v>0</v>
       </c>
       <c r="H105" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -5260,7 +5305,7 @@
         <v>1</v>
       </c>
       <c r="H106" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -5286,7 +5331,7 @@
         <v>0</v>
       </c>
       <c r="H107" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -5312,7 +5357,7 @@
         <v>0</v>
       </c>
       <c r="H108" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -5338,7 +5383,7 @@
         <v>0</v>
       </c>
       <c r="H109" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -5364,7 +5409,7 @@
         <v>0</v>
       </c>
       <c r="H110" t="s">
-        <v>593</v>
+        <v>602</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -5390,7 +5435,7 @@
         <v>1</v>
       </c>
       <c r="H111" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -5416,7 +5461,7 @@
         <v>0</v>
       </c>
       <c r="H112" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -5442,7 +5487,7 @@
         <v>0</v>
       </c>
       <c r="H113" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -5468,7 +5513,7 @@
         <v>1</v>
       </c>
       <c r="H114" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -5494,7 +5539,7 @@
         <v>1</v>
       </c>
       <c r="H115" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -5520,7 +5565,7 @@
         <v>0.6646717726375582</v>
       </c>
       <c r="H116" t="s">
-        <v>613</v>
+        <v>622</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -5546,7 +5591,7 @@
         <v>1</v>
       </c>
       <c r="H117" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -5572,7 +5617,7 @@
         <v>1</v>
       </c>
       <c r="H118" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -5598,7 +5643,7 @@
         <v>0.6235604412909561</v>
       </c>
       <c r="H119" t="s">
-        <v>614</v>
+        <v>623</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -5624,7 +5669,7 @@
         <v>1</v>
       </c>
       <c r="H120" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -5650,7 +5695,7 @@
         <v>0.5462775678441429</v>
       </c>
       <c r="H121" t="s">
-        <v>615</v>
+        <v>624</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -5676,7 +5721,7 @@
         <v>1</v>
       </c>
       <c r="H122" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -5702,7 +5747,7 @@
         <v>0</v>
       </c>
       <c r="H123" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -5728,7 +5773,7 @@
         <v>0</v>
       </c>
       <c r="H124" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -5754,7 +5799,7 @@
         <v>1</v>
       </c>
       <c r="H125" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -5780,7 +5825,7 @@
         <v>0</v>
       </c>
       <c r="H126" t="s">
-        <v>593</v>
+        <v>602</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -5806,7 +5851,7 @@
         <v>0</v>
       </c>
       <c r="H127" t="s">
-        <v>593</v>
+        <v>602</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -5832,7 +5877,7 @@
         <v>0</v>
       </c>
       <c r="H128" t="s">
-        <v>593</v>
+        <v>602</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -5858,7 +5903,7 @@
         <v>0</v>
       </c>
       <c r="H129" t="s">
-        <v>593</v>
+        <v>602</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -5884,7 +5929,7 @@
         <v>0</v>
       </c>
       <c r="H130" t="s">
-        <v>593</v>
+        <v>602</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -5910,7 +5955,7 @@
         <v>0.3682203109306855</v>
       </c>
       <c r="H131" t="s">
-        <v>616</v>
+        <v>625</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -5936,7 +5981,7 @@
         <v>0</v>
       </c>
       <c r="H132" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -5962,7 +6007,7 @@
         <v>1</v>
       </c>
       <c r="H133" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -5988,7 +6033,7 @@
         <v>0</v>
       </c>
       <c r="H134" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -6014,7 +6059,7 @@
         <v>0.5804551272682893</v>
       </c>
       <c r="H135" t="s">
-        <v>617</v>
+        <v>626</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -6040,7 +6085,7 @@
         <v>0.7726795896053059</v>
       </c>
       <c r="H136" t="s">
-        <v>618</v>
+        <v>627</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -6066,7 +6111,7 @@
         <v>0</v>
       </c>
       <c r="H137" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -6092,7 +6137,7 @@
         <v>0</v>
       </c>
       <c r="H138" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -6118,7 +6163,7 @@
         <v>1</v>
       </c>
       <c r="H139" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -6144,7 +6189,7 @@
         <v>0.6196235239775311</v>
       </c>
       <c r="H140" t="s">
-        <v>619</v>
+        <v>628</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -6170,7 +6215,7 @@
         <v>0.5970780621204577</v>
       </c>
       <c r="H141" t="s">
-        <v>620</v>
+        <v>629</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -6196,7 +6241,7 @@
         <v>1</v>
       </c>
       <c r="H142" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -6222,7 +6267,7 @@
         <v>1</v>
       </c>
       <c r="H143" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -6248,7 +6293,7 @@
         <v>0</v>
       </c>
       <c r="H144" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -6274,7 +6319,7 @@
         <v>1</v>
       </c>
       <c r="H145" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -6300,7 +6345,7 @@
         <v>1</v>
       </c>
       <c r="H146" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -6326,7 +6371,7 @@
         <v>1</v>
       </c>
       <c r="H147" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -6352,7 +6397,7 @@
         <v>1</v>
       </c>
       <c r="H148" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -6378,7 +6423,7 @@
         <v>0</v>
       </c>
       <c r="H149" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -6404,7 +6449,7 @@
         <v>1</v>
       </c>
       <c r="H150" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -6430,7 +6475,7 @@
         <v>1</v>
       </c>
       <c r="H151" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -6456,7 +6501,7 @@
         <v>1</v>
       </c>
       <c r="H152" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -6482,7 +6527,7 @@
         <v>0</v>
       </c>
       <c r="H153" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -6508,7 +6553,7 @@
         <v>1</v>
       </c>
       <c r="H154" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -6534,7 +6579,7 @@
         <v>0</v>
       </c>
       <c r="H155" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -6560,7 +6605,7 @@
         <v>1</v>
       </c>
       <c r="H156" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -6586,7 +6631,7 @@
         <v>1</v>
       </c>
       <c r="H157" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -6612,7 +6657,7 @@
         <v>1</v>
       </c>
       <c r="H158" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -6638,7 +6683,7 @@
         <v>1</v>
       </c>
       <c r="H159" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -6664,7 +6709,7 @@
         <v>0.6796336772290309</v>
       </c>
       <c r="H160" t="s">
-        <v>621</v>
+        <v>630</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -6690,7 +6735,7 @@
         <v>1</v>
       </c>
       <c r="H161" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -6716,7 +6761,7 @@
         <v>1</v>
       </c>
       <c r="H162" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -6742,7 +6787,7 @@
         <v>1</v>
       </c>
       <c r="H163" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -6768,7 +6813,7 @@
         <v>1</v>
       </c>
       <c r="H164" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -6794,7 +6839,7 @@
         <v>0.656110020421579</v>
       </c>
       <c r="H165" t="s">
-        <v>622</v>
+        <v>631</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -6820,7 +6865,7 @@
         <v>0</v>
       </c>
       <c r="H166" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -6846,7 +6891,7 @@
         <v>0.3525995325185676</v>
       </c>
       <c r="H167" t="s">
-        <v>623</v>
+        <v>632</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -6872,7 +6917,7 @@
         <v>0</v>
       </c>
       <c r="H168" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -6898,7 +6943,7 @@
         <v>1</v>
       </c>
       <c r="H169" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -6924,7 +6969,7 @@
         <v>1</v>
       </c>
       <c r="H170" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -6950,7 +6995,7 @@
         <v>0</v>
       </c>
       <c r="H171" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -6976,7 +7021,7 @@
         <v>0.469703495331913</v>
       </c>
       <c r="H172" t="s">
-        <v>594</v>
+        <v>603</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -7002,7 +7047,7 @@
         <v>0</v>
       </c>
       <c r="H173" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -7028,7 +7073,7 @@
         <v>0.5417130438680983</v>
       </c>
       <c r="H174" t="s">
-        <v>624</v>
+        <v>633</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -7054,7 +7099,7 @@
         <v>0</v>
       </c>
       <c r="H175" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -7080,7 +7125,7 @@
         <v>0</v>
       </c>
       <c r="H176" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -7106,7 +7151,7 @@
         <v>0</v>
       </c>
       <c r="H177" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -7132,7 +7177,7 @@
         <v>0</v>
       </c>
       <c r="H178" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -7158,7 +7203,7 @@
         <v>0</v>
       </c>
       <c r="H179" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -7184,7 +7229,7 @@
         <v>0</v>
       </c>
       <c r="H180" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -7210,7 +7255,7 @@
         <v>0.4855651763051241</v>
       </c>
       <c r="H181" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -7236,7 +7281,7 @@
         <v>1</v>
       </c>
       <c r="H182" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -7262,7 +7307,7 @@
         <v>0</v>
       </c>
       <c r="H183" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -7288,7 +7333,7 @@
         <v>0</v>
       </c>
       <c r="H184" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -7314,7 +7359,7 @@
         <v>0</v>
       </c>
       <c r="H185" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -7340,7 +7385,7 @@
         <v>0</v>
       </c>
       <c r="H186" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -7366,7 +7411,7 @@
         <v>0.4124433478079874</v>
       </c>
       <c r="H187" t="s">
-        <v>626</v>
+        <v>635</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -7392,7 +7437,7 @@
         <v>1</v>
       </c>
       <c r="H188" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -7418,7 +7463,7 @@
         <v>0</v>
       </c>
       <c r="H189" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -7444,7 +7489,7 @@
         <v>0</v>
       </c>
       <c r="H190" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -7470,7 +7515,7 @@
         <v>0</v>
       </c>
       <c r="H191" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -7496,7 +7541,7 @@
         <v>1</v>
       </c>
       <c r="H192" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -7522,7 +7567,7 @@
         <v>1</v>
       </c>
       <c r="H193" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -7548,7 +7593,7 @@
         <v>0</v>
       </c>
       <c r="H194" t="s">
-        <v>593</v>
+        <v>602</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -7574,7 +7619,7 @@
         <v>0</v>
       </c>
       <c r="H195" t="s">
-        <v>593</v>
+        <v>602</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -7600,7 +7645,7 @@
         <v>0</v>
       </c>
       <c r="H196" t="s">
-        <v>593</v>
+        <v>602</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -7626,7 +7671,7 @@
         <v>0</v>
       </c>
       <c r="H197" t="s">
-        <v>593</v>
+        <v>602</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -7652,7 +7697,7 @@
         <v>0</v>
       </c>
       <c r="H198" t="s">
-        <v>593</v>
+        <v>602</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -7678,7 +7723,7 @@
         <v>0</v>
       </c>
       <c r="H199" t="s">
-        <v>593</v>
+        <v>602</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -7704,7 +7749,7 @@
         <v>0</v>
       </c>
       <c r="H200" t="s">
-        <v>593</v>
+        <v>602</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -7730,7 +7775,7 @@
         <v>0.5780639170489871</v>
       </c>
       <c r="H201" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -7756,7 +7801,7 @@
         <v>0.4215393731535424</v>
       </c>
       <c r="H202" t="s">
-        <v>628</v>
+        <v>637</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -7782,7 +7827,7 @@
         <v>0.3467065628450095</v>
       </c>
       <c r="H203" t="s">
-        <v>629</v>
+        <v>638</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -7808,7 +7853,7 @@
         <v>0</v>
       </c>
       <c r="H204" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -7834,7 +7879,7 @@
         <v>0</v>
       </c>
       <c r="H205" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -7860,7 +7905,7 @@
         <v>1</v>
       </c>
       <c r="H206" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -7886,7 +7931,7 @@
         <v>0</v>
       </c>
       <c r="H207" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -7912,7 +7957,7 @@
         <v>1</v>
       </c>
       <c r="H208" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -7938,7 +7983,7 @@
         <v>1</v>
       </c>
       <c r="H209" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -7964,7 +8009,7 @@
         <v>1</v>
       </c>
       <c r="H210" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -7990,7 +8035,7 @@
         <v>1</v>
       </c>
       <c r="H211" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -8016,7 +8061,7 @@
         <v>0</v>
       </c>
       <c r="H212" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -8042,7 +8087,7 @@
         <v>1</v>
       </c>
       <c r="H213" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -8068,7 +8113,7 @@
         <v>1</v>
       </c>
       <c r="H214" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -8094,7 +8139,7 @@
         <v>1</v>
       </c>
       <c r="H215" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -8120,7 +8165,7 @@
         <v>0.5087358365117602</v>
       </c>
       <c r="H216" t="s">
-        <v>630</v>
+        <v>639</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -8146,7 +8191,7 @@
         <v>0</v>
       </c>
       <c r="H217" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -8172,7 +8217,7 @@
         <v>0.5158678488274785</v>
       </c>
       <c r="H218" t="s">
-        <v>631</v>
+        <v>640</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -8198,7 +8243,7 @@
         <v>0</v>
       </c>
       <c r="H219" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -8224,7 +8269,7 @@
         <v>0.2870430274384894</v>
       </c>
       <c r="H220" t="s">
-        <v>632</v>
+        <v>641</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -8250,7 +8295,7 @@
         <v>1</v>
       </c>
       <c r="H221" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -8276,7 +8321,7 @@
         <v>0.6127520737142151</v>
       </c>
       <c r="H222" t="s">
-        <v>633</v>
+        <v>642</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -8302,7 +8347,7 @@
         <v>0.3609387246264842</v>
       </c>
       <c r="H223" t="s">
-        <v>634</v>
+        <v>643</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -8328,7 +8373,7 @@
         <v>0.4197051507971554</v>
       </c>
       <c r="H224" t="s">
-        <v>635</v>
+        <v>644</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -8354,7 +8399,7 @@
         <v>0.5512799617328629</v>
       </c>
       <c r="H225" t="s">
-        <v>636</v>
+        <v>645</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -8380,7 +8425,7 @@
         <v>0</v>
       </c>
       <c r="H226" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -8406,7 +8451,7 @@
         <v>0</v>
       </c>
       <c r="H227" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -8432,7 +8477,7 @@
         <v>0</v>
       </c>
       <c r="H228" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -8458,7 +8503,7 @@
         <v>0.5072390354177577</v>
       </c>
       <c r="H229" t="s">
-        <v>637</v>
+        <v>646</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -8484,7 +8529,7 @@
         <v>0.5191745840351744</v>
       </c>
       <c r="H230" t="s">
-        <v>638</v>
+        <v>647</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -8510,7 +8555,7 @@
         <v>1</v>
       </c>
       <c r="H231" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -8536,7 +8581,7 @@
         <v>0.5972661005120165</v>
       </c>
       <c r="H232" t="s">
-        <v>639</v>
+        <v>648</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -8562,7 +8607,7 @@
         <v>1</v>
       </c>
       <c r="H233" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -8588,7 +8633,7 @@
         <v>1</v>
       </c>
       <c r="H234" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -8614,7 +8659,7 @@
         <v>0.5854205990462216</v>
       </c>
       <c r="H235" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -8640,7 +8685,7 @@
         <v>0.3730102393966785</v>
       </c>
       <c r="H236" t="s">
-        <v>641</v>
+        <v>650</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -8666,7 +8711,7 @@
         <v>0.5456285491144892</v>
       </c>
       <c r="H237" t="s">
-        <v>642</v>
+        <v>651</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -8692,7 +8737,7 @@
         <v>0.5175347977993346</v>
       </c>
       <c r="H238" t="s">
-        <v>643</v>
+        <v>652</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -8718,7 +8763,7 @@
         <v>1</v>
       </c>
       <c r="H239" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -8744,7 +8789,7 @@
         <v>1</v>
       </c>
       <c r="H240" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -8770,7 +8815,7 @@
         <v>0.4947875949457229</v>
       </c>
       <c r="H241" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -8796,7 +8841,7 @@
         <v>0</v>
       </c>
       <c r="H242" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -8822,7 +8867,7 @@
         <v>0</v>
       </c>
       <c r="H243" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -8848,7 +8893,7 @@
         <v>0.4792599658405648</v>
       </c>
       <c r="H244" t="s">
-        <v>644</v>
+        <v>653</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -8874,7 +8919,7 @@
         <v>1</v>
       </c>
       <c r="H245" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -8900,7 +8945,7 @@
         <v>1</v>
       </c>
       <c r="H246" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -8926,7 +8971,7 @@
         <v>1</v>
       </c>
       <c r="H247" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -8952,7 +8997,7 @@
         <v>0</v>
       </c>
       <c r="H248" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -8978,7 +9023,7 @@
         <v>0.5066418849191674</v>
       </c>
       <c r="H249" t="s">
-        <v>645</v>
+        <v>654</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -9004,7 +9049,7 @@
         <v>0.5244848812293227</v>
       </c>
       <c r="H250" t="s">
-        <v>646</v>
+        <v>655</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -9030,7 +9075,7 @@
         <v>1</v>
       </c>
       <c r="H251" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -9056,7 +9101,7 @@
         <v>0.5825654626700081</v>
       </c>
       <c r="H252" t="s">
-        <v>647</v>
+        <v>656</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -9082,7 +9127,7 @@
         <v>1</v>
       </c>
       <c r="H253" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -9108,7 +9153,7 @@
         <v>1</v>
       </c>
       <c r="H254" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -9134,7 +9179,7 @@
         <v>0.5077321483125038</v>
       </c>
       <c r="H255" t="s">
-        <v>648</v>
+        <v>657</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -9160,7 +9205,7 @@
         <v>0</v>
       </c>
       <c r="H256" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -9186,7 +9231,7 @@
         <v>0</v>
       </c>
       <c r="H257" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -9212,7 +9257,7 @@
         <v>0</v>
       </c>
       <c r="H258" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -9238,7 +9283,7 @@
         <v>0</v>
       </c>
       <c r="H259" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -9264,7 +9309,7 @@
         <v>0</v>
       </c>
       <c r="H260" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -9290,7 +9335,7 @@
         <v>0</v>
       </c>
       <c r="H261" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -9316,7 +9361,7 @@
         <v>1</v>
       </c>
       <c r="H262" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -9342,7 +9387,7 @@
         <v>1</v>
       </c>
       <c r="H263" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -9368,7 +9413,7 @@
         <v>1</v>
       </c>
       <c r="H264" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -9394,7 +9439,7 @@
         <v>0</v>
       </c>
       <c r="H265" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -9420,7 +9465,7 @@
         <v>0</v>
       </c>
       <c r="H266" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -9446,7 +9491,7 @@
         <v>0</v>
       </c>
       <c r="H267" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -9472,7 +9517,7 @@
         <v>0</v>
       </c>
       <c r="H268" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -9498,7 +9543,7 @@
         <v>0</v>
       </c>
       <c r="H269" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -9524,7 +9569,7 @@
         <v>0</v>
       </c>
       <c r="H270" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -9550,7 +9595,7 @@
         <v>0</v>
       </c>
       <c r="H271" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -9576,7 +9621,7 @@
         <v>0</v>
       </c>
       <c r="H272" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -9602,7 +9647,7 @@
         <v>0</v>
       </c>
       <c r="H273" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -9628,7 +9673,7 @@
         <v>0</v>
       </c>
       <c r="H274" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -9654,7 +9699,7 @@
         <v>0</v>
       </c>
       <c r="H275" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -9680,7 +9725,7 @@
         <v>0</v>
       </c>
       <c r="H276" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -9706,7 +9751,7 @@
         <v>0</v>
       </c>
       <c r="H277" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -9732,7 +9777,7 @@
         <v>1</v>
       </c>
       <c r="H278" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -9758,7 +9803,7 @@
         <v>1</v>
       </c>
       <c r="H279" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -9784,7 +9829,7 @@
         <v>1</v>
       </c>
       <c r="H280" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -9810,7 +9855,7 @@
         <v>1</v>
       </c>
       <c r="H281" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -9836,7 +9881,7 @@
         <v>1</v>
       </c>
       <c r="H282" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -9862,7 +9907,7 @@
         <v>0.7142044494761026</v>
       </c>
       <c r="H283" t="s">
-        <v>649</v>
+        <v>658</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -9888,7 +9933,7 @@
         <v>1</v>
       </c>
       <c r="H284" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -9914,7 +9959,7 @@
         <v>1</v>
       </c>
       <c r="H285" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -9940,7 +9985,7 @@
         <v>0.2639905523353389</v>
       </c>
       <c r="H286" t="s">
-        <v>650</v>
+        <v>659</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -9966,7 +10011,7 @@
         <v>0</v>
       </c>
       <c r="H287" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -9992,7 +10037,7 @@
         <v>0.3050160804809514</v>
       </c>
       <c r="H288" t="s">
-        <v>651</v>
+        <v>660</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -10018,7 +10063,7 @@
         <v>0</v>
       </c>
       <c r="H289" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -10044,7 +10089,7 @@
         <v>1</v>
       </c>
       <c r="H290" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -10070,7 +10115,7 @@
         <v>0.3145757608208205</v>
       </c>
       <c r="H291" t="s">
-        <v>652</v>
+        <v>661</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -10096,7 +10141,7 @@
         <v>1</v>
       </c>
       <c r="H292" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -10122,7 +10167,7 @@
         <v>0</v>
       </c>
       <c r="H293" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -10148,7 +10193,7 @@
         <v>0</v>
       </c>
       <c r="H294" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -10174,7 +10219,7 @@
         <v>0</v>
       </c>
       <c r="H295" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -10200,7 +10245,7 @@
         <v>1</v>
       </c>
       <c r="H296" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -10226,7 +10271,7 @@
         <v>1</v>
       </c>
       <c r="H297" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -10252,7 +10297,7 @@
         <v>0</v>
       </c>
       <c r="H298" t="s">
-        <v>593</v>
+        <v>602</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -10278,7 +10323,7 @@
         <v>0</v>
       </c>
       <c r="H299" t="s">
-        <v>593</v>
+        <v>602</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -10304,7 +10349,7 @@
         <v>0</v>
       </c>
       <c r="H300" t="s">
-        <v>593</v>
+        <v>602</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -10330,7 +10375,7 @@
         <v>0</v>
       </c>
       <c r="H301" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -10356,7 +10401,7 @@
         <v>1</v>
       </c>
       <c r="H302" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -10382,7 +10427,7 @@
         <v>1</v>
       </c>
       <c r="H303" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -10408,7 +10453,7 @@
         <v>1</v>
       </c>
       <c r="H304" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -10434,7 +10479,7 @@
         <v>0.4684480917829717</v>
       </c>
       <c r="H305" t="s">
-        <v>653</v>
+        <v>662</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -10460,7 +10505,7 @@
         <v>1</v>
       </c>
       <c r="H306" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -10486,7 +10531,7 @@
         <v>1</v>
       </c>
       <c r="H307" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -10512,7 +10557,7 @@
         <v>0</v>
       </c>
       <c r="H308" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -10538,7 +10583,7 @@
         <v>0.4802500784481633</v>
       </c>
       <c r="H309" t="s">
-        <v>654</v>
+        <v>663</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -10564,7 +10609,7 @@
         <v>0.532085355697567</v>
       </c>
       <c r="H310" t="s">
-        <v>655</v>
+        <v>664</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -10590,7 +10635,7 @@
         <v>1</v>
       </c>
       <c r="H311" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -10616,7 +10661,7 @@
         <v>1</v>
       </c>
       <c r="H312" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -10642,7 +10687,7 @@
         <v>0</v>
       </c>
       <c r="H313" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -10668,7 +10713,7 @@
         <v>0</v>
       </c>
       <c r="H314" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -10694,7 +10739,7 @@
         <v>1</v>
       </c>
       <c r="H315" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -10720,7 +10765,7 @@
         <v>0</v>
       </c>
       <c r="H316" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -10746,7 +10791,7 @@
         <v>0</v>
       </c>
       <c r="H317" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -10772,7 +10817,7 @@
         <v>0</v>
       </c>
       <c r="H318" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -10798,7 +10843,7 @@
         <v>0.5265664424230306</v>
       </c>
       <c r="H319" t="s">
-        <v>656</v>
+        <v>665</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -10824,7 +10869,7 @@
         <v>1</v>
       </c>
       <c r="H320" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -10850,7 +10895,7 @@
         <v>1</v>
       </c>
       <c r="H321" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -10876,7 +10921,7 @@
         <v>0.4883210443310049</v>
       </c>
       <c r="H322" t="s">
-        <v>657</v>
+        <v>666</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -10902,7 +10947,7 @@
         <v>1</v>
       </c>
       <c r="H323" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -10928,7 +10973,7 @@
         <v>1</v>
       </c>
       <c r="H324" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -10954,7 +10999,7 @@
         <v>0.4944701228381642</v>
       </c>
       <c r="H325" t="s">
-        <v>658</v>
+        <v>667</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -10980,7 +11025,7 @@
         <v>0.6176406945258538</v>
       </c>
       <c r="H326" t="s">
-        <v>659</v>
+        <v>668</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -11006,7 +11051,7 @@
         <v>1</v>
       </c>
       <c r="H327" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -11032,7 +11077,7 @@
         <v>0</v>
       </c>
       <c r="H328" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -11058,7 +11103,7 @@
         <v>1</v>
       </c>
       <c r="H329" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -11084,7 +11129,7 @@
         <v>1</v>
       </c>
       <c r="H330" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -11110,7 +11155,7 @@
         <v>1</v>
       </c>
       <c r="H331" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -11136,7 +11181,7 @@
         <v>0</v>
       </c>
       <c r="H332" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -11162,7 +11207,7 @@
         <v>1</v>
       </c>
       <c r="H333" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -11188,7 +11233,7 @@
         <v>0</v>
       </c>
       <c r="H334" t="s">
-        <v>593</v>
+        <v>602</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -11214,7 +11259,7 @@
         <v>0</v>
       </c>
       <c r="H335" t="s">
-        <v>593</v>
+        <v>602</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -11240,7 +11285,7 @@
         <v>0</v>
       </c>
       <c r="H336" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -11266,7 +11311,7 @@
         <v>0</v>
       </c>
       <c r="H337" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -11292,7 +11337,7 @@
         <v>0</v>
       </c>
       <c r="H338" t="s">
-        <v>593</v>
+        <v>602</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -11318,7 +11363,7 @@
         <v>0</v>
       </c>
       <c r="H339" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -11344,7 +11389,7 @@
         <v>0</v>
       </c>
       <c r="H340" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -11370,7 +11415,7 @@
         <v>0</v>
       </c>
       <c r="H341" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -11396,7 +11441,7 @@
         <v>0</v>
       </c>
       <c r="H342" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -11422,7 +11467,7 @@
         <v>0</v>
       </c>
       <c r="H343" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -11448,7 +11493,7 @@
         <v>0</v>
       </c>
       <c r="H344" t="s">
-        <v>593</v>
+        <v>602</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -11474,7 +11519,7 @@
         <v>0</v>
       </c>
       <c r="H345" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -11500,7 +11545,7 @@
         <v>1</v>
       </c>
       <c r="H346" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -11526,7 +11571,7 @@
         <v>0</v>
       </c>
       <c r="H347" t="s">
-        <v>593</v>
+        <v>602</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -11552,7 +11597,7 @@
         <v>1</v>
       </c>
       <c r="H348" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -11578,7 +11623,7 @@
         <v>0</v>
       </c>
       <c r="H349" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -11604,7 +11649,7 @@
         <v>0</v>
       </c>
       <c r="H350" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -11630,7 +11675,7 @@
         <v>1</v>
       </c>
       <c r="H351" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -11656,7 +11701,7 @@
         <v>0</v>
       </c>
       <c r="H352" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -11682,7 +11727,7 @@
         <v>1</v>
       </c>
       <c r="H353" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -11708,7 +11753,7 @@
         <v>0</v>
       </c>
       <c r="H354" t="s">
-        <v>593</v>
+        <v>602</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -11734,7 +11779,7 @@
         <v>0</v>
       </c>
       <c r="H355" t="s">
-        <v>593</v>
+        <v>602</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -11760,7 +11805,7 @@
         <v>0.4727916941910472</v>
       </c>
       <c r="H356" t="s">
-        <v>660</v>
+        <v>669</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -11786,7 +11831,7 @@
         <v>0.592905125734851</v>
       </c>
       <c r="H357" t="s">
-        <v>661</v>
+        <v>670</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -11812,7 +11857,7 @@
         <v>1</v>
       </c>
       <c r="H358" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -11838,7 +11883,7 @@
         <v>1</v>
       </c>
       <c r="H359" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -11864,7 +11909,7 @@
         <v>0.58097429381426</v>
       </c>
       <c r="H360" t="s">
-        <v>662</v>
+        <v>671</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -11890,7 +11935,7 @@
         <v>0.590320286768299</v>
       </c>
       <c r="H361" t="s">
-        <v>663</v>
+        <v>672</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -11916,7 +11961,7 @@
         <v>1</v>
       </c>
       <c r="H362" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -11942,7 +11987,7 @@
         <v>1</v>
       </c>
       <c r="H363" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -11968,7 +12013,7 @@
         <v>1</v>
       </c>
       <c r="H364" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -11994,7 +12039,7 @@
         <v>0.5415421297068406</v>
       </c>
       <c r="H365" t="s">
-        <v>664</v>
+        <v>673</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -12020,7 +12065,7 @@
         <v>0.4755980664578932</v>
       </c>
       <c r="H366" t="s">
-        <v>665</v>
+        <v>674</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -12046,7 +12091,7 @@
         <v>0.4674576009420436</v>
       </c>
       <c r="H367" t="s">
-        <v>666</v>
+        <v>675</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -12072,7 +12117,7 @@
         <v>0</v>
       </c>
       <c r="H368" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -12098,7 +12143,7 @@
         <v>0</v>
       </c>
       <c r="H369" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -12124,7 +12169,7 @@
         <v>0.4117206427581332</v>
       </c>
       <c r="H370" t="s">
-        <v>667</v>
+        <v>676</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -12150,7 +12195,7 @@
         <v>0</v>
       </c>
       <c r="H371" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -12176,7 +12221,7 @@
         <v>0.4877674881041185</v>
       </c>
       <c r="H372" t="s">
-        <v>668</v>
+        <v>677</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -12202,7 +12247,7 @@
         <v>1</v>
       </c>
       <c r="H373" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -12228,7 +12273,7 @@
         <v>0</v>
       </c>
       <c r="H374" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -12254,7 +12299,7 @@
         <v>1</v>
       </c>
       <c r="H375" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -12280,7 +12325,7 @@
         <v>1</v>
       </c>
       <c r="H376" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -12306,7 +12351,7 @@
         <v>1</v>
       </c>
       <c r="H377" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -12332,7 +12377,7 @@
         <v>0.5457340096649603</v>
       </c>
       <c r="H378" t="s">
-        <v>608</v>
+        <v>617</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -12358,7 +12403,7 @@
         <v>0.5430661202901698</v>
       </c>
       <c r="H379" t="s">
-        <v>669</v>
+        <v>678</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -12384,7 +12429,7 @@
         <v>0.3901508834189628</v>
       </c>
       <c r="H380" t="s">
-        <v>670</v>
+        <v>679</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -12410,7 +12455,7 @@
         <v>1</v>
       </c>
       <c r="H381" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -12436,7 +12481,7 @@
         <v>0</v>
       </c>
       <c r="H382" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -12462,7 +12507,7 @@
         <v>0.3842350957253691</v>
       </c>
       <c r="H383" t="s">
-        <v>671</v>
+        <v>680</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -12488,7 +12533,7 @@
         <v>0</v>
       </c>
       <c r="H384" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -12514,7 +12559,7 @@
         <v>0.5507071125792278</v>
       </c>
       <c r="H385" t="s">
-        <v>672</v>
+        <v>681</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -12540,7 +12585,7 @@
         <v>1</v>
       </c>
       <c r="H386" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -12566,7 +12611,7 @@
         <v>0.4377320953597089</v>
       </c>
       <c r="H387" t="s">
-        <v>673</v>
+        <v>682</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -12592,7 +12637,7 @@
         <v>1</v>
       </c>
       <c r="H388" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -12618,7 +12663,7 @@
         <v>1</v>
       </c>
       <c r="H389" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -12644,7 +12689,7 @@
         <v>0.4814930652016589</v>
       </c>
       <c r="H390" t="s">
-        <v>674</v>
+        <v>683</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -12670,7 +12715,7 @@
         <v>1</v>
       </c>
       <c r="H391" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -12696,7 +12741,7 @@
         <v>0</v>
       </c>
       <c r="H392" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -12722,7 +12767,7 @@
         <v>0</v>
       </c>
       <c r="H393" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -12748,7 +12793,7 @@
         <v>0</v>
       </c>
       <c r="H394" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -12774,7 +12819,7 @@
         <v>0</v>
       </c>
       <c r="H395" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -12800,7 +12845,7 @@
         <v>0</v>
       </c>
       <c r="H396" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -12826,7 +12871,7 @@
         <v>0</v>
       </c>
       <c r="H397" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -12852,7 +12897,7 @@
         <v>0</v>
       </c>
       <c r="H398" t="s">
-        <v>593</v>
+        <v>602</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -12878,7 +12923,7 @@
         <v>0</v>
       </c>
       <c r="H399" t="s">
-        <v>593</v>
+        <v>602</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -12904,7 +12949,7 @@
         <v>1</v>
       </c>
       <c r="H400" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -12930,7 +12975,7 @@
         <v>1</v>
       </c>
       <c r="H401" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -12956,7 +13001,7 @@
         <v>0</v>
       </c>
       <c r="H402" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -12982,7 +13027,7 @@
         <v>1</v>
       </c>
       <c r="H403" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -13008,7 +13053,7 @@
         <v>0</v>
       </c>
       <c r="H404" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -13034,7 +13079,7 @@
         <v>0</v>
       </c>
       <c r="H405" t="s">
-        <v>593</v>
+        <v>602</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -13060,7 +13105,7 @@
         <v>0</v>
       </c>
       <c r="H406" t="s">
-        <v>593</v>
+        <v>602</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -13086,7 +13131,7 @@
         <v>0</v>
       </c>
       <c r="H407" t="s">
-        <v>593</v>
+        <v>602</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -13112,7 +13157,7 @@
         <v>0</v>
       </c>
       <c r="H408" t="s">
-        <v>593</v>
+        <v>602</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -13138,7 +13183,7 @@
         <v>0</v>
       </c>
       <c r="H409" t="s">
-        <v>593</v>
+        <v>602</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -13164,7 +13209,7 @@
         <v>1</v>
       </c>
       <c r="H410" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -13190,7 +13235,7 @@
         <v>0.5237945388446439</v>
       </c>
       <c r="H411" t="s">
-        <v>675</v>
+        <v>684</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -13216,7 +13261,7 @@
         <v>0</v>
       </c>
       <c r="H412" t="s">
-        <v>593</v>
+        <v>602</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -13242,7 +13287,7 @@
         <v>1</v>
       </c>
       <c r="H413" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -13268,7 +13313,7 @@
         <v>0</v>
       </c>
       <c r="H414" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -13294,7 +13339,7 @@
         <v>0.4829678148125897</v>
       </c>
       <c r="H415" t="s">
-        <v>676</v>
+        <v>685</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -13320,7 +13365,7 @@
         <v>0</v>
       </c>
       <c r="H416" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -13346,7 +13391,7 @@
         <v>1</v>
       </c>
       <c r="H417" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -13372,7 +13417,7 @@
         <v>0.5064587496515739</v>
       </c>
       <c r="H418" t="s">
-        <v>677</v>
+        <v>686</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -13398,7 +13443,7 @@
         <v>1</v>
       </c>
       <c r="H419" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -13424,7 +13469,7 @@
         <v>1</v>
       </c>
       <c r="H420" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -13450,7 +13495,7 @@
         <v>0</v>
       </c>
       <c r="H421" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -13476,7 +13521,7 @@
         <v>1</v>
       </c>
       <c r="H422" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -13502,7 +13547,7 @@
         <v>1</v>
       </c>
       <c r="H423" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -13528,7 +13573,7 @@
         <v>1</v>
       </c>
       <c r="H424" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -13554,7 +13599,7 @@
         <v>0.4836442888087482</v>
       </c>
       <c r="H425" t="s">
-        <v>678</v>
+        <v>687</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -13580,7 +13625,7 @@
         <v>0.4305630440122571</v>
       </c>
       <c r="H426" t="s">
-        <v>679</v>
+        <v>688</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -13606,7 +13651,7 @@
         <v>0</v>
       </c>
       <c r="H427" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -13632,7 +13677,7 @@
         <v>0</v>
       </c>
       <c r="H428" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -13658,7 +13703,7 @@
         <v>0</v>
       </c>
       <c r="H429" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -13684,7 +13729,7 @@
         <v>0</v>
       </c>
       <c r="H430" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -13710,7 +13755,7 @@
         <v>1</v>
       </c>
       <c r="H431" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -13736,7 +13781,7 @@
         <v>0.3428495312542179</v>
       </c>
       <c r="H432" t="s">
-        <v>680</v>
+        <v>689</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -13762,7 +13807,7 @@
         <v>1</v>
       </c>
       <c r="H433" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -13788,7 +13833,7 @@
         <v>1</v>
       </c>
       <c r="H434" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -13814,7 +13859,7 @@
         <v>1</v>
       </c>
       <c r="H435" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -13840,7 +13885,7 @@
         <v>1</v>
       </c>
       <c r="H436" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -13866,7 +13911,7 @@
         <v>1</v>
       </c>
       <c r="H437" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -13892,7 +13937,7 @@
         <v>0.37692505804925</v>
       </c>
       <c r="H438" t="s">
-        <v>681</v>
+        <v>690</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -13918,7 +13963,7 @@
         <v>0</v>
       </c>
       <c r="H439" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -13944,7 +13989,7 @@
         <v>1</v>
       </c>
       <c r="H440" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -13970,7 +14015,7 @@
         <v>1</v>
       </c>
       <c r="H441" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -13996,7 +14041,7 @@
         <v>1</v>
       </c>
       <c r="H442" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -14022,7 +14067,7 @@
         <v>1</v>
       </c>
       <c r="H443" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -14048,7 +14093,7 @@
         <v>1</v>
       </c>
       <c r="H444" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -14074,7 +14119,7 @@
         <v>1</v>
       </c>
       <c r="H445" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -14100,7 +14145,7 @@
         <v>0</v>
       </c>
       <c r="H446" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -14126,7 +14171,7 @@
         <v>1</v>
       </c>
       <c r="H447" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -14152,7 +14197,7 @@
         <v>0.4999972278116096</v>
       </c>
       <c r="H448" t="s">
-        <v>682</v>
+        <v>691</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -14178,7 +14223,7 @@
         <v>1</v>
       </c>
       <c r="H449" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -14204,7 +14249,7 @@
         <v>1</v>
       </c>
       <c r="H450" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -14230,7 +14275,7 @@
         <v>0.5000008135448658</v>
       </c>
       <c r="H451" t="s">
-        <v>682</v>
+        <v>691</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -14256,7 +14301,7 @@
         <v>0.5000003432102331</v>
       </c>
       <c r="H452" t="s">
-        <v>682</v>
+        <v>691</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -14282,7 +14327,7 @@
         <v>0</v>
       </c>
       <c r="H453" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -14308,7 +14353,7 @@
         <v>0</v>
       </c>
       <c r="H454" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -14334,7 +14379,7 @@
         <v>0.5000000080651682</v>
       </c>
       <c r="H455" t="s">
-        <v>682</v>
+        <v>691</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -14360,7 +14405,7 @@
         <v>0.5000000574845813</v>
       </c>
       <c r="H456" t="s">
-        <v>682</v>
+        <v>691</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -14386,7 +14431,7 @@
         <v>0.5000000803710055</v>
       </c>
       <c r="H457" t="s">
-        <v>682</v>
+        <v>691</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -14412,7 +14457,7 @@
         <v>0.5000001550519353</v>
       </c>
       <c r="H458" t="s">
-        <v>682</v>
+        <v>691</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -14438,7 +14483,7 @@
         <v>0.4999998517320268</v>
       </c>
       <c r="H459" t="s">
-        <v>682</v>
+        <v>691</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -14464,7 +14509,7 @@
         <v>0.4999999162606177</v>
       </c>
       <c r="H460" t="s">
-        <v>682</v>
+        <v>691</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -14490,7 +14535,7 @@
         <v>1</v>
       </c>
       <c r="H461" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -14516,7 +14561,7 @@
         <v>0.4999999724325874</v>
       </c>
       <c r="H462" t="s">
-        <v>682</v>
+        <v>691</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -14542,7 +14587,7 @@
         <v>1</v>
       </c>
       <c r="H463" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -14568,7 +14613,7 @@
         <v>1</v>
       </c>
       <c r="H464" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -14594,7 +14639,7 @@
         <v>1</v>
       </c>
       <c r="H465" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -14620,7 +14665,7 @@
         <v>1</v>
       </c>
       <c r="H466" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -14646,7 +14691,7 @@
         <v>0.4999999784054215</v>
       </c>
       <c r="H467" t="s">
-        <v>682</v>
+        <v>691</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -14672,7 +14717,7 @@
         <v>1</v>
       </c>
       <c r="H468" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -14698,7 +14743,7 @@
         <v>0.4999989399808594</v>
       </c>
       <c r="H469" t="s">
-        <v>682</v>
+        <v>691</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -14724,7 +14769,7 @@
         <v>1</v>
       </c>
       <c r="H470" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -14750,7 +14795,7 @@
         <v>0.4999953048749839</v>
       </c>
       <c r="H471" t="s">
-        <v>682</v>
+        <v>691</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -14776,7 +14821,7 @@
         <v>1</v>
       </c>
       <c r="H472" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -14802,7 +14847,7 @@
         <v>0</v>
       </c>
       <c r="H473" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -14828,7 +14873,7 @@
         <v>1</v>
       </c>
       <c r="H474" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -14854,7 +14899,7 @@
         <v>1</v>
       </c>
       <c r="H475" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -14880,7 +14925,7 @@
         <v>0.4969990790199526</v>
       </c>
       <c r="H476" t="s">
-        <v>683</v>
+        <v>692</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -14906,7 +14951,7 @@
         <v>0.4981722583163443</v>
       </c>
       <c r="H477" t="s">
-        <v>684</v>
+        <v>693</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -14932,7 +14977,7 @@
         <v>0</v>
       </c>
       <c r="H478" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -14958,7 +15003,7 @@
         <v>0.5093432530308867</v>
       </c>
       <c r="H479" t="s">
-        <v>685</v>
+        <v>694</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -14984,7 +15029,7 @@
         <v>0.4678216607044495</v>
       </c>
       <c r="H480" t="s">
-        <v>686</v>
+        <v>695</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -15010,7 +15055,7 @@
         <v>1</v>
       </c>
       <c r="H481" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -15036,7 +15081,7 @@
         <v>1</v>
       </c>
       <c r="H482" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -15062,7 +15107,7 @@
         <v>1</v>
       </c>
       <c r="H483" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -15088,7 +15133,7 @@
         <v>0.369962575225719</v>
       </c>
       <c r="H484" t="s">
-        <v>687</v>
+        <v>696</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -15114,7 +15159,7 @@
         <v>0.6603250957542344</v>
       </c>
       <c r="H485" t="s">
-        <v>688</v>
+        <v>697</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -15140,7 +15185,7 @@
         <v>0</v>
       </c>
       <c r="H486" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -15166,7 +15211,7 @@
         <v>0.5055697140154364</v>
       </c>
       <c r="H487" t="s">
-        <v>689</v>
+        <v>698</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -15192,7 +15237,7 @@
         <v>1</v>
       </c>
       <c r="H488" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -15218,7 +15263,7 @@
         <v>0</v>
       </c>
       <c r="H489" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -15244,7 +15289,7 @@
         <v>1</v>
       </c>
       <c r="H490" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -15270,7 +15315,7 @@
         <v>1</v>
       </c>
       <c r="H491" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -15296,7 +15341,7 @@
         <v>0.4265981834073078</v>
       </c>
       <c r="H492" t="s">
-        <v>690</v>
+        <v>699</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -15322,7 +15367,7 @@
         <v>0.3945013483697977</v>
       </c>
       <c r="H493" t="s">
-        <v>691</v>
+        <v>700</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -15348,7 +15393,7 @@
         <v>0.4155486167886422</v>
       </c>
       <c r="H494" t="s">
-        <v>692</v>
+        <v>701</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -15374,7 +15419,7 @@
         <v>0.3574178298209847</v>
       </c>
       <c r="H495" t="s">
-        <v>693</v>
+        <v>702</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -15400,7 +15445,7 @@
         <v>0.6578042133963591</v>
       </c>
       <c r="H496" t="s">
-        <v>694</v>
+        <v>703</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -15426,7 +15471,7 @@
         <v>0.5644716658145573</v>
       </c>
       <c r="H497" t="s">
-        <v>695</v>
+        <v>704</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -15452,7 +15497,7 @@
         <v>1</v>
       </c>
       <c r="H498" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -15478,7 +15523,7 @@
         <v>0</v>
       </c>
       <c r="H499" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -15504,7 +15549,7 @@
         <v>1</v>
       </c>
       <c r="H500" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -15530,7 +15575,7 @@
         <v>1</v>
       </c>
       <c r="H501" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -15556,7 +15601,7 @@
         <v>1</v>
       </c>
       <c r="H502" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -15582,7 +15627,7 @@
         <v>0</v>
       </c>
       <c r="H503" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -15608,7 +15653,7 @@
         <v>1</v>
       </c>
       <c r="H504" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -15634,7 +15679,7 @@
         <v>0</v>
       </c>
       <c r="H505" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -15660,7 +15705,7 @@
         <v>0</v>
       </c>
       <c r="H506" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -15686,7 +15731,7 @@
         <v>0</v>
       </c>
       <c r="H507" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -15712,7 +15757,7 @@
         <v>0.6264273857853571</v>
       </c>
       <c r="H508" t="s">
-        <v>696</v>
+        <v>705</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -15738,7 +15783,7 @@
         <v>0.4175190869931275</v>
       </c>
       <c r="H509" t="s">
-        <v>697</v>
+        <v>706</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -15764,7 +15809,7 @@
         <v>0.4612237382094103</v>
       </c>
       <c r="H510" t="s">
-        <v>611</v>
+        <v>620</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -15790,7 +15835,7 @@
         <v>0.4666308316759433</v>
       </c>
       <c r="H511" t="s">
-        <v>698</v>
+        <v>707</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -15816,7 +15861,7 @@
         <v>1</v>
       </c>
       <c r="H512" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -15842,7 +15887,7 @@
         <v>1</v>
       </c>
       <c r="H513" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -15868,7 +15913,7 @@
         <v>1</v>
       </c>
       <c r="H514" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -15894,7 +15939,7 @@
         <v>0</v>
       </c>
       <c r="H515" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -15920,7 +15965,7 @@
         <v>1</v>
       </c>
       <c r="H516" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -15946,7 +15991,7 @@
         <v>0</v>
       </c>
       <c r="H517" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -15972,7 +16017,7 @@
         <v>0</v>
       </c>
       <c r="H518" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -15998,7 +16043,7 @@
         <v>0</v>
       </c>
       <c r="H519" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -16024,7 +16069,7 @@
         <v>0</v>
       </c>
       <c r="H520" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -16050,7 +16095,7 @@
         <v>0</v>
       </c>
       <c r="H521" t="s">
-        <v>593</v>
+        <v>602</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -16076,7 +16121,7 @@
         <v>0</v>
       </c>
       <c r="H522" t="s">
-        <v>593</v>
+        <v>602</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -16102,7 +16147,7 @@
         <v>0</v>
       </c>
       <c r="H523" t="s">
-        <v>593</v>
+        <v>602</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -16128,7 +16173,7 @@
         <v>0</v>
       </c>
       <c r="H524" t="s">
-        <v>593</v>
+        <v>602</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -16154,7 +16199,7 @@
         <v>0</v>
       </c>
       <c r="H525" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -16180,7 +16225,7 @@
         <v>0</v>
       </c>
       <c r="H526" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -16206,7 +16251,7 @@
         <v>0.5422831111408063</v>
       </c>
       <c r="H527" t="s">
-        <v>699</v>
+        <v>708</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -16232,7 +16277,7 @@
         <v>0</v>
       </c>
       <c r="H528" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -16258,7 +16303,7 @@
         <v>0</v>
       </c>
       <c r="H529" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -16284,7 +16329,7 @@
         <v>0</v>
       </c>
       <c r="H530" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -16310,7 +16355,7 @@
         <v>0</v>
       </c>
       <c r="H531" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -16336,7 +16381,7 @@
         <v>0</v>
       </c>
       <c r="H532" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -16362,7 +16407,7 @@
         <v>0</v>
       </c>
       <c r="H533" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -16388,7 +16433,7 @@
         <v>0</v>
       </c>
       <c r="H534" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -16414,7 +16459,7 @@
         <v>0</v>
       </c>
       <c r="H535" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -16440,7 +16485,7 @@
         <v>0</v>
       </c>
       <c r="H536" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -16466,7 +16511,7 @@
         <v>0</v>
       </c>
       <c r="H537" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -16492,7 +16537,7 @@
         <v>0</v>
       </c>
       <c r="H538" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -16518,7 +16563,7 @@
         <v>0</v>
       </c>
       <c r="H539" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -16544,7 +16589,7 @@
         <v>0</v>
       </c>
       <c r="H540" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -16570,7 +16615,7 @@
         <v>0</v>
       </c>
       <c r="H541" t="s">
-        <v>593</v>
+        <v>602</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -16596,7 +16641,7 @@
         <v>0</v>
       </c>
       <c r="H542" t="s">
-        <v>593</v>
+        <v>602</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -16622,7 +16667,7 @@
         <v>0</v>
       </c>
       <c r="H543" t="s">
-        <v>593</v>
+        <v>602</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -16648,7 +16693,7 @@
         <v>0</v>
       </c>
       <c r="H544" t="s">
-        <v>593</v>
+        <v>602</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -16674,7 +16719,7 @@
         <v>0</v>
       </c>
       <c r="H545" t="s">
-        <v>593</v>
+        <v>602</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -16700,7 +16745,7 @@
         <v>0</v>
       </c>
       <c r="H546" t="s">
-        <v>593</v>
+        <v>602</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -16726,7 +16771,7 @@
         <v>0</v>
       </c>
       <c r="H547" t="s">
-        <v>593</v>
+        <v>602</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -16752,7 +16797,7 @@
         <v>0</v>
       </c>
       <c r="H548" t="s">
-        <v>593</v>
+        <v>602</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -16778,7 +16823,7 @@
         <v>0</v>
       </c>
       <c r="H549" t="s">
-        <v>593</v>
+        <v>602</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -16804,7 +16849,7 @@
         <v>0</v>
       </c>
       <c r="H550" t="s">
-        <v>593</v>
+        <v>602</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -16830,7 +16875,7 @@
         <v>0</v>
       </c>
       <c r="H551" t="s">
-        <v>593</v>
+        <v>602</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -16856,7 +16901,7 @@
         <v>1</v>
       </c>
       <c r="H552" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -16882,7 +16927,7 @@
         <v>1</v>
       </c>
       <c r="H553" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -16908,7 +16953,7 @@
         <v>1</v>
       </c>
       <c r="H554" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -16934,7 +16979,7 @@
         <v>1</v>
       </c>
       <c r="H555" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -16960,7 +17005,7 @@
         <v>0</v>
       </c>
       <c r="H556" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -16986,7 +17031,7 @@
         <v>0</v>
       </c>
       <c r="H557" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -17012,7 +17057,7 @@
         <v>1</v>
       </c>
       <c r="H558" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -17038,7 +17083,7 @@
         <v>0</v>
       </c>
       <c r="H559" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -17064,7 +17109,7 @@
         <v>0</v>
       </c>
       <c r="H560" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="561" spans="1:8">
@@ -17090,7 +17135,7 @@
         <v>0</v>
       </c>
       <c r="H561" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="562" spans="1:8">
@@ -17116,7 +17161,7 @@
         <v>0</v>
       </c>
       <c r="H562" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="563" spans="1:8">
@@ -17142,7 +17187,7 @@
         <v>0</v>
       </c>
       <c r="H563" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="564" spans="1:8">
@@ -17168,7 +17213,7 @@
         <v>1</v>
       </c>
       <c r="H564" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="565" spans="1:8">
@@ -17194,7 +17239,7 @@
         <v>0.04043368191437317</v>
       </c>
       <c r="H565" t="s">
-        <v>700</v>
+        <v>709</v>
       </c>
     </row>
     <row r="566" spans="1:8">
@@ -17220,7 +17265,7 @@
         <v>1</v>
       </c>
       <c r="H566" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="567" spans="1:8">
@@ -17246,7 +17291,7 @@
         <v>1</v>
       </c>
       <c r="H567" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="568" spans="1:8">
@@ -17272,7 +17317,7 @@
         <v>1</v>
       </c>
       <c r="H568" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="569" spans="1:8">
@@ -17298,7 +17343,7 @@
         <v>0.8904983753195824</v>
       </c>
       <c r="H569" t="s">
-        <v>701</v>
+        <v>710</v>
       </c>
     </row>
     <row r="570" spans="1:8">
@@ -17324,7 +17369,7 @@
         <v>0.9006798926483729</v>
       </c>
       <c r="H570" t="s">
-        <v>702</v>
+        <v>711</v>
       </c>
     </row>
     <row r="571" spans="1:8">
@@ -17350,7 +17395,7 @@
         <v>0.8578184898667132</v>
       </c>
       <c r="H571" t="s">
-        <v>703</v>
+        <v>712</v>
       </c>
     </row>
     <row r="572" spans="1:8">
@@ -17376,7 +17421,7 @@
         <v>0</v>
       </c>
       <c r="H572" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="573" spans="1:8">
@@ -17402,7 +17447,7 @@
         <v>0.7706087229233247</v>
       </c>
       <c r="H573" t="s">
-        <v>704</v>
+        <v>713</v>
       </c>
     </row>
     <row r="574" spans="1:8">
@@ -17428,7 +17473,7 @@
         <v>0</v>
       </c>
       <c r="H574" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="575" spans="1:8">
@@ -17454,7 +17499,7 @@
         <v>0.511028129451869</v>
       </c>
       <c r="H575" t="s">
-        <v>705</v>
+        <v>714</v>
       </c>
     </row>
     <row r="576" spans="1:8">
@@ -17480,7 +17525,7 @@
         <v>0.5136569237850378</v>
       </c>
       <c r="H576" t="s">
-        <v>706</v>
+        <v>715</v>
       </c>
     </row>
     <row r="577" spans="1:8">
@@ -17506,7 +17551,7 @@
         <v>0.4857393817989359</v>
       </c>
       <c r="H577" t="s">
-        <v>707</v>
+        <v>716</v>
       </c>
     </row>
     <row r="578" spans="1:8">
@@ -17532,7 +17577,7 @@
         <v>0.5090868776602728</v>
       </c>
       <c r="H578" t="s">
-        <v>708</v>
+        <v>717</v>
       </c>
     </row>
     <row r="579" spans="1:8">
@@ -17558,7 +17603,7 @@
         <v>0</v>
       </c>
       <c r="H579" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="580" spans="1:8">
@@ -17584,7 +17629,7 @@
         <v>1</v>
       </c>
       <c r="H580" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="581" spans="1:8">
@@ -17610,7 +17655,7 @@
         <v>0</v>
       </c>
       <c r="H581" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="582" spans="1:8">
@@ -17636,7 +17681,7 @@
         <v>0</v>
       </c>
       <c r="H582" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="583" spans="1:8">
@@ -17662,7 +17707,7 @@
         <v>0.5001940020955155</v>
       </c>
       <c r="H583" t="s">
-        <v>709</v>
+        <v>718</v>
       </c>
     </row>
     <row r="584" spans="1:8">
@@ -17688,7 +17733,7 @@
         <v>0</v>
       </c>
       <c r="H584" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
     </row>
     <row r="585" spans="1:8">
@@ -17698,7 +17743,13 @@
       <c r="B585" t="s">
         <v>590</v>
       </c>
+      <c r="C585">
+        <v>1</v>
+      </c>
       <c r="D585">
+        <v>1</v>
+      </c>
+      <c r="E585">
         <v>1</v>
       </c>
       <c r="F585">
@@ -17708,7 +17759,235 @@
         <v>0.5024496766726444</v>
       </c>
       <c r="H585" t="s">
-        <v>710</v>
+        <v>719</v>
+      </c>
+    </row>
+    <row r="586" spans="1:8">
+      <c r="A586" s="1">
+        <v>584</v>
+      </c>
+      <c r="B586" t="s">
+        <v>591</v>
+      </c>
+      <c r="C586">
+        <v>1</v>
+      </c>
+      <c r="D586">
+        <v>1</v>
+      </c>
+      <c r="E586">
+        <v>1</v>
+      </c>
+      <c r="F586">
+        <v>0.4957622819239457</v>
+      </c>
+      <c r="G586">
+        <v>0.5042377180760544</v>
+      </c>
+      <c r="H586" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="587" spans="1:8">
+      <c r="A587" s="1">
+        <v>585</v>
+      </c>
+      <c r="B587" t="s">
+        <v>592</v>
+      </c>
+      <c r="C587">
+        <v>0</v>
+      </c>
+      <c r="D587">
+        <v>0</v>
+      </c>
+      <c r="E587">
+        <v>1</v>
+      </c>
+      <c r="F587">
+        <v>0.504489336565315</v>
+      </c>
+      <c r="G587">
+        <v>0.4955106634346851</v>
+      </c>
+      <c r="H587" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="588" spans="1:8">
+      <c r="A588" s="1">
+        <v>586</v>
+      </c>
+      <c r="B588" t="s">
+        <v>593</v>
+      </c>
+      <c r="C588">
+        <v>0</v>
+      </c>
+      <c r="D588">
+        <v>1</v>
+      </c>
+      <c r="E588">
+        <v>0</v>
+      </c>
+      <c r="F588">
+        <v>0.4917806907713272</v>
+      </c>
+      <c r="G588">
+        <v>0.5082193092286729</v>
+      </c>
+      <c r="H588" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="589" spans="1:8">
+      <c r="A589" s="1">
+        <v>587</v>
+      </c>
+      <c r="B589" t="s">
+        <v>594</v>
+      </c>
+      <c r="C589">
+        <v>0</v>
+      </c>
+      <c r="D589">
+        <v>0</v>
+      </c>
+      <c r="E589">
+        <v>1</v>
+      </c>
+      <c r="F589">
+        <v>1</v>
+      </c>
+      <c r="G589">
+        <v>0</v>
+      </c>
+      <c r="H589" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="590" spans="1:8">
+      <c r="A590" s="1">
+        <v>588</v>
+      </c>
+      <c r="B590" t="s">
+        <v>595</v>
+      </c>
+      <c r="C590">
+        <v>0</v>
+      </c>
+      <c r="D590">
+        <v>0</v>
+      </c>
+      <c r="E590">
+        <v>1</v>
+      </c>
+      <c r="F590">
+        <v>1</v>
+      </c>
+      <c r="G590">
+        <v>0</v>
+      </c>
+      <c r="H590" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="591" spans="1:8">
+      <c r="A591" s="1">
+        <v>589</v>
+      </c>
+      <c r="B591" t="s">
+        <v>596</v>
+      </c>
+      <c r="C591">
+        <v>0</v>
+      </c>
+      <c r="D591">
+        <v>1</v>
+      </c>
+      <c r="E591">
+        <v>0</v>
+      </c>
+      <c r="F591">
+        <v>0.4971891654757201</v>
+      </c>
+      <c r="G591">
+        <v>0.5028108345242799</v>
+      </c>
+      <c r="H591" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="592" spans="1:8">
+      <c r="A592" s="1">
+        <v>590</v>
+      </c>
+      <c r="B592" t="s">
+        <v>597</v>
+      </c>
+      <c r="C592">
+        <v>1</v>
+      </c>
+      <c r="D592">
+        <v>0</v>
+      </c>
+      <c r="E592">
+        <v>0</v>
+      </c>
+      <c r="F592">
+        <v>0.5012346731843069</v>
+      </c>
+      <c r="G592">
+        <v>0.4987653268156931</v>
+      </c>
+      <c r="H592" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="593" spans="1:8">
+      <c r="A593" s="1">
+        <v>591</v>
+      </c>
+      <c r="B593" t="s">
+        <v>598</v>
+      </c>
+      <c r="C593">
+        <v>0</v>
+      </c>
+      <c r="D593">
+        <v>0</v>
+      </c>
+      <c r="E593">
+        <v>1</v>
+      </c>
+      <c r="F593">
+        <v>1</v>
+      </c>
+      <c r="G593">
+        <v>0</v>
+      </c>
+      <c r="H593" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="594" spans="1:8">
+      <c r="A594" s="1">
+        <v>592</v>
+      </c>
+      <c r="B594" t="s">
+        <v>599</v>
+      </c>
+      <c r="D594">
+        <v>0</v>
+      </c>
+      <c r="F594">
+        <v>0.5006270394373392</v>
+      </c>
+      <c r="G594">
+        <v>0.4993729605626608</v>
+      </c>
+      <c r="H594" t="s">
+        <v>725</v>
       </c>
     </row>
   </sheetData>

--- a/firebase_data_from_spyEnsembleValenOpt.xlsx
+++ b/firebase_data_from_spyEnsembleValenOpt.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1193" uniqueCount="726">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1201" uniqueCount="733">
   <si>
     <t>date</t>
   </si>
@@ -1816,6 +1816,18 @@
     <t>2025-11-07</t>
   </si>
   <si>
+    <t>2025-11-10</t>
+  </si>
+  <si>
+    <t>2025-11-11</t>
+  </si>
+  <si>
+    <t>2025-11-12</t>
+  </si>
+  <si>
+    <t>2025-11-13</t>
+  </si>
+  <si>
     <t>100.00</t>
   </si>
   <si>
@@ -2185,13 +2197,25 @@
     <t>50.82</t>
   </si>
   <si>
-    <t>50.28</t>
+    <t xml:space="preserve">50.28
+</t>
   </si>
   <si>
     <t>50.12</t>
   </si>
   <si>
-    <t>50.06</t>
+    <t>100.0</t>
+  </si>
+  <si>
+    <t>50.01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.22
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.29
+</t>
   </si>
 </sst>
 </file>
@@ -2549,7 +2573,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H594"/>
+  <dimension ref="A1:H598"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2601,7 +2625,7 @@
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2627,7 +2651,7 @@
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2653,7 +2677,7 @@
         <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2679,7 +2703,7 @@
         <v>0.4983795094639457</v>
       </c>
       <c r="H5" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2705,7 +2729,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2731,7 +2755,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2757,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2783,7 +2807,7 @@
         <v>1</v>
       </c>
       <c r="H9" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2809,7 +2833,7 @@
         <v>1</v>
       </c>
       <c r="H10" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2835,7 +2859,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2861,7 +2885,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2887,7 +2911,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2913,7 +2937,7 @@
         <v>1</v>
       </c>
       <c r="H14" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -2939,7 +2963,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2965,7 +2989,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2991,7 +3015,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -3017,7 +3041,7 @@
         <v>0.5302720732550883</v>
       </c>
       <c r="H18" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -3043,7 +3067,7 @@
         <v>1</v>
       </c>
       <c r="H19" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -3069,7 +3093,7 @@
         <v>1</v>
       </c>
       <c r="H20" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -3095,7 +3119,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -3121,7 +3145,7 @@
         <v>1</v>
       </c>
       <c r="H22" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -3147,7 +3171,7 @@
         <v>1</v>
       </c>
       <c r="H23" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -3173,7 +3197,7 @@
         <v>0</v>
       </c>
       <c r="H24" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -3199,7 +3223,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -3225,7 +3249,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -3251,7 +3275,7 @@
         <v>0</v>
       </c>
       <c r="H27" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -3277,7 +3301,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -3303,7 +3327,7 @@
         <v>0.367662797378024</v>
       </c>
       <c r="H29" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -3329,7 +3353,7 @@
         <v>0</v>
       </c>
       <c r="H30" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -3355,7 +3379,7 @@
         <v>0.6490964230728318</v>
       </c>
       <c r="H31" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -3381,7 +3405,7 @@
         <v>0.6057603550778452</v>
       </c>
       <c r="H32" t="s">
-        <v>606</v>
+        <v>610</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -3407,7 +3431,7 @@
         <v>1</v>
       </c>
       <c r="H33" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -3433,7 +3457,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -3459,7 +3483,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -3485,7 +3509,7 @@
         <v>0</v>
       </c>
       <c r="H36" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -3511,7 +3535,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -3537,7 +3561,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -3563,7 +3587,7 @@
         <v>0</v>
       </c>
       <c r="H39" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -3589,7 +3613,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -3615,7 +3639,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -3641,7 +3665,7 @@
         <v>0</v>
       </c>
       <c r="H42" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -3667,7 +3691,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -3693,7 +3717,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -3719,7 +3743,7 @@
         <v>1</v>
       </c>
       <c r="H45" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -3745,7 +3769,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -3771,7 +3795,7 @@
         <v>0</v>
       </c>
       <c r="H47" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -3797,7 +3821,7 @@
         <v>1</v>
       </c>
       <c r="H48" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -3823,7 +3847,7 @@
         <v>1</v>
       </c>
       <c r="H49" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -3849,7 +3873,7 @@
         <v>1</v>
       </c>
       <c r="H50" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -3875,7 +3899,7 @@
         <v>1</v>
       </c>
       <c r="H51" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -3901,7 +3925,7 @@
         <v>1</v>
       </c>
       <c r="H52" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -3927,7 +3951,7 @@
         <v>1</v>
       </c>
       <c r="H53" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -3953,7 +3977,7 @@
         <v>1</v>
       </c>
       <c r="H54" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -3979,7 +4003,7 @@
         <v>0.4590532610652691</v>
       </c>
       <c r="H55" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -4005,7 +4029,7 @@
         <v>0</v>
       </c>
       <c r="H56" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -4031,7 +4055,7 @@
         <v>1</v>
       </c>
       <c r="H57" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -4057,7 +4081,7 @@
         <v>0</v>
       </c>
       <c r="H58" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -4083,7 +4107,7 @@
         <v>0</v>
       </c>
       <c r="H59" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -4109,7 +4133,7 @@
         <v>1</v>
       </c>
       <c r="H60" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -4135,7 +4159,7 @@
         <v>1</v>
       </c>
       <c r="H61" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -4161,7 +4185,7 @@
         <v>1</v>
       </c>
       <c r="H62" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -4187,7 +4211,7 @@
         <v>0</v>
       </c>
       <c r="H63" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -4213,7 +4237,7 @@
         <v>1</v>
       </c>
       <c r="H64" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -4239,7 +4263,7 @@
         <v>0.4773667054320679</v>
       </c>
       <c r="H65" t="s">
-        <v>608</v>
+        <v>612</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -4265,7 +4289,7 @@
         <v>0</v>
       </c>
       <c r="H66" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -4291,7 +4315,7 @@
         <v>0</v>
       </c>
       <c r="H67" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -4317,7 +4341,7 @@
         <v>0.5208141133350609</v>
       </c>
       <c r="H68" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -4343,7 +4367,7 @@
         <v>1</v>
       </c>
       <c r="H69" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -4369,7 +4393,7 @@
         <v>1</v>
       </c>
       <c r="H70" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -4395,7 +4419,7 @@
         <v>1</v>
       </c>
       <c r="H71" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -4421,7 +4445,7 @@
         <v>0</v>
       </c>
       <c r="H72" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -4447,7 +4471,7 @@
         <v>1</v>
       </c>
       <c r="H73" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -4473,7 +4497,7 @@
         <v>0</v>
       </c>
       <c r="H74" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -4499,7 +4523,7 @@
         <v>0.4694271906128297</v>
       </c>
       <c r="H75" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -4525,7 +4549,7 @@
         <v>1</v>
       </c>
       <c r="H76" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -4551,7 +4575,7 @@
         <v>1</v>
       </c>
       <c r="H77" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -4577,7 +4601,7 @@
         <v>0.6419210570163193</v>
       </c>
       <c r="H78" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -4603,7 +4627,7 @@
         <v>0.4549904783820721</v>
       </c>
       <c r="H79" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -4629,7 +4653,7 @@
         <v>1</v>
       </c>
       <c r="H80" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -4655,7 +4679,7 @@
         <v>1</v>
       </c>
       <c r="H81" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -4681,7 +4705,7 @@
         <v>1</v>
       </c>
       <c r="H82" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -4707,7 +4731,7 @@
         <v>1</v>
       </c>
       <c r="H83" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -4733,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="H84" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -4759,7 +4783,7 @@
         <v>0</v>
       </c>
       <c r="H85" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -4785,7 +4809,7 @@
         <v>0</v>
       </c>
       <c r="H86" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -4811,7 +4835,7 @@
         <v>0</v>
       </c>
       <c r="H87" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -4837,7 +4861,7 @@
         <v>0</v>
       </c>
       <c r="H88" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -4863,7 +4887,7 @@
         <v>1</v>
       </c>
       <c r="H89" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -4889,7 +4913,7 @@
         <v>1</v>
       </c>
       <c r="H90" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -4915,7 +4939,7 @@
         <v>0.4892063155061278</v>
       </c>
       <c r="H91" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -4941,7 +4965,7 @@
         <v>1</v>
       </c>
       <c r="H92" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -4967,7 +4991,7 @@
         <v>0.4956272603429394</v>
       </c>
       <c r="H93" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -4993,7 +5017,7 @@
         <v>0</v>
       </c>
       <c r="H94" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -5019,7 +5043,7 @@
         <v>0.526878458993841</v>
       </c>
       <c r="H95" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -5045,7 +5069,7 @@
         <v>0.3456361528471477</v>
       </c>
       <c r="H96" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -5071,7 +5095,7 @@
         <v>0.4542811887331372</v>
       </c>
       <c r="H97" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -5097,7 +5121,7 @@
         <v>0.5887823063280541</v>
       </c>
       <c r="H98" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -5123,7 +5147,7 @@
         <v>1</v>
       </c>
       <c r="H99" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -5149,7 +5173,7 @@
         <v>0.5310307226938407</v>
       </c>
       <c r="H100" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -5175,7 +5199,7 @@
         <v>0.5449963581032603</v>
       </c>
       <c r="H101" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -5201,7 +5225,7 @@
         <v>0.538849657114027</v>
       </c>
       <c r="H102" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -5227,7 +5251,7 @@
         <v>1</v>
       </c>
       <c r="H103" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -5253,7 +5277,7 @@
         <v>0.5052296656566035</v>
       </c>
       <c r="H104" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -5279,7 +5303,7 @@
         <v>0</v>
       </c>
       <c r="H105" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -5305,7 +5329,7 @@
         <v>1</v>
       </c>
       <c r="H106" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -5331,7 +5355,7 @@
         <v>0</v>
       </c>
       <c r="H107" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -5357,7 +5381,7 @@
         <v>0</v>
       </c>
       <c r="H108" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -5383,7 +5407,7 @@
         <v>0</v>
       </c>
       <c r="H109" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -5409,7 +5433,7 @@
         <v>0</v>
       </c>
       <c r="H110" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -5435,7 +5459,7 @@
         <v>1</v>
       </c>
       <c r="H111" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -5461,7 +5485,7 @@
         <v>0</v>
       </c>
       <c r="H112" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -5487,7 +5511,7 @@
         <v>0</v>
       </c>
       <c r="H113" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -5513,7 +5537,7 @@
         <v>1</v>
       </c>
       <c r="H114" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -5539,7 +5563,7 @@
         <v>1</v>
       </c>
       <c r="H115" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -5565,7 +5589,7 @@
         <v>0.6646717726375582</v>
       </c>
       <c r="H116" t="s">
-        <v>622</v>
+        <v>626</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -5591,7 +5615,7 @@
         <v>1</v>
       </c>
       <c r="H117" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -5617,7 +5641,7 @@
         <v>1</v>
       </c>
       <c r="H118" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -5643,7 +5667,7 @@
         <v>0.6235604412909561</v>
       </c>
       <c r="H119" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -5669,7 +5693,7 @@
         <v>1</v>
       </c>
       <c r="H120" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -5695,7 +5719,7 @@
         <v>0.5462775678441429</v>
       </c>
       <c r="H121" t="s">
-        <v>624</v>
+        <v>628</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -5721,7 +5745,7 @@
         <v>1</v>
       </c>
       <c r="H122" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -5747,7 +5771,7 @@
         <v>0</v>
       </c>
       <c r="H123" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -5773,7 +5797,7 @@
         <v>0</v>
       </c>
       <c r="H124" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -5799,7 +5823,7 @@
         <v>1</v>
       </c>
       <c r="H125" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -5825,7 +5849,7 @@
         <v>0</v>
       </c>
       <c r="H126" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -5851,7 +5875,7 @@
         <v>0</v>
       </c>
       <c r="H127" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -5877,7 +5901,7 @@
         <v>0</v>
       </c>
       <c r="H128" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -5903,7 +5927,7 @@
         <v>0</v>
       </c>
       <c r="H129" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -5929,7 +5953,7 @@
         <v>0</v>
       </c>
       <c r="H130" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -5955,7 +5979,7 @@
         <v>0.3682203109306855</v>
       </c>
       <c r="H131" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -5981,7 +6005,7 @@
         <v>0</v>
       </c>
       <c r="H132" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -6007,7 +6031,7 @@
         <v>1</v>
       </c>
       <c r="H133" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -6033,7 +6057,7 @@
         <v>0</v>
       </c>
       <c r="H134" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -6059,7 +6083,7 @@
         <v>0.5804551272682893</v>
       </c>
       <c r="H135" t="s">
-        <v>626</v>
+        <v>630</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -6085,7 +6109,7 @@
         <v>0.7726795896053059</v>
       </c>
       <c r="H136" t="s">
-        <v>627</v>
+        <v>631</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -6111,7 +6135,7 @@
         <v>0</v>
       </c>
       <c r="H137" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -6137,7 +6161,7 @@
         <v>0</v>
       </c>
       <c r="H138" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -6163,7 +6187,7 @@
         <v>1</v>
       </c>
       <c r="H139" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -6189,7 +6213,7 @@
         <v>0.6196235239775311</v>
       </c>
       <c r="H140" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -6215,7 +6239,7 @@
         <v>0.5970780621204577</v>
       </c>
       <c r="H141" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -6241,7 +6265,7 @@
         <v>1</v>
       </c>
       <c r="H142" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -6267,7 +6291,7 @@
         <v>1</v>
       </c>
       <c r="H143" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -6293,7 +6317,7 @@
         <v>0</v>
       </c>
       <c r="H144" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -6319,7 +6343,7 @@
         <v>1</v>
       </c>
       <c r="H145" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -6345,7 +6369,7 @@
         <v>1</v>
       </c>
       <c r="H146" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -6371,7 +6395,7 @@
         <v>1</v>
       </c>
       <c r="H147" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -6397,7 +6421,7 @@
         <v>1</v>
       </c>
       <c r="H148" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -6423,7 +6447,7 @@
         <v>0</v>
       </c>
       <c r="H149" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -6449,7 +6473,7 @@
         <v>1</v>
       </c>
       <c r="H150" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -6475,7 +6499,7 @@
         <v>1</v>
       </c>
       <c r="H151" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -6501,7 +6525,7 @@
         <v>1</v>
       </c>
       <c r="H152" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -6527,7 +6551,7 @@
         <v>0</v>
       </c>
       <c r="H153" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -6553,7 +6577,7 @@
         <v>1</v>
       </c>
       <c r="H154" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -6579,7 +6603,7 @@
         <v>0</v>
       </c>
       <c r="H155" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -6605,7 +6629,7 @@
         <v>1</v>
       </c>
       <c r="H156" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -6631,7 +6655,7 @@
         <v>1</v>
       </c>
       <c r="H157" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -6657,7 +6681,7 @@
         <v>1</v>
       </c>
       <c r="H158" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -6683,7 +6707,7 @@
         <v>1</v>
       </c>
       <c r="H159" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -6709,7 +6733,7 @@
         <v>0.6796336772290309</v>
       </c>
       <c r="H160" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -6735,7 +6759,7 @@
         <v>1</v>
       </c>
       <c r="H161" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -6761,7 +6785,7 @@
         <v>1</v>
       </c>
       <c r="H162" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -6787,7 +6811,7 @@
         <v>1</v>
       </c>
       <c r="H163" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -6813,7 +6837,7 @@
         <v>1</v>
       </c>
       <c r="H164" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -6839,7 +6863,7 @@
         <v>0.656110020421579</v>
       </c>
       <c r="H165" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -6865,7 +6889,7 @@
         <v>0</v>
       </c>
       <c r="H166" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -6891,7 +6915,7 @@
         <v>0.3525995325185676</v>
       </c>
       <c r="H167" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -6917,7 +6941,7 @@
         <v>0</v>
       </c>
       <c r="H168" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -6943,7 +6967,7 @@
         <v>1</v>
       </c>
       <c r="H169" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -6969,7 +6993,7 @@
         <v>1</v>
       </c>
       <c r="H170" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -6995,7 +7019,7 @@
         <v>0</v>
       </c>
       <c r="H171" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -7021,7 +7045,7 @@
         <v>0.469703495331913</v>
       </c>
       <c r="H172" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -7047,7 +7071,7 @@
         <v>0</v>
       </c>
       <c r="H173" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -7073,7 +7097,7 @@
         <v>0.5417130438680983</v>
       </c>
       <c r="H174" t="s">
-        <v>633</v>
+        <v>637</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -7099,7 +7123,7 @@
         <v>0</v>
       </c>
       <c r="H175" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -7125,7 +7149,7 @@
         <v>0</v>
       </c>
       <c r="H176" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -7151,7 +7175,7 @@
         <v>0</v>
       </c>
       <c r="H177" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -7177,7 +7201,7 @@
         <v>0</v>
       </c>
       <c r="H178" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -7203,7 +7227,7 @@
         <v>0</v>
       </c>
       <c r="H179" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -7229,7 +7253,7 @@
         <v>0</v>
       </c>
       <c r="H180" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -7255,7 +7279,7 @@
         <v>0.4855651763051241</v>
       </c>
       <c r="H181" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -7281,7 +7305,7 @@
         <v>1</v>
       </c>
       <c r="H182" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -7307,7 +7331,7 @@
         <v>0</v>
       </c>
       <c r="H183" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -7333,7 +7357,7 @@
         <v>0</v>
       </c>
       <c r="H184" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -7359,7 +7383,7 @@
         <v>0</v>
       </c>
       <c r="H185" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -7385,7 +7409,7 @@
         <v>0</v>
       </c>
       <c r="H186" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -7411,7 +7435,7 @@
         <v>0.4124433478079874</v>
       </c>
       <c r="H187" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -7437,7 +7461,7 @@
         <v>1</v>
       </c>
       <c r="H188" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -7463,7 +7487,7 @@
         <v>0</v>
       </c>
       <c r="H189" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -7489,7 +7513,7 @@
         <v>0</v>
       </c>
       <c r="H190" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -7515,7 +7539,7 @@
         <v>0</v>
       </c>
       <c r="H191" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -7541,7 +7565,7 @@
         <v>1</v>
       </c>
       <c r="H192" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -7567,7 +7591,7 @@
         <v>1</v>
       </c>
       <c r="H193" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -7593,7 +7617,7 @@
         <v>0</v>
       </c>
       <c r="H194" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -7619,7 +7643,7 @@
         <v>0</v>
       </c>
       <c r="H195" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -7645,7 +7669,7 @@
         <v>0</v>
       </c>
       <c r="H196" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -7671,7 +7695,7 @@
         <v>0</v>
       </c>
       <c r="H197" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -7697,7 +7721,7 @@
         <v>0</v>
       </c>
       <c r="H198" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -7723,7 +7747,7 @@
         <v>0</v>
       </c>
       <c r="H199" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -7749,7 +7773,7 @@
         <v>0</v>
       </c>
       <c r="H200" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -7775,7 +7799,7 @@
         <v>0.5780639170489871</v>
       </c>
       <c r="H201" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -7801,7 +7825,7 @@
         <v>0.4215393731535424</v>
       </c>
       <c r="H202" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -7827,7 +7851,7 @@
         <v>0.3467065628450095</v>
       </c>
       <c r="H203" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -7853,7 +7877,7 @@
         <v>0</v>
       </c>
       <c r="H204" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -7879,7 +7903,7 @@
         <v>0</v>
       </c>
       <c r="H205" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -7905,7 +7929,7 @@
         <v>1</v>
       </c>
       <c r="H206" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -7931,7 +7955,7 @@
         <v>0</v>
       </c>
       <c r="H207" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -7957,7 +7981,7 @@
         <v>1</v>
       </c>
       <c r="H208" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -7983,7 +8007,7 @@
         <v>1</v>
       </c>
       <c r="H209" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -8009,7 +8033,7 @@
         <v>1</v>
       </c>
       <c r="H210" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -8035,7 +8059,7 @@
         <v>1</v>
       </c>
       <c r="H211" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -8061,7 +8085,7 @@
         <v>0</v>
       </c>
       <c r="H212" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -8087,7 +8111,7 @@
         <v>1</v>
       </c>
       <c r="H213" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -8113,7 +8137,7 @@
         <v>1</v>
       </c>
       <c r="H214" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -8139,7 +8163,7 @@
         <v>1</v>
       </c>
       <c r="H215" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -8165,7 +8189,7 @@
         <v>0.5087358365117602</v>
       </c>
       <c r="H216" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -8191,7 +8215,7 @@
         <v>0</v>
       </c>
       <c r="H217" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -8217,7 +8241,7 @@
         <v>0.5158678488274785</v>
       </c>
       <c r="H218" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -8243,7 +8267,7 @@
         <v>0</v>
       </c>
       <c r="H219" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -8269,7 +8293,7 @@
         <v>0.2870430274384894</v>
       </c>
       <c r="H220" t="s">
-        <v>641</v>
+        <v>645</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -8295,7 +8319,7 @@
         <v>1</v>
       </c>
       <c r="H221" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -8321,7 +8345,7 @@
         <v>0.6127520737142151</v>
       </c>
       <c r="H222" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -8347,7 +8371,7 @@
         <v>0.3609387246264842</v>
       </c>
       <c r="H223" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -8373,7 +8397,7 @@
         <v>0.4197051507971554</v>
       </c>
       <c r="H224" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -8399,7 +8423,7 @@
         <v>0.5512799617328629</v>
       </c>
       <c r="H225" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -8425,7 +8449,7 @@
         <v>0</v>
       </c>
       <c r="H226" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -8451,7 +8475,7 @@
         <v>0</v>
       </c>
       <c r="H227" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -8477,7 +8501,7 @@
         <v>0</v>
       </c>
       <c r="H228" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -8503,7 +8527,7 @@
         <v>0.5072390354177577</v>
       </c>
       <c r="H229" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -8529,7 +8553,7 @@
         <v>0.5191745840351744</v>
       </c>
       <c r="H230" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -8555,7 +8579,7 @@
         <v>1</v>
       </c>
       <c r="H231" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -8581,7 +8605,7 @@
         <v>0.5972661005120165</v>
       </c>
       <c r="H232" t="s">
-        <v>648</v>
+        <v>652</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -8607,7 +8631,7 @@
         <v>1</v>
       </c>
       <c r="H233" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -8633,7 +8657,7 @@
         <v>1</v>
       </c>
       <c r="H234" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -8659,7 +8683,7 @@
         <v>0.5854205990462216</v>
       </c>
       <c r="H235" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -8685,7 +8709,7 @@
         <v>0.3730102393966785</v>
       </c>
       <c r="H236" t="s">
-        <v>650</v>
+        <v>654</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -8711,7 +8735,7 @@
         <v>0.5456285491144892</v>
       </c>
       <c r="H237" t="s">
-        <v>651</v>
+        <v>655</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -8737,7 +8761,7 @@
         <v>0.5175347977993346</v>
       </c>
       <c r="H238" t="s">
-        <v>652</v>
+        <v>656</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -8763,7 +8787,7 @@
         <v>1</v>
       </c>
       <c r="H239" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -8789,7 +8813,7 @@
         <v>1</v>
       </c>
       <c r="H240" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -8815,7 +8839,7 @@
         <v>0.4947875949457229</v>
       </c>
       <c r="H241" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -8841,7 +8865,7 @@
         <v>0</v>
       </c>
       <c r="H242" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -8867,7 +8891,7 @@
         <v>0</v>
       </c>
       <c r="H243" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -8893,7 +8917,7 @@
         <v>0.4792599658405648</v>
       </c>
       <c r="H244" t="s">
-        <v>653</v>
+        <v>657</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -8919,7 +8943,7 @@
         <v>1</v>
       </c>
       <c r="H245" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -8945,7 +8969,7 @@
         <v>1</v>
       </c>
       <c r="H246" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -8971,7 +8995,7 @@
         <v>1</v>
       </c>
       <c r="H247" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -8997,7 +9021,7 @@
         <v>0</v>
       </c>
       <c r="H248" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -9023,7 +9047,7 @@
         <v>0.5066418849191674</v>
       </c>
       <c r="H249" t="s">
-        <v>654</v>
+        <v>658</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -9049,7 +9073,7 @@
         <v>0.5244848812293227</v>
       </c>
       <c r="H250" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -9075,7 +9099,7 @@
         <v>1</v>
       </c>
       <c r="H251" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -9101,7 +9125,7 @@
         <v>0.5825654626700081</v>
       </c>
       <c r="H252" t="s">
-        <v>656</v>
+        <v>660</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -9127,7 +9151,7 @@
         <v>1</v>
       </c>
       <c r="H253" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -9153,7 +9177,7 @@
         <v>1</v>
       </c>
       <c r="H254" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -9179,7 +9203,7 @@
         <v>0.5077321483125038</v>
       </c>
       <c r="H255" t="s">
-        <v>657</v>
+        <v>661</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -9205,7 +9229,7 @@
         <v>0</v>
       </c>
       <c r="H256" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -9231,7 +9255,7 @@
         <v>0</v>
       </c>
       <c r="H257" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -9257,7 +9281,7 @@
         <v>0</v>
       </c>
       <c r="H258" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -9283,7 +9307,7 @@
         <v>0</v>
       </c>
       <c r="H259" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -9309,7 +9333,7 @@
         <v>0</v>
       </c>
       <c r="H260" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -9335,7 +9359,7 @@
         <v>0</v>
       </c>
       <c r="H261" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -9361,7 +9385,7 @@
         <v>1</v>
       </c>
       <c r="H262" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -9387,7 +9411,7 @@
         <v>1</v>
       </c>
       <c r="H263" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -9413,7 +9437,7 @@
         <v>1</v>
       </c>
       <c r="H264" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -9439,7 +9463,7 @@
         <v>0</v>
       </c>
       <c r="H265" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -9465,7 +9489,7 @@
         <v>0</v>
       </c>
       <c r="H266" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -9491,7 +9515,7 @@
         <v>0</v>
       </c>
       <c r="H267" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -9517,7 +9541,7 @@
         <v>0</v>
       </c>
       <c r="H268" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -9543,7 +9567,7 @@
         <v>0</v>
       </c>
       <c r="H269" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -9569,7 +9593,7 @@
         <v>0</v>
       </c>
       <c r="H270" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -9595,7 +9619,7 @@
         <v>0</v>
       </c>
       <c r="H271" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -9621,7 +9645,7 @@
         <v>0</v>
       </c>
       <c r="H272" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -9647,7 +9671,7 @@
         <v>0</v>
       </c>
       <c r="H273" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -9673,7 +9697,7 @@
         <v>0</v>
       </c>
       <c r="H274" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -9699,7 +9723,7 @@
         <v>0</v>
       </c>
       <c r="H275" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -9725,7 +9749,7 @@
         <v>0</v>
       </c>
       <c r="H276" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -9751,7 +9775,7 @@
         <v>0</v>
       </c>
       <c r="H277" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -9777,7 +9801,7 @@
         <v>1</v>
       </c>
       <c r="H278" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -9803,7 +9827,7 @@
         <v>1</v>
       </c>
       <c r="H279" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -9829,7 +9853,7 @@
         <v>1</v>
       </c>
       <c r="H280" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -9855,7 +9879,7 @@
         <v>1</v>
       </c>
       <c r="H281" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -9881,7 +9905,7 @@
         <v>1</v>
       </c>
       <c r="H282" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -9907,7 +9931,7 @@
         <v>0.7142044494761026</v>
       </c>
       <c r="H283" t="s">
-        <v>658</v>
+        <v>662</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -9933,7 +9957,7 @@
         <v>1</v>
       </c>
       <c r="H284" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -9959,7 +9983,7 @@
         <v>1</v>
       </c>
       <c r="H285" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -9985,7 +10009,7 @@
         <v>0.2639905523353389</v>
       </c>
       <c r="H286" t="s">
-        <v>659</v>
+        <v>663</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -10011,7 +10035,7 @@
         <v>0</v>
       </c>
       <c r="H287" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -10037,7 +10061,7 @@
         <v>0.3050160804809514</v>
       </c>
       <c r="H288" t="s">
-        <v>660</v>
+        <v>664</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -10063,7 +10087,7 @@
         <v>0</v>
       </c>
       <c r="H289" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -10089,7 +10113,7 @@
         <v>1</v>
       </c>
       <c r="H290" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -10115,7 +10139,7 @@
         <v>0.3145757608208205</v>
       </c>
       <c r="H291" t="s">
-        <v>661</v>
+        <v>665</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -10141,7 +10165,7 @@
         <v>1</v>
       </c>
       <c r="H292" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -10167,7 +10191,7 @@
         <v>0</v>
       </c>
       <c r="H293" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -10193,7 +10217,7 @@
         <v>0</v>
       </c>
       <c r="H294" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -10219,7 +10243,7 @@
         <v>0</v>
       </c>
       <c r="H295" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -10245,7 +10269,7 @@
         <v>1</v>
       </c>
       <c r="H296" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -10271,7 +10295,7 @@
         <v>1</v>
       </c>
       <c r="H297" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -10297,7 +10321,7 @@
         <v>0</v>
       </c>
       <c r="H298" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -10323,7 +10347,7 @@
         <v>0</v>
       </c>
       <c r="H299" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -10349,7 +10373,7 @@
         <v>0</v>
       </c>
       <c r="H300" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -10375,7 +10399,7 @@
         <v>0</v>
       </c>
       <c r="H301" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -10401,7 +10425,7 @@
         <v>1</v>
       </c>
       <c r="H302" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -10427,7 +10451,7 @@
         <v>1</v>
       </c>
       <c r="H303" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -10453,7 +10477,7 @@
         <v>1</v>
       </c>
       <c r="H304" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -10479,7 +10503,7 @@
         <v>0.4684480917829717</v>
       </c>
       <c r="H305" t="s">
-        <v>662</v>
+        <v>666</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -10505,7 +10529,7 @@
         <v>1</v>
       </c>
       <c r="H306" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -10531,7 +10555,7 @@
         <v>1</v>
       </c>
       <c r="H307" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -10557,7 +10581,7 @@
         <v>0</v>
       </c>
       <c r="H308" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -10583,7 +10607,7 @@
         <v>0.4802500784481633</v>
       </c>
       <c r="H309" t="s">
-        <v>663</v>
+        <v>667</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -10609,7 +10633,7 @@
         <v>0.532085355697567</v>
       </c>
       <c r="H310" t="s">
-        <v>664</v>
+        <v>668</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -10635,7 +10659,7 @@
         <v>1</v>
       </c>
       <c r="H311" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -10661,7 +10685,7 @@
         <v>1</v>
       </c>
       <c r="H312" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -10687,7 +10711,7 @@
         <v>0</v>
       </c>
       <c r="H313" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -10713,7 +10737,7 @@
         <v>0</v>
       </c>
       <c r="H314" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -10739,7 +10763,7 @@
         <v>1</v>
       </c>
       <c r="H315" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -10765,7 +10789,7 @@
         <v>0</v>
       </c>
       <c r="H316" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -10791,7 +10815,7 @@
         <v>0</v>
       </c>
       <c r="H317" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -10817,7 +10841,7 @@
         <v>0</v>
       </c>
       <c r="H318" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -10843,7 +10867,7 @@
         <v>0.5265664424230306</v>
       </c>
       <c r="H319" t="s">
-        <v>665</v>
+        <v>669</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -10869,7 +10893,7 @@
         <v>1</v>
       </c>
       <c r="H320" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -10895,7 +10919,7 @@
         <v>1</v>
       </c>
       <c r="H321" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -10921,7 +10945,7 @@
         <v>0.4883210443310049</v>
       </c>
       <c r="H322" t="s">
-        <v>666</v>
+        <v>670</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -10947,7 +10971,7 @@
         <v>1</v>
       </c>
       <c r="H323" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -10973,7 +10997,7 @@
         <v>1</v>
       </c>
       <c r="H324" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -10999,7 +11023,7 @@
         <v>0.4944701228381642</v>
       </c>
       <c r="H325" t="s">
-        <v>667</v>
+        <v>671</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -11025,7 +11049,7 @@
         <v>0.6176406945258538</v>
       </c>
       <c r="H326" t="s">
-        <v>668</v>
+        <v>672</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -11051,7 +11075,7 @@
         <v>1</v>
       </c>
       <c r="H327" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -11077,7 +11101,7 @@
         <v>0</v>
       </c>
       <c r="H328" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -11103,7 +11127,7 @@
         <v>1</v>
       </c>
       <c r="H329" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -11129,7 +11153,7 @@
         <v>1</v>
       </c>
       <c r="H330" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -11155,7 +11179,7 @@
         <v>1</v>
       </c>
       <c r="H331" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -11181,7 +11205,7 @@
         <v>0</v>
       </c>
       <c r="H332" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -11207,7 +11231,7 @@
         <v>1</v>
       </c>
       <c r="H333" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -11233,7 +11257,7 @@
         <v>0</v>
       </c>
       <c r="H334" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -11259,7 +11283,7 @@
         <v>0</v>
       </c>
       <c r="H335" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -11285,7 +11309,7 @@
         <v>0</v>
       </c>
       <c r="H336" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -11311,7 +11335,7 @@
         <v>0</v>
       </c>
       <c r="H337" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -11337,7 +11361,7 @@
         <v>0</v>
       </c>
       <c r="H338" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -11363,7 +11387,7 @@
         <v>0</v>
       </c>
       <c r="H339" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -11389,7 +11413,7 @@
         <v>0</v>
       </c>
       <c r="H340" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -11415,7 +11439,7 @@
         <v>0</v>
       </c>
       <c r="H341" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -11441,7 +11465,7 @@
         <v>0</v>
       </c>
       <c r="H342" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -11467,7 +11491,7 @@
         <v>0</v>
       </c>
       <c r="H343" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -11493,7 +11517,7 @@
         <v>0</v>
       </c>
       <c r="H344" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -11519,7 +11543,7 @@
         <v>0</v>
       </c>
       <c r="H345" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -11545,7 +11569,7 @@
         <v>1</v>
       </c>
       <c r="H346" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -11571,7 +11595,7 @@
         <v>0</v>
       </c>
       <c r="H347" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -11597,7 +11621,7 @@
         <v>1</v>
       </c>
       <c r="H348" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -11623,7 +11647,7 @@
         <v>0</v>
       </c>
       <c r="H349" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -11649,7 +11673,7 @@
         <v>0</v>
       </c>
       <c r="H350" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -11675,7 +11699,7 @@
         <v>1</v>
       </c>
       <c r="H351" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -11701,7 +11725,7 @@
         <v>0</v>
       </c>
       <c r="H352" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -11727,7 +11751,7 @@
         <v>1</v>
       </c>
       <c r="H353" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -11753,7 +11777,7 @@
         <v>0</v>
       </c>
       <c r="H354" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -11779,7 +11803,7 @@
         <v>0</v>
       </c>
       <c r="H355" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -11805,7 +11829,7 @@
         <v>0.4727916941910472</v>
       </c>
       <c r="H356" t="s">
-        <v>669</v>
+        <v>673</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -11831,7 +11855,7 @@
         <v>0.592905125734851</v>
       </c>
       <c r="H357" t="s">
-        <v>670</v>
+        <v>674</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -11857,7 +11881,7 @@
         <v>1</v>
       </c>
       <c r="H358" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -11883,7 +11907,7 @@
         <v>1</v>
       </c>
       <c r="H359" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -11909,7 +11933,7 @@
         <v>0.58097429381426</v>
       </c>
       <c r="H360" t="s">
-        <v>671</v>
+        <v>675</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -11935,7 +11959,7 @@
         <v>0.590320286768299</v>
       </c>
       <c r="H361" t="s">
-        <v>672</v>
+        <v>676</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -11961,7 +11985,7 @@
         <v>1</v>
       </c>
       <c r="H362" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -11987,7 +12011,7 @@
         <v>1</v>
       </c>
       <c r="H363" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -12013,7 +12037,7 @@
         <v>1</v>
       </c>
       <c r="H364" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -12039,7 +12063,7 @@
         <v>0.5415421297068406</v>
       </c>
       <c r="H365" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -12065,7 +12089,7 @@
         <v>0.4755980664578932</v>
       </c>
       <c r="H366" t="s">
-        <v>674</v>
+        <v>678</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -12091,7 +12115,7 @@
         <v>0.4674576009420436</v>
       </c>
       <c r="H367" t="s">
-        <v>675</v>
+        <v>679</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -12117,7 +12141,7 @@
         <v>0</v>
       </c>
       <c r="H368" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -12143,7 +12167,7 @@
         <v>0</v>
       </c>
       <c r="H369" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -12169,7 +12193,7 @@
         <v>0.4117206427581332</v>
       </c>
       <c r="H370" t="s">
-        <v>676</v>
+        <v>680</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -12195,7 +12219,7 @@
         <v>0</v>
       </c>
       <c r="H371" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -12221,7 +12245,7 @@
         <v>0.4877674881041185</v>
       </c>
       <c r="H372" t="s">
-        <v>677</v>
+        <v>681</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -12247,7 +12271,7 @@
         <v>1</v>
       </c>
       <c r="H373" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -12273,7 +12297,7 @@
         <v>0</v>
       </c>
       <c r="H374" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -12299,7 +12323,7 @@
         <v>1</v>
       </c>
       <c r="H375" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -12325,7 +12349,7 @@
         <v>1</v>
       </c>
       <c r="H376" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -12351,7 +12375,7 @@
         <v>1</v>
       </c>
       <c r="H377" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -12377,7 +12401,7 @@
         <v>0.5457340096649603</v>
       </c>
       <c r="H378" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -12403,7 +12427,7 @@
         <v>0.5430661202901698</v>
       </c>
       <c r="H379" t="s">
-        <v>678</v>
+        <v>682</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -12429,7 +12453,7 @@
         <v>0.3901508834189628</v>
       </c>
       <c r="H380" t="s">
-        <v>679</v>
+        <v>683</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -12455,7 +12479,7 @@
         <v>1</v>
       </c>
       <c r="H381" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -12481,7 +12505,7 @@
         <v>0</v>
       </c>
       <c r="H382" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -12507,7 +12531,7 @@
         <v>0.3842350957253691</v>
       </c>
       <c r="H383" t="s">
-        <v>680</v>
+        <v>684</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -12533,7 +12557,7 @@
         <v>0</v>
       </c>
       <c r="H384" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -12559,7 +12583,7 @@
         <v>0.5507071125792278</v>
       </c>
       <c r="H385" t="s">
-        <v>681</v>
+        <v>685</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -12585,7 +12609,7 @@
         <v>1</v>
       </c>
       <c r="H386" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -12611,7 +12635,7 @@
         <v>0.4377320953597089</v>
       </c>
       <c r="H387" t="s">
-        <v>682</v>
+        <v>686</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -12637,7 +12661,7 @@
         <v>1</v>
       </c>
       <c r="H388" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -12663,7 +12687,7 @@
         <v>1</v>
       </c>
       <c r="H389" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -12689,7 +12713,7 @@
         <v>0.4814930652016589</v>
       </c>
       <c r="H390" t="s">
-        <v>683</v>
+        <v>687</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -12715,7 +12739,7 @@
         <v>1</v>
       </c>
       <c r="H391" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -12741,7 +12765,7 @@
         <v>0</v>
       </c>
       <c r="H392" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -12767,7 +12791,7 @@
         <v>0</v>
       </c>
       <c r="H393" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -12793,7 +12817,7 @@
         <v>0</v>
       </c>
       <c r="H394" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -12819,7 +12843,7 @@
         <v>0</v>
       </c>
       <c r="H395" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -12845,7 +12869,7 @@
         <v>0</v>
       </c>
       <c r="H396" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -12871,7 +12895,7 @@
         <v>0</v>
       </c>
       <c r="H397" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -12897,7 +12921,7 @@
         <v>0</v>
       </c>
       <c r="H398" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -12923,7 +12947,7 @@
         <v>0</v>
       </c>
       <c r="H399" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -12949,7 +12973,7 @@
         <v>1</v>
       </c>
       <c r="H400" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -12975,7 +12999,7 @@
         <v>1</v>
       </c>
       <c r="H401" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -13001,7 +13025,7 @@
         <v>0</v>
       </c>
       <c r="H402" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -13027,7 +13051,7 @@
         <v>1</v>
       </c>
       <c r="H403" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -13053,7 +13077,7 @@
         <v>0</v>
       </c>
       <c r="H404" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -13079,7 +13103,7 @@
         <v>0</v>
       </c>
       <c r="H405" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -13105,7 +13129,7 @@
         <v>0</v>
       </c>
       <c r="H406" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -13131,7 +13155,7 @@
         <v>0</v>
       </c>
       <c r="H407" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -13157,7 +13181,7 @@
         <v>0</v>
       </c>
       <c r="H408" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -13183,7 +13207,7 @@
         <v>0</v>
       </c>
       <c r="H409" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -13209,7 +13233,7 @@
         <v>1</v>
       </c>
       <c r="H410" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -13235,7 +13259,7 @@
         <v>0.5237945388446439</v>
       </c>
       <c r="H411" t="s">
-        <v>684</v>
+        <v>688</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -13261,7 +13285,7 @@
         <v>0</v>
       </c>
       <c r="H412" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -13287,7 +13311,7 @@
         <v>1</v>
       </c>
       <c r="H413" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -13313,7 +13337,7 @@
         <v>0</v>
       </c>
       <c r="H414" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -13339,7 +13363,7 @@
         <v>0.4829678148125897</v>
       </c>
       <c r="H415" t="s">
-        <v>685</v>
+        <v>689</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -13365,7 +13389,7 @@
         <v>0</v>
       </c>
       <c r="H416" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -13391,7 +13415,7 @@
         <v>1</v>
       </c>
       <c r="H417" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -13417,7 +13441,7 @@
         <v>0.5064587496515739</v>
       </c>
       <c r="H418" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -13443,7 +13467,7 @@
         <v>1</v>
       </c>
       <c r="H419" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -13469,7 +13493,7 @@
         <v>1</v>
       </c>
       <c r="H420" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -13495,7 +13519,7 @@
         <v>0</v>
       </c>
       <c r="H421" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -13521,7 +13545,7 @@
         <v>1</v>
       </c>
       <c r="H422" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -13547,7 +13571,7 @@
         <v>1</v>
       </c>
       <c r="H423" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -13573,7 +13597,7 @@
         <v>1</v>
       </c>
       <c r="H424" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -13599,7 +13623,7 @@
         <v>0.4836442888087482</v>
       </c>
       <c r="H425" t="s">
-        <v>687</v>
+        <v>691</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -13625,7 +13649,7 @@
         <v>0.4305630440122571</v>
       </c>
       <c r="H426" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -13651,7 +13675,7 @@
         <v>0</v>
       </c>
       <c r="H427" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -13677,7 +13701,7 @@
         <v>0</v>
       </c>
       <c r="H428" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -13703,7 +13727,7 @@
         <v>0</v>
       </c>
       <c r="H429" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -13729,7 +13753,7 @@
         <v>0</v>
       </c>
       <c r="H430" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -13755,7 +13779,7 @@
         <v>1</v>
       </c>
       <c r="H431" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -13781,7 +13805,7 @@
         <v>0.3428495312542179</v>
       </c>
       <c r="H432" t="s">
-        <v>689</v>
+        <v>693</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -13807,7 +13831,7 @@
         <v>1</v>
       </c>
       <c r="H433" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -13833,7 +13857,7 @@
         <v>1</v>
       </c>
       <c r="H434" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -13859,7 +13883,7 @@
         <v>1</v>
       </c>
       <c r="H435" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -13885,7 +13909,7 @@
         <v>1</v>
       </c>
       <c r="H436" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -13911,7 +13935,7 @@
         <v>1</v>
       </c>
       <c r="H437" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -13937,7 +13961,7 @@
         <v>0.37692505804925</v>
       </c>
       <c r="H438" t="s">
-        <v>690</v>
+        <v>694</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -13963,7 +13987,7 @@
         <v>0</v>
       </c>
       <c r="H439" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -13989,7 +14013,7 @@
         <v>1</v>
       </c>
       <c r="H440" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -14015,7 +14039,7 @@
         <v>1</v>
       </c>
       <c r="H441" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -14041,7 +14065,7 @@
         <v>1</v>
       </c>
       <c r="H442" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -14067,7 +14091,7 @@
         <v>1</v>
       </c>
       <c r="H443" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -14093,7 +14117,7 @@
         <v>1</v>
       </c>
       <c r="H444" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -14119,7 +14143,7 @@
         <v>1</v>
       </c>
       <c r="H445" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -14145,7 +14169,7 @@
         <v>0</v>
       </c>
       <c r="H446" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -14171,7 +14195,7 @@
         <v>1</v>
       </c>
       <c r="H447" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -14197,7 +14221,7 @@
         <v>0.4999972278116096</v>
       </c>
       <c r="H448" t="s">
-        <v>691</v>
+        <v>695</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -14223,7 +14247,7 @@
         <v>1</v>
       </c>
       <c r="H449" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -14249,7 +14273,7 @@
         <v>1</v>
       </c>
       <c r="H450" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -14275,7 +14299,7 @@
         <v>0.5000008135448658</v>
       </c>
       <c r="H451" t="s">
-        <v>691</v>
+        <v>695</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -14301,7 +14325,7 @@
         <v>0.5000003432102331</v>
       </c>
       <c r="H452" t="s">
-        <v>691</v>
+        <v>695</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -14327,7 +14351,7 @@
         <v>0</v>
       </c>
       <c r="H453" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -14353,7 +14377,7 @@
         <v>0</v>
       </c>
       <c r="H454" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -14379,7 +14403,7 @@
         <v>0.5000000080651682</v>
       </c>
       <c r="H455" t="s">
-        <v>691</v>
+        <v>695</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -14405,7 +14429,7 @@
         <v>0.5000000574845813</v>
       </c>
       <c r="H456" t="s">
-        <v>691</v>
+        <v>695</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -14431,7 +14455,7 @@
         <v>0.5000000803710055</v>
       </c>
       <c r="H457" t="s">
-        <v>691</v>
+        <v>695</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -14457,7 +14481,7 @@
         <v>0.5000001550519353</v>
       </c>
       <c r="H458" t="s">
-        <v>691</v>
+        <v>695</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -14483,7 +14507,7 @@
         <v>0.4999998517320268</v>
       </c>
       <c r="H459" t="s">
-        <v>691</v>
+        <v>695</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -14509,7 +14533,7 @@
         <v>0.4999999162606177</v>
       </c>
       <c r="H460" t="s">
-        <v>691</v>
+        <v>695</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -14535,7 +14559,7 @@
         <v>1</v>
       </c>
       <c r="H461" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -14561,7 +14585,7 @@
         <v>0.4999999724325874</v>
       </c>
       <c r="H462" t="s">
-        <v>691</v>
+        <v>695</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -14587,7 +14611,7 @@
         <v>1</v>
       </c>
       <c r="H463" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -14613,7 +14637,7 @@
         <v>1</v>
       </c>
       <c r="H464" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -14639,7 +14663,7 @@
         <v>1</v>
       </c>
       <c r="H465" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -14665,7 +14689,7 @@
         <v>1</v>
       </c>
       <c r="H466" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -14691,7 +14715,7 @@
         <v>0.4999999784054215</v>
       </c>
       <c r="H467" t="s">
-        <v>691</v>
+        <v>695</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -14717,7 +14741,7 @@
         <v>1</v>
       </c>
       <c r="H468" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -14743,7 +14767,7 @@
         <v>0.4999989399808594</v>
       </c>
       <c r="H469" t="s">
-        <v>691</v>
+        <v>695</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -14769,7 +14793,7 @@
         <v>1</v>
       </c>
       <c r="H470" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -14795,7 +14819,7 @@
         <v>0.4999953048749839</v>
       </c>
       <c r="H471" t="s">
-        <v>691</v>
+        <v>695</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -14821,7 +14845,7 @@
         <v>1</v>
       </c>
       <c r="H472" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -14847,7 +14871,7 @@
         <v>0</v>
       </c>
       <c r="H473" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -14873,7 +14897,7 @@
         <v>1</v>
       </c>
       <c r="H474" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -14899,7 +14923,7 @@
         <v>1</v>
       </c>
       <c r="H475" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -14925,7 +14949,7 @@
         <v>0.4969990790199526</v>
       </c>
       <c r="H476" t="s">
-        <v>692</v>
+        <v>696</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -14951,7 +14975,7 @@
         <v>0.4981722583163443</v>
       </c>
       <c r="H477" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -14977,7 +15001,7 @@
         <v>0</v>
       </c>
       <c r="H478" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -15003,7 +15027,7 @@
         <v>0.5093432530308867</v>
       </c>
       <c r="H479" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -15029,7 +15053,7 @@
         <v>0.4678216607044495</v>
       </c>
       <c r="H480" t="s">
-        <v>695</v>
+        <v>699</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -15055,7 +15079,7 @@
         <v>1</v>
       </c>
       <c r="H481" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -15081,7 +15105,7 @@
         <v>1</v>
       </c>
       <c r="H482" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -15107,7 +15131,7 @@
         <v>1</v>
       </c>
       <c r="H483" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -15133,7 +15157,7 @@
         <v>0.369962575225719</v>
       </c>
       <c r="H484" t="s">
-        <v>696</v>
+        <v>700</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -15159,7 +15183,7 @@
         <v>0.6603250957542344</v>
       </c>
       <c r="H485" t="s">
-        <v>697</v>
+        <v>701</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -15185,7 +15209,7 @@
         <v>0</v>
       </c>
       <c r="H486" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -15211,7 +15235,7 @@
         <v>0.5055697140154364</v>
       </c>
       <c r="H487" t="s">
-        <v>698</v>
+        <v>702</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -15237,7 +15261,7 @@
         <v>1</v>
       </c>
       <c r="H488" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -15263,7 +15287,7 @@
         <v>0</v>
       </c>
       <c r="H489" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -15289,7 +15313,7 @@
         <v>1</v>
       </c>
       <c r="H490" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -15315,7 +15339,7 @@
         <v>1</v>
       </c>
       <c r="H491" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -15341,7 +15365,7 @@
         <v>0.4265981834073078</v>
       </c>
       <c r="H492" t="s">
-        <v>699</v>
+        <v>703</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -15367,7 +15391,7 @@
         <v>0.3945013483697977</v>
       </c>
       <c r="H493" t="s">
-        <v>700</v>
+        <v>704</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -15393,7 +15417,7 @@
         <v>0.4155486167886422</v>
       </c>
       <c r="H494" t="s">
-        <v>701</v>
+        <v>705</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -15419,7 +15443,7 @@
         <v>0.3574178298209847</v>
       </c>
       <c r="H495" t="s">
-        <v>702</v>
+        <v>706</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -15445,7 +15469,7 @@
         <v>0.6578042133963591</v>
       </c>
       <c r="H496" t="s">
-        <v>703</v>
+        <v>707</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -15471,7 +15495,7 @@
         <v>0.5644716658145573</v>
       </c>
       <c r="H497" t="s">
-        <v>704</v>
+        <v>708</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -15497,7 +15521,7 @@
         <v>1</v>
       </c>
       <c r="H498" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -15523,7 +15547,7 @@
         <v>0</v>
       </c>
       <c r="H499" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -15549,7 +15573,7 @@
         <v>1</v>
       </c>
       <c r="H500" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -15575,7 +15599,7 @@
         <v>1</v>
       </c>
       <c r="H501" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -15601,7 +15625,7 @@
         <v>1</v>
       </c>
       <c r="H502" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -15627,7 +15651,7 @@
         <v>0</v>
       </c>
       <c r="H503" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -15653,7 +15677,7 @@
         <v>1</v>
       </c>
       <c r="H504" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -15679,7 +15703,7 @@
         <v>0</v>
       </c>
       <c r="H505" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -15705,7 +15729,7 @@
         <v>0</v>
       </c>
       <c r="H506" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -15731,7 +15755,7 @@
         <v>0</v>
       </c>
       <c r="H507" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -15757,7 +15781,7 @@
         <v>0.6264273857853571</v>
       </c>
       <c r="H508" t="s">
-        <v>705</v>
+        <v>709</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -15783,7 +15807,7 @@
         <v>0.4175190869931275</v>
       </c>
       <c r="H509" t="s">
-        <v>706</v>
+        <v>710</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -15809,7 +15833,7 @@
         <v>0.4612237382094103</v>
       </c>
       <c r="H510" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -15835,7 +15859,7 @@
         <v>0.4666308316759433</v>
       </c>
       <c r="H511" t="s">
-        <v>707</v>
+        <v>711</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -15861,7 +15885,7 @@
         <v>1</v>
       </c>
       <c r="H512" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -15887,7 +15911,7 @@
         <v>1</v>
       </c>
       <c r="H513" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -15913,7 +15937,7 @@
         <v>1</v>
       </c>
       <c r="H514" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -15939,7 +15963,7 @@
         <v>0</v>
       </c>
       <c r="H515" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -15965,7 +15989,7 @@
         <v>1</v>
       </c>
       <c r="H516" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -15991,7 +16015,7 @@
         <v>0</v>
       </c>
       <c r="H517" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -16017,7 +16041,7 @@
         <v>0</v>
       </c>
       <c r="H518" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -16043,7 +16067,7 @@
         <v>0</v>
       </c>
       <c r="H519" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -16069,7 +16093,7 @@
         <v>0</v>
       </c>
       <c r="H520" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -16095,7 +16119,7 @@
         <v>0</v>
       </c>
       <c r="H521" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -16121,7 +16145,7 @@
         <v>0</v>
       </c>
       <c r="H522" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -16147,7 +16171,7 @@
         <v>0</v>
       </c>
       <c r="H523" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -16173,7 +16197,7 @@
         <v>0</v>
       </c>
       <c r="H524" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -16199,7 +16223,7 @@
         <v>0</v>
       </c>
       <c r="H525" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -16225,7 +16249,7 @@
         <v>0</v>
       </c>
       <c r="H526" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -16251,7 +16275,7 @@
         <v>0.5422831111408063</v>
       </c>
       <c r="H527" t="s">
-        <v>708</v>
+        <v>712</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -16277,7 +16301,7 @@
         <v>0</v>
       </c>
       <c r="H528" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -16303,7 +16327,7 @@
         <v>0</v>
       </c>
       <c r="H529" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -16329,7 +16353,7 @@
         <v>0</v>
       </c>
       <c r="H530" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -16355,7 +16379,7 @@
         <v>0</v>
       </c>
       <c r="H531" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -16381,7 +16405,7 @@
         <v>0</v>
       </c>
       <c r="H532" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -16407,7 +16431,7 @@
         <v>0</v>
       </c>
       <c r="H533" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -16433,7 +16457,7 @@
         <v>0</v>
       </c>
       <c r="H534" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -16459,7 +16483,7 @@
         <v>0</v>
       </c>
       <c r="H535" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -16485,7 +16509,7 @@
         <v>0</v>
       </c>
       <c r="H536" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -16511,7 +16535,7 @@
         <v>0</v>
       </c>
       <c r="H537" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -16537,7 +16561,7 @@
         <v>0</v>
       </c>
       <c r="H538" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -16563,7 +16587,7 @@
         <v>0</v>
       </c>
       <c r="H539" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -16589,7 +16613,7 @@
         <v>0</v>
       </c>
       <c r="H540" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -16615,7 +16639,7 @@
         <v>0</v>
       </c>
       <c r="H541" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -16641,7 +16665,7 @@
         <v>0</v>
       </c>
       <c r="H542" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -16667,7 +16691,7 @@
         <v>0</v>
       </c>
       <c r="H543" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -16693,7 +16717,7 @@
         <v>0</v>
       </c>
       <c r="H544" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -16719,7 +16743,7 @@
         <v>0</v>
       </c>
       <c r="H545" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -16745,7 +16769,7 @@
         <v>0</v>
       </c>
       <c r="H546" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -16771,7 +16795,7 @@
         <v>0</v>
       </c>
       <c r="H547" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -16797,7 +16821,7 @@
         <v>0</v>
       </c>
       <c r="H548" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -16823,7 +16847,7 @@
         <v>0</v>
       </c>
       <c r="H549" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -16849,7 +16873,7 @@
         <v>0</v>
       </c>
       <c r="H550" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -16875,7 +16899,7 @@
         <v>0</v>
       </c>
       <c r="H551" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -16901,7 +16925,7 @@
         <v>1</v>
       </c>
       <c r="H552" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -16927,7 +16951,7 @@
         <v>1</v>
       </c>
       <c r="H553" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -16953,7 +16977,7 @@
         <v>1</v>
       </c>
       <c r="H554" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -16979,7 +17003,7 @@
         <v>1</v>
       </c>
       <c r="H555" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -17005,7 +17029,7 @@
         <v>0</v>
       </c>
       <c r="H556" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -17031,7 +17055,7 @@
         <v>0</v>
       </c>
       <c r="H557" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -17057,7 +17081,7 @@
         <v>1</v>
       </c>
       <c r="H558" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -17083,7 +17107,7 @@
         <v>0</v>
       </c>
       <c r="H559" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -17109,7 +17133,7 @@
         <v>0</v>
       </c>
       <c r="H560" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="561" spans="1:8">
@@ -17135,7 +17159,7 @@
         <v>0</v>
       </c>
       <c r="H561" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="562" spans="1:8">
@@ -17161,7 +17185,7 @@
         <v>0</v>
       </c>
       <c r="H562" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="563" spans="1:8">
@@ -17187,7 +17211,7 @@
         <v>0</v>
       </c>
       <c r="H563" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="564" spans="1:8">
@@ -17213,7 +17237,7 @@
         <v>1</v>
       </c>
       <c r="H564" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="565" spans="1:8">
@@ -17239,7 +17263,7 @@
         <v>0.04043368191437317</v>
       </c>
       <c r="H565" t="s">
-        <v>709</v>
+        <v>713</v>
       </c>
     </row>
     <row r="566" spans="1:8">
@@ -17265,7 +17289,7 @@
         <v>1</v>
       </c>
       <c r="H566" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="567" spans="1:8">
@@ -17291,7 +17315,7 @@
         <v>1</v>
       </c>
       <c r="H567" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="568" spans="1:8">
@@ -17317,7 +17341,7 @@
         <v>1</v>
       </c>
       <c r="H568" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="569" spans="1:8">
@@ -17343,7 +17367,7 @@
         <v>0.8904983753195824</v>
       </c>
       <c r="H569" t="s">
-        <v>710</v>
+        <v>714</v>
       </c>
     </row>
     <row r="570" spans="1:8">
@@ -17369,7 +17393,7 @@
         <v>0.9006798926483729</v>
       </c>
       <c r="H570" t="s">
-        <v>711</v>
+        <v>715</v>
       </c>
     </row>
     <row r="571" spans="1:8">
@@ -17395,7 +17419,7 @@
         <v>0.8578184898667132</v>
       </c>
       <c r="H571" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
     </row>
     <row r="572" spans="1:8">
@@ -17421,7 +17445,7 @@
         <v>0</v>
       </c>
       <c r="H572" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="573" spans="1:8">
@@ -17447,7 +17471,7 @@
         <v>0.7706087229233247</v>
       </c>
       <c r="H573" t="s">
-        <v>713</v>
+        <v>717</v>
       </c>
     </row>
     <row r="574" spans="1:8">
@@ -17473,7 +17497,7 @@
         <v>0</v>
       </c>
       <c r="H574" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="575" spans="1:8">
@@ -17499,7 +17523,7 @@
         <v>0.511028129451869</v>
       </c>
       <c r="H575" t="s">
-        <v>714</v>
+        <v>718</v>
       </c>
     </row>
     <row r="576" spans="1:8">
@@ -17525,7 +17549,7 @@
         <v>0.5136569237850378</v>
       </c>
       <c r="H576" t="s">
-        <v>715</v>
+        <v>719</v>
       </c>
     </row>
     <row r="577" spans="1:8">
@@ -17551,7 +17575,7 @@
         <v>0.4857393817989359</v>
       </c>
       <c r="H577" t="s">
-        <v>716</v>
+        <v>720</v>
       </c>
     </row>
     <row r="578" spans="1:8">
@@ -17577,7 +17601,7 @@
         <v>0.5090868776602728</v>
       </c>
       <c r="H578" t="s">
-        <v>717</v>
+        <v>721</v>
       </c>
     </row>
     <row r="579" spans="1:8">
@@ -17603,7 +17627,7 @@
         <v>0</v>
       </c>
       <c r="H579" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="580" spans="1:8">
@@ -17629,7 +17653,7 @@
         <v>1</v>
       </c>
       <c r="H580" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="581" spans="1:8">
@@ -17655,7 +17679,7 @@
         <v>0</v>
       </c>
       <c r="H581" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="582" spans="1:8">
@@ -17681,7 +17705,7 @@
         <v>0</v>
       </c>
       <c r="H582" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="583" spans="1:8">
@@ -17707,7 +17731,7 @@
         <v>0.5001940020955155</v>
       </c>
       <c r="H583" t="s">
-        <v>718</v>
+        <v>722</v>
       </c>
     </row>
     <row r="584" spans="1:8">
@@ -17733,7 +17757,7 @@
         <v>0</v>
       </c>
       <c r="H584" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="585" spans="1:8">
@@ -17759,7 +17783,7 @@
         <v>0.5024496766726444</v>
       </c>
       <c r="H585" t="s">
-        <v>719</v>
+        <v>723</v>
       </c>
     </row>
     <row r="586" spans="1:8">
@@ -17785,7 +17809,7 @@
         <v>0.5042377180760544</v>
       </c>
       <c r="H586" t="s">
-        <v>720</v>
+        <v>724</v>
       </c>
     </row>
     <row r="587" spans="1:8">
@@ -17811,7 +17835,7 @@
         <v>0.4955106634346851</v>
       </c>
       <c r="H587" t="s">
-        <v>721</v>
+        <v>725</v>
       </c>
     </row>
     <row r="588" spans="1:8">
@@ -17837,7 +17861,7 @@
         <v>0.5082193092286729</v>
       </c>
       <c r="H588" t="s">
-        <v>722</v>
+        <v>726</v>
       </c>
     </row>
     <row r="589" spans="1:8">
@@ -17863,7 +17887,7 @@
         <v>0</v>
       </c>
       <c r="H589" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="590" spans="1:8">
@@ -17877,7 +17901,7 @@
         <v>0</v>
       </c>
       <c r="D590">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E590">
         <v>1</v>
@@ -17889,7 +17913,7 @@
         <v>0</v>
       </c>
       <c r="H590" t="s">
-        <v>600</v>
+        <v>727</v>
       </c>
     </row>
     <row r="591" spans="1:8">
@@ -17903,7 +17927,7 @@
         <v>0</v>
       </c>
       <c r="D591">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E591">
         <v>0</v>
@@ -17915,7 +17939,7 @@
         <v>0.5028108345242799</v>
       </c>
       <c r="H591" t="s">
-        <v>723</v>
+        <v>728</v>
       </c>
     </row>
     <row r="592" spans="1:8">
@@ -17941,7 +17965,7 @@
         <v>0.4987653268156931</v>
       </c>
       <c r="H592" t="s">
-        <v>724</v>
+        <v>729</v>
       </c>
     </row>
     <row r="593" spans="1:8">
@@ -17955,7 +17979,7 @@
         <v>0</v>
       </c>
       <c r="D593">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E593">
         <v>1</v>
@@ -17967,7 +17991,7 @@
         <v>0</v>
       </c>
       <c r="H593" t="s">
-        <v>600</v>
+        <v>730</v>
       </c>
     </row>
     <row r="594" spans="1:8">
@@ -17977,7 +18001,13 @@
       <c r="B594" t="s">
         <v>599</v>
       </c>
+      <c r="C594">
+        <v>1</v>
+      </c>
       <c r="D594">
+        <v>0</v>
+      </c>
+      <c r="E594">
         <v>0</v>
       </c>
       <c r="F594">
@@ -17987,7 +18017,105 @@
         <v>0.4993729605626608</v>
       </c>
       <c r="H594" t="s">
-        <v>725</v>
+        <v>731</v>
+      </c>
+    </row>
+    <row r="595" spans="1:8">
+      <c r="A595" s="1">
+        <v>593</v>
+      </c>
+      <c r="B595" t="s">
+        <v>600</v>
+      </c>
+      <c r="C595">
+        <v>1</v>
+      </c>
+      <c r="D595">
+        <v>1</v>
+      </c>
+      <c r="E595">
+        <v>0</v>
+      </c>
+      <c r="F595">
+        <v>0.5122334642075823</v>
+      </c>
+      <c r="G595">
+        <v>0.4877665357924177</v>
+      </c>
+      <c r="H595" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="596" spans="1:8">
+      <c r="A596" s="1">
+        <v>594</v>
+      </c>
+      <c r="B596" t="s">
+        <v>601</v>
+      </c>
+      <c r="C596">
+        <v>1</v>
+      </c>
+      <c r="D596">
+        <v>1</v>
+      </c>
+      <c r="E596">
+        <v>1</v>
+      </c>
+      <c r="F596">
+        <v>0.4870693569286889</v>
+      </c>
+      <c r="G596">
+        <v>0.5129306430713111</v>
+      </c>
+      <c r="H596" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="597" spans="1:8">
+      <c r="A597" s="1">
+        <v>595</v>
+      </c>
+      <c r="B597" t="s">
+        <v>602</v>
+      </c>
+      <c r="C597">
+        <v>0</v>
+      </c>
+      <c r="D597">
+        <v>1</v>
+      </c>
+      <c r="E597">
+        <v>0</v>
+      </c>
+      <c r="F597">
+        <v>0</v>
+      </c>
+      <c r="G597">
+        <v>1</v>
+      </c>
+      <c r="H597" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="598" spans="1:8">
+      <c r="A598" s="1">
+        <v>596</v>
+      </c>
+      <c r="B598" t="s">
+        <v>603</v>
+      </c>
+      <c r="D598">
+        <v>0</v>
+      </c>
+      <c r="F598">
+        <v>1</v>
+      </c>
+      <c r="G598">
+        <v>0</v>
+      </c>
+      <c r="H598" t="s">
+        <v>604</v>
       </c>
     </row>
   </sheetData>

--- a/firebase_data_from_spyEnsembleValenOpt.xlsx
+++ b/firebase_data_from_spyEnsembleValenOpt.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1201" uniqueCount="733">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1219" uniqueCount="742">
   <si>
     <t>date</t>
   </si>
@@ -1826,6 +1826,33 @@
   </si>
   <si>
     <t>2025-11-13</t>
+  </si>
+  <si>
+    <t>2025-11-14</t>
+  </si>
+  <si>
+    <t>2025-11-17</t>
+  </si>
+  <si>
+    <t>2025-11-18</t>
+  </si>
+  <si>
+    <t>2025-11-19</t>
+  </si>
+  <si>
+    <t>2025-11-20</t>
+  </si>
+  <si>
+    <t>2025-11-21</t>
+  </si>
+  <si>
+    <t>2025-11-24</t>
+  </si>
+  <si>
+    <t>2025-11-25</t>
+  </si>
+  <si>
+    <t>2025-11-26</t>
   </si>
   <si>
     <t>100.00</t>
@@ -2573,7 +2600,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H598"/>
+  <dimension ref="A1:H607"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2625,7 +2652,7 @@
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2651,7 +2678,7 @@
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2677,7 +2704,7 @@
         <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2703,7 +2730,7 @@
         <v>0.4983795094639457</v>
       </c>
       <c r="H5" t="s">
-        <v>605</v>
+        <v>614</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2729,7 +2756,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2755,7 +2782,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2781,7 +2808,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>606</v>
+        <v>615</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2807,7 +2834,7 @@
         <v>1</v>
       </c>
       <c r="H9" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2833,7 +2860,7 @@
         <v>1</v>
       </c>
       <c r="H10" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2859,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2885,7 +2912,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2911,7 +2938,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2937,7 +2964,7 @@
         <v>1</v>
       </c>
       <c r="H14" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -2963,7 +2990,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2989,7 +3016,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -3015,7 +3042,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -3041,7 +3068,7 @@
         <v>0.5302720732550883</v>
       </c>
       <c r="H18" t="s">
-        <v>607</v>
+        <v>616</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -3067,7 +3094,7 @@
         <v>1</v>
       </c>
       <c r="H19" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -3093,7 +3120,7 @@
         <v>1</v>
       </c>
       <c r="H20" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -3119,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -3145,7 +3172,7 @@
         <v>1</v>
       </c>
       <c r="H22" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -3171,7 +3198,7 @@
         <v>1</v>
       </c>
       <c r="H23" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -3197,7 +3224,7 @@
         <v>0</v>
       </c>
       <c r="H24" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -3223,7 +3250,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -3249,7 +3276,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -3275,7 +3302,7 @@
         <v>0</v>
       </c>
       <c r="H27" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -3301,7 +3328,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -3327,7 +3354,7 @@
         <v>0.367662797378024</v>
       </c>
       <c r="H29" t="s">
-        <v>608</v>
+        <v>617</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -3353,7 +3380,7 @@
         <v>0</v>
       </c>
       <c r="H30" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -3379,7 +3406,7 @@
         <v>0.6490964230728318</v>
       </c>
       <c r="H31" t="s">
-        <v>609</v>
+        <v>618</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -3405,7 +3432,7 @@
         <v>0.6057603550778452</v>
       </c>
       <c r="H32" t="s">
-        <v>610</v>
+        <v>619</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -3431,7 +3458,7 @@
         <v>1</v>
       </c>
       <c r="H33" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -3457,7 +3484,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -3483,7 +3510,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -3509,7 +3536,7 @@
         <v>0</v>
       </c>
       <c r="H36" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -3535,7 +3562,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -3561,7 +3588,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -3587,7 +3614,7 @@
         <v>0</v>
       </c>
       <c r="H39" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -3613,7 +3640,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -3639,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -3665,7 +3692,7 @@
         <v>0</v>
       </c>
       <c r="H42" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -3691,7 +3718,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -3717,7 +3744,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -3743,7 +3770,7 @@
         <v>1</v>
       </c>
       <c r="H45" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -3769,7 +3796,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -3795,7 +3822,7 @@
         <v>0</v>
       </c>
       <c r="H47" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -3821,7 +3848,7 @@
         <v>1</v>
       </c>
       <c r="H48" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -3847,7 +3874,7 @@
         <v>1</v>
       </c>
       <c r="H49" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -3873,7 +3900,7 @@
         <v>1</v>
       </c>
       <c r="H50" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -3899,7 +3926,7 @@
         <v>1</v>
       </c>
       <c r="H51" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -3925,7 +3952,7 @@
         <v>1</v>
       </c>
       <c r="H52" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -3951,7 +3978,7 @@
         <v>1</v>
       </c>
       <c r="H53" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -3977,7 +4004,7 @@
         <v>1</v>
       </c>
       <c r="H54" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -4003,7 +4030,7 @@
         <v>0.4590532610652691</v>
       </c>
       <c r="H55" t="s">
-        <v>611</v>
+        <v>620</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -4029,7 +4056,7 @@
         <v>0</v>
       </c>
       <c r="H56" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -4055,7 +4082,7 @@
         <v>1</v>
       </c>
       <c r="H57" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -4081,7 +4108,7 @@
         <v>0</v>
       </c>
       <c r="H58" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -4107,7 +4134,7 @@
         <v>0</v>
       </c>
       <c r="H59" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -4133,7 +4160,7 @@
         <v>1</v>
       </c>
       <c r="H60" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -4159,7 +4186,7 @@
         <v>1</v>
       </c>
       <c r="H61" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -4185,7 +4212,7 @@
         <v>1</v>
       </c>
       <c r="H62" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -4211,7 +4238,7 @@
         <v>0</v>
       </c>
       <c r="H63" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -4237,7 +4264,7 @@
         <v>1</v>
       </c>
       <c r="H64" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -4263,7 +4290,7 @@
         <v>0.4773667054320679</v>
       </c>
       <c r="H65" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -4289,7 +4316,7 @@
         <v>0</v>
       </c>
       <c r="H66" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -4315,7 +4342,7 @@
         <v>0</v>
       </c>
       <c r="H67" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -4341,7 +4368,7 @@
         <v>0.5208141133350609</v>
       </c>
       <c r="H68" t="s">
-        <v>613</v>
+        <v>622</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -4367,7 +4394,7 @@
         <v>1</v>
       </c>
       <c r="H69" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -4393,7 +4420,7 @@
         <v>1</v>
       </c>
       <c r="H70" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -4419,7 +4446,7 @@
         <v>1</v>
       </c>
       <c r="H71" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -4445,7 +4472,7 @@
         <v>0</v>
       </c>
       <c r="H72" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -4471,7 +4498,7 @@
         <v>1</v>
       </c>
       <c r="H73" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -4497,7 +4524,7 @@
         <v>0</v>
       </c>
       <c r="H74" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -4523,7 +4550,7 @@
         <v>0.4694271906128297</v>
       </c>
       <c r="H75" t="s">
-        <v>614</v>
+        <v>623</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -4549,7 +4576,7 @@
         <v>1</v>
       </c>
       <c r="H76" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -4575,7 +4602,7 @@
         <v>1</v>
       </c>
       <c r="H77" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -4601,7 +4628,7 @@
         <v>0.6419210570163193</v>
       </c>
       <c r="H78" t="s">
-        <v>615</v>
+        <v>624</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -4627,7 +4654,7 @@
         <v>0.4549904783820721</v>
       </c>
       <c r="H79" t="s">
-        <v>616</v>
+        <v>625</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -4653,7 +4680,7 @@
         <v>1</v>
       </c>
       <c r="H80" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -4679,7 +4706,7 @@
         <v>1</v>
       </c>
       <c r="H81" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -4705,7 +4732,7 @@
         <v>1</v>
       </c>
       <c r="H82" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -4731,7 +4758,7 @@
         <v>1</v>
       </c>
       <c r="H83" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -4757,7 +4784,7 @@
         <v>0</v>
       </c>
       <c r="H84" t="s">
-        <v>606</v>
+        <v>615</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -4783,7 +4810,7 @@
         <v>0</v>
       </c>
       <c r="H85" t="s">
-        <v>606</v>
+        <v>615</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -4809,7 +4836,7 @@
         <v>0</v>
       </c>
       <c r="H86" t="s">
-        <v>606</v>
+        <v>615</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -4835,7 +4862,7 @@
         <v>0</v>
       </c>
       <c r="H87" t="s">
-        <v>606</v>
+        <v>615</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -4861,7 +4888,7 @@
         <v>0</v>
       </c>
       <c r="H88" t="s">
-        <v>606</v>
+        <v>615</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -4887,7 +4914,7 @@
         <v>1</v>
       </c>
       <c r="H89" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -4913,7 +4940,7 @@
         <v>1</v>
       </c>
       <c r="H90" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -4939,7 +4966,7 @@
         <v>0.4892063155061278</v>
       </c>
       <c r="H91" t="s">
-        <v>617</v>
+        <v>626</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -4965,7 +4992,7 @@
         <v>1</v>
       </c>
       <c r="H92" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -4991,7 +5018,7 @@
         <v>0.4956272603429394</v>
       </c>
       <c r="H93" t="s">
-        <v>618</v>
+        <v>627</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -5017,7 +5044,7 @@
         <v>0</v>
       </c>
       <c r="H94" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -5043,7 +5070,7 @@
         <v>0.526878458993841</v>
       </c>
       <c r="H95" t="s">
-        <v>619</v>
+        <v>628</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -5069,7 +5096,7 @@
         <v>0.3456361528471477</v>
       </c>
       <c r="H96" t="s">
-        <v>620</v>
+        <v>629</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -5095,7 +5122,7 @@
         <v>0.4542811887331372</v>
       </c>
       <c r="H97" t="s">
-        <v>621</v>
+        <v>630</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -5121,7 +5148,7 @@
         <v>0.5887823063280541</v>
       </c>
       <c r="H98" t="s">
-        <v>622</v>
+        <v>631</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -5147,7 +5174,7 @@
         <v>1</v>
       </c>
       <c r="H99" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -5173,7 +5200,7 @@
         <v>0.5310307226938407</v>
       </c>
       <c r="H100" t="s">
-        <v>623</v>
+        <v>632</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -5199,7 +5226,7 @@
         <v>0.5449963581032603</v>
       </c>
       <c r="H101" t="s">
-        <v>616</v>
+        <v>625</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -5225,7 +5252,7 @@
         <v>0.538849657114027</v>
       </c>
       <c r="H102" t="s">
-        <v>624</v>
+        <v>633</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -5251,7 +5278,7 @@
         <v>1</v>
       </c>
       <c r="H103" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -5277,7 +5304,7 @@
         <v>0.5052296656566035</v>
       </c>
       <c r="H104" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -5303,7 +5330,7 @@
         <v>0</v>
       </c>
       <c r="H105" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -5329,7 +5356,7 @@
         <v>1</v>
       </c>
       <c r="H106" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -5355,7 +5382,7 @@
         <v>0</v>
       </c>
       <c r="H107" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -5381,7 +5408,7 @@
         <v>0</v>
       </c>
       <c r="H108" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -5407,7 +5434,7 @@
         <v>0</v>
       </c>
       <c r="H109" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -5433,7 +5460,7 @@
         <v>0</v>
       </c>
       <c r="H110" t="s">
-        <v>606</v>
+        <v>615</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -5459,7 +5486,7 @@
         <v>1</v>
       </c>
       <c r="H111" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -5485,7 +5512,7 @@
         <v>0</v>
       </c>
       <c r="H112" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -5511,7 +5538,7 @@
         <v>0</v>
       </c>
       <c r="H113" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -5537,7 +5564,7 @@
         <v>1</v>
       </c>
       <c r="H114" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -5563,7 +5590,7 @@
         <v>1</v>
       </c>
       <c r="H115" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -5589,7 +5616,7 @@
         <v>0.6646717726375582</v>
       </c>
       <c r="H116" t="s">
-        <v>626</v>
+        <v>635</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -5615,7 +5642,7 @@
         <v>1</v>
       </c>
       <c r="H117" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -5641,7 +5668,7 @@
         <v>1</v>
       </c>
       <c r="H118" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -5667,7 +5694,7 @@
         <v>0.6235604412909561</v>
       </c>
       <c r="H119" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -5693,7 +5720,7 @@
         <v>1</v>
       </c>
       <c r="H120" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -5719,7 +5746,7 @@
         <v>0.5462775678441429</v>
       </c>
       <c r="H121" t="s">
-        <v>628</v>
+        <v>637</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -5745,7 +5772,7 @@
         <v>1</v>
       </c>
       <c r="H122" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -5771,7 +5798,7 @@
         <v>0</v>
       </c>
       <c r="H123" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -5797,7 +5824,7 @@
         <v>0</v>
       </c>
       <c r="H124" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -5823,7 +5850,7 @@
         <v>1</v>
       </c>
       <c r="H125" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -5849,7 +5876,7 @@
         <v>0</v>
       </c>
       <c r="H126" t="s">
-        <v>606</v>
+        <v>615</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -5875,7 +5902,7 @@
         <v>0</v>
       </c>
       <c r="H127" t="s">
-        <v>606</v>
+        <v>615</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -5901,7 +5928,7 @@
         <v>0</v>
       </c>
       <c r="H128" t="s">
-        <v>606</v>
+        <v>615</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -5927,7 +5954,7 @@
         <v>0</v>
       </c>
       <c r="H129" t="s">
-        <v>606</v>
+        <v>615</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -5953,7 +5980,7 @@
         <v>0</v>
       </c>
       <c r="H130" t="s">
-        <v>606</v>
+        <v>615</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -5979,7 +6006,7 @@
         <v>0.3682203109306855</v>
       </c>
       <c r="H131" t="s">
-        <v>629</v>
+        <v>638</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -6005,7 +6032,7 @@
         <v>0</v>
       </c>
       <c r="H132" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -6031,7 +6058,7 @@
         <v>1</v>
       </c>
       <c r="H133" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -6057,7 +6084,7 @@
         <v>0</v>
       </c>
       <c r="H134" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -6083,7 +6110,7 @@
         <v>0.5804551272682893</v>
       </c>
       <c r="H135" t="s">
-        <v>630</v>
+        <v>639</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -6109,7 +6136,7 @@
         <v>0.7726795896053059</v>
       </c>
       <c r="H136" t="s">
-        <v>631</v>
+        <v>640</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -6135,7 +6162,7 @@
         <v>0</v>
       </c>
       <c r="H137" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -6161,7 +6188,7 @@
         <v>0</v>
       </c>
       <c r="H138" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -6187,7 +6214,7 @@
         <v>1</v>
       </c>
       <c r="H139" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -6213,7 +6240,7 @@
         <v>0.6196235239775311</v>
       </c>
       <c r="H140" t="s">
-        <v>632</v>
+        <v>641</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -6239,7 +6266,7 @@
         <v>0.5970780621204577</v>
       </c>
       <c r="H141" t="s">
-        <v>633</v>
+        <v>642</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -6265,7 +6292,7 @@
         <v>1</v>
       </c>
       <c r="H142" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -6291,7 +6318,7 @@
         <v>1</v>
       </c>
       <c r="H143" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -6317,7 +6344,7 @@
         <v>0</v>
       </c>
       <c r="H144" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -6343,7 +6370,7 @@
         <v>1</v>
       </c>
       <c r="H145" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -6369,7 +6396,7 @@
         <v>1</v>
       </c>
       <c r="H146" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -6395,7 +6422,7 @@
         <v>1</v>
       </c>
       <c r="H147" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -6421,7 +6448,7 @@
         <v>1</v>
       </c>
       <c r="H148" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -6447,7 +6474,7 @@
         <v>0</v>
       </c>
       <c r="H149" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -6473,7 +6500,7 @@
         <v>1</v>
       </c>
       <c r="H150" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -6499,7 +6526,7 @@
         <v>1</v>
       </c>
       <c r="H151" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -6525,7 +6552,7 @@
         <v>1</v>
       </c>
       <c r="H152" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -6551,7 +6578,7 @@
         <v>0</v>
       </c>
       <c r="H153" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -6577,7 +6604,7 @@
         <v>1</v>
       </c>
       <c r="H154" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -6603,7 +6630,7 @@
         <v>0</v>
       </c>
       <c r="H155" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -6629,7 +6656,7 @@
         <v>1</v>
       </c>
       <c r="H156" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -6655,7 +6682,7 @@
         <v>1</v>
       </c>
       <c r="H157" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -6681,7 +6708,7 @@
         <v>1</v>
       </c>
       <c r="H158" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -6707,7 +6734,7 @@
         <v>1</v>
       </c>
       <c r="H159" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -6733,7 +6760,7 @@
         <v>0.6796336772290309</v>
       </c>
       <c r="H160" t="s">
-        <v>634</v>
+        <v>643</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -6759,7 +6786,7 @@
         <v>1</v>
       </c>
       <c r="H161" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -6785,7 +6812,7 @@
         <v>1</v>
       </c>
       <c r="H162" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -6811,7 +6838,7 @@
         <v>1</v>
       </c>
       <c r="H163" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -6837,7 +6864,7 @@
         <v>1</v>
       </c>
       <c r="H164" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -6863,7 +6890,7 @@
         <v>0.656110020421579</v>
       </c>
       <c r="H165" t="s">
-        <v>635</v>
+        <v>644</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -6889,7 +6916,7 @@
         <v>0</v>
       </c>
       <c r="H166" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -6915,7 +6942,7 @@
         <v>0.3525995325185676</v>
       </c>
       <c r="H167" t="s">
-        <v>636</v>
+        <v>645</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -6941,7 +6968,7 @@
         <v>0</v>
       </c>
       <c r="H168" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -6967,7 +6994,7 @@
         <v>1</v>
       </c>
       <c r="H169" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -6993,7 +7020,7 @@
         <v>1</v>
       </c>
       <c r="H170" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -7019,7 +7046,7 @@
         <v>0</v>
       </c>
       <c r="H171" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -7045,7 +7072,7 @@
         <v>0.469703495331913</v>
       </c>
       <c r="H172" t="s">
-        <v>607</v>
+        <v>616</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -7071,7 +7098,7 @@
         <v>0</v>
       </c>
       <c r="H173" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -7097,7 +7124,7 @@
         <v>0.5417130438680983</v>
       </c>
       <c r="H174" t="s">
-        <v>637</v>
+        <v>646</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -7123,7 +7150,7 @@
         <v>0</v>
       </c>
       <c r="H175" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -7149,7 +7176,7 @@
         <v>0</v>
       </c>
       <c r="H176" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -7175,7 +7202,7 @@
         <v>0</v>
       </c>
       <c r="H177" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -7201,7 +7228,7 @@
         <v>0</v>
       </c>
       <c r="H178" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -7227,7 +7254,7 @@
         <v>0</v>
       </c>
       <c r="H179" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -7253,7 +7280,7 @@
         <v>0</v>
       </c>
       <c r="H180" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -7279,7 +7306,7 @@
         <v>0.4855651763051241</v>
       </c>
       <c r="H181" t="s">
-        <v>638</v>
+        <v>647</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -7305,7 +7332,7 @@
         <v>1</v>
       </c>
       <c r="H182" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -7331,7 +7358,7 @@
         <v>0</v>
       </c>
       <c r="H183" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -7357,7 +7384,7 @@
         <v>0</v>
       </c>
       <c r="H184" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -7383,7 +7410,7 @@
         <v>0</v>
       </c>
       <c r="H185" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -7409,7 +7436,7 @@
         <v>0</v>
       </c>
       <c r="H186" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -7435,7 +7462,7 @@
         <v>0.4124433478079874</v>
       </c>
       <c r="H187" t="s">
-        <v>639</v>
+        <v>648</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -7461,7 +7488,7 @@
         <v>1</v>
       </c>
       <c r="H188" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -7487,7 +7514,7 @@
         <v>0</v>
       </c>
       <c r="H189" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -7513,7 +7540,7 @@
         <v>0</v>
       </c>
       <c r="H190" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -7539,7 +7566,7 @@
         <v>0</v>
       </c>
       <c r="H191" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -7565,7 +7592,7 @@
         <v>1</v>
       </c>
       <c r="H192" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -7591,7 +7618,7 @@
         <v>1</v>
       </c>
       <c r="H193" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -7617,7 +7644,7 @@
         <v>0</v>
       </c>
       <c r="H194" t="s">
-        <v>606</v>
+        <v>615</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -7643,7 +7670,7 @@
         <v>0</v>
       </c>
       <c r="H195" t="s">
-        <v>606</v>
+        <v>615</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -7669,7 +7696,7 @@
         <v>0</v>
       </c>
       <c r="H196" t="s">
-        <v>606</v>
+        <v>615</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -7695,7 +7722,7 @@
         <v>0</v>
       </c>
       <c r="H197" t="s">
-        <v>606</v>
+        <v>615</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -7721,7 +7748,7 @@
         <v>0</v>
       </c>
       <c r="H198" t="s">
-        <v>606</v>
+        <v>615</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -7747,7 +7774,7 @@
         <v>0</v>
       </c>
       <c r="H199" t="s">
-        <v>606</v>
+        <v>615</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -7773,7 +7800,7 @@
         <v>0</v>
       </c>
       <c r="H200" t="s">
-        <v>606</v>
+        <v>615</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -7799,7 +7826,7 @@
         <v>0.5780639170489871</v>
       </c>
       <c r="H201" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -7825,7 +7852,7 @@
         <v>0.4215393731535424</v>
       </c>
       <c r="H202" t="s">
-        <v>641</v>
+        <v>650</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -7851,7 +7878,7 @@
         <v>0.3467065628450095</v>
       </c>
       <c r="H203" t="s">
-        <v>642</v>
+        <v>651</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -7877,7 +7904,7 @@
         <v>0</v>
       </c>
       <c r="H204" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -7903,7 +7930,7 @@
         <v>0</v>
       </c>
       <c r="H205" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -7929,7 +7956,7 @@
         <v>1</v>
       </c>
       <c r="H206" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -7955,7 +7982,7 @@
         <v>0</v>
       </c>
       <c r="H207" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -7981,7 +8008,7 @@
         <v>1</v>
       </c>
       <c r="H208" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -8007,7 +8034,7 @@
         <v>1</v>
       </c>
       <c r="H209" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -8033,7 +8060,7 @@
         <v>1</v>
       </c>
       <c r="H210" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -8059,7 +8086,7 @@
         <v>1</v>
       </c>
       <c r="H211" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -8085,7 +8112,7 @@
         <v>0</v>
       </c>
       <c r="H212" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -8111,7 +8138,7 @@
         <v>1</v>
       </c>
       <c r="H213" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -8137,7 +8164,7 @@
         <v>1</v>
       </c>
       <c r="H214" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -8163,7 +8190,7 @@
         <v>1</v>
       </c>
       <c r="H215" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -8189,7 +8216,7 @@
         <v>0.5087358365117602</v>
       </c>
       <c r="H216" t="s">
-        <v>643</v>
+        <v>652</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -8215,7 +8242,7 @@
         <v>0</v>
       </c>
       <c r="H217" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -8241,7 +8268,7 @@
         <v>0.5158678488274785</v>
       </c>
       <c r="H218" t="s">
-        <v>644</v>
+        <v>653</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -8267,7 +8294,7 @@
         <v>0</v>
       </c>
       <c r="H219" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -8293,7 +8320,7 @@
         <v>0.2870430274384894</v>
       </c>
       <c r="H220" t="s">
-        <v>645</v>
+        <v>654</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -8319,7 +8346,7 @@
         <v>1</v>
       </c>
       <c r="H221" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -8345,7 +8372,7 @@
         <v>0.6127520737142151</v>
       </c>
       <c r="H222" t="s">
-        <v>646</v>
+        <v>655</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -8371,7 +8398,7 @@
         <v>0.3609387246264842</v>
       </c>
       <c r="H223" t="s">
-        <v>647</v>
+        <v>656</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -8397,7 +8424,7 @@
         <v>0.4197051507971554</v>
       </c>
       <c r="H224" t="s">
-        <v>648</v>
+        <v>657</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -8423,7 +8450,7 @@
         <v>0.5512799617328629</v>
       </c>
       <c r="H225" t="s">
-        <v>649</v>
+        <v>658</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -8449,7 +8476,7 @@
         <v>0</v>
       </c>
       <c r="H226" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -8475,7 +8502,7 @@
         <v>0</v>
       </c>
       <c r="H227" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -8501,7 +8528,7 @@
         <v>0</v>
       </c>
       <c r="H228" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -8527,7 +8554,7 @@
         <v>0.5072390354177577</v>
       </c>
       <c r="H229" t="s">
-        <v>650</v>
+        <v>659</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -8553,7 +8580,7 @@
         <v>0.5191745840351744</v>
       </c>
       <c r="H230" t="s">
-        <v>651</v>
+        <v>660</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -8579,7 +8606,7 @@
         <v>1</v>
       </c>
       <c r="H231" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -8605,7 +8632,7 @@
         <v>0.5972661005120165</v>
       </c>
       <c r="H232" t="s">
-        <v>652</v>
+        <v>661</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -8631,7 +8658,7 @@
         <v>1</v>
       </c>
       <c r="H233" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -8657,7 +8684,7 @@
         <v>1</v>
       </c>
       <c r="H234" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -8683,7 +8710,7 @@
         <v>0.5854205990462216</v>
       </c>
       <c r="H235" t="s">
-        <v>653</v>
+        <v>662</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -8709,7 +8736,7 @@
         <v>0.3730102393966785</v>
       </c>
       <c r="H236" t="s">
-        <v>654</v>
+        <v>663</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -8735,7 +8762,7 @@
         <v>0.5456285491144892</v>
       </c>
       <c r="H237" t="s">
-        <v>655</v>
+        <v>664</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -8761,7 +8788,7 @@
         <v>0.5175347977993346</v>
       </c>
       <c r="H238" t="s">
-        <v>656</v>
+        <v>665</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -8787,7 +8814,7 @@
         <v>1</v>
       </c>
       <c r="H239" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -8813,7 +8840,7 @@
         <v>1</v>
       </c>
       <c r="H240" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -8839,7 +8866,7 @@
         <v>0.4947875949457229</v>
       </c>
       <c r="H241" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -8865,7 +8892,7 @@
         <v>0</v>
       </c>
       <c r="H242" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -8891,7 +8918,7 @@
         <v>0</v>
       </c>
       <c r="H243" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -8917,7 +8944,7 @@
         <v>0.4792599658405648</v>
       </c>
       <c r="H244" t="s">
-        <v>657</v>
+        <v>666</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -8943,7 +8970,7 @@
         <v>1</v>
       </c>
       <c r="H245" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -8969,7 +8996,7 @@
         <v>1</v>
       </c>
       <c r="H246" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -8995,7 +9022,7 @@
         <v>1</v>
       </c>
       <c r="H247" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -9021,7 +9048,7 @@
         <v>0</v>
       </c>
       <c r="H248" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -9047,7 +9074,7 @@
         <v>0.5066418849191674</v>
       </c>
       <c r="H249" t="s">
-        <v>658</v>
+        <v>667</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -9073,7 +9100,7 @@
         <v>0.5244848812293227</v>
       </c>
       <c r="H250" t="s">
-        <v>659</v>
+        <v>668</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -9099,7 +9126,7 @@
         <v>1</v>
       </c>
       <c r="H251" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -9125,7 +9152,7 @@
         <v>0.5825654626700081</v>
       </c>
       <c r="H252" t="s">
-        <v>660</v>
+        <v>669</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -9151,7 +9178,7 @@
         <v>1</v>
       </c>
       <c r="H253" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -9177,7 +9204,7 @@
         <v>1</v>
       </c>
       <c r="H254" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -9203,7 +9230,7 @@
         <v>0.5077321483125038</v>
       </c>
       <c r="H255" t="s">
-        <v>661</v>
+        <v>670</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -9229,7 +9256,7 @@
         <v>0</v>
       </c>
       <c r="H256" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -9255,7 +9282,7 @@
         <v>0</v>
       </c>
       <c r="H257" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -9281,7 +9308,7 @@
         <v>0</v>
       </c>
       <c r="H258" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -9307,7 +9334,7 @@
         <v>0</v>
       </c>
       <c r="H259" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -9333,7 +9360,7 @@
         <v>0</v>
       </c>
       <c r="H260" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -9359,7 +9386,7 @@
         <v>0</v>
       </c>
       <c r="H261" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -9385,7 +9412,7 @@
         <v>1</v>
       </c>
       <c r="H262" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -9411,7 +9438,7 @@
         <v>1</v>
       </c>
       <c r="H263" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -9437,7 +9464,7 @@
         <v>1</v>
       </c>
       <c r="H264" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -9463,7 +9490,7 @@
         <v>0</v>
       </c>
       <c r="H265" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -9489,7 +9516,7 @@
         <v>0</v>
       </c>
       <c r="H266" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -9515,7 +9542,7 @@
         <v>0</v>
       </c>
       <c r="H267" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -9541,7 +9568,7 @@
         <v>0</v>
       </c>
       <c r="H268" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -9567,7 +9594,7 @@
         <v>0</v>
       </c>
       <c r="H269" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -9593,7 +9620,7 @@
         <v>0</v>
       </c>
       <c r="H270" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -9619,7 +9646,7 @@
         <v>0</v>
       </c>
       <c r="H271" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -9645,7 +9672,7 @@
         <v>0</v>
       </c>
       <c r="H272" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -9671,7 +9698,7 @@
         <v>0</v>
       </c>
       <c r="H273" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -9697,7 +9724,7 @@
         <v>0</v>
       </c>
       <c r="H274" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -9723,7 +9750,7 @@
         <v>0</v>
       </c>
       <c r="H275" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -9749,7 +9776,7 @@
         <v>0</v>
       </c>
       <c r="H276" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -9775,7 +9802,7 @@
         <v>0</v>
       </c>
       <c r="H277" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -9801,7 +9828,7 @@
         <v>1</v>
       </c>
       <c r="H278" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -9827,7 +9854,7 @@
         <v>1</v>
       </c>
       <c r="H279" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -9853,7 +9880,7 @@
         <v>1</v>
       </c>
       <c r="H280" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -9879,7 +9906,7 @@
         <v>1</v>
       </c>
       <c r="H281" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -9905,7 +9932,7 @@
         <v>1</v>
       </c>
       <c r="H282" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -9931,7 +9958,7 @@
         <v>0.7142044494761026</v>
       </c>
       <c r="H283" t="s">
-        <v>662</v>
+        <v>671</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -9957,7 +9984,7 @@
         <v>1</v>
       </c>
       <c r="H284" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -9983,7 +10010,7 @@
         <v>1</v>
       </c>
       <c r="H285" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -10009,7 +10036,7 @@
         <v>0.2639905523353389</v>
       </c>
       <c r="H286" t="s">
-        <v>663</v>
+        <v>672</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -10035,7 +10062,7 @@
         <v>0</v>
       </c>
       <c r="H287" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -10061,7 +10088,7 @@
         <v>0.3050160804809514</v>
       </c>
       <c r="H288" t="s">
-        <v>664</v>
+        <v>673</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -10087,7 +10114,7 @@
         <v>0</v>
       </c>
       <c r="H289" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -10113,7 +10140,7 @@
         <v>1</v>
       </c>
       <c r="H290" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -10139,7 +10166,7 @@
         <v>0.3145757608208205</v>
       </c>
       <c r="H291" t="s">
-        <v>665</v>
+        <v>674</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -10165,7 +10192,7 @@
         <v>1</v>
       </c>
       <c r="H292" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -10191,7 +10218,7 @@
         <v>0</v>
       </c>
       <c r="H293" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -10217,7 +10244,7 @@
         <v>0</v>
       </c>
       <c r="H294" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -10243,7 +10270,7 @@
         <v>0</v>
       </c>
       <c r="H295" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -10269,7 +10296,7 @@
         <v>1</v>
       </c>
       <c r="H296" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -10295,7 +10322,7 @@
         <v>1</v>
       </c>
       <c r="H297" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -10321,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="H298" t="s">
-        <v>606</v>
+        <v>615</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -10347,7 +10374,7 @@
         <v>0</v>
       </c>
       <c r="H299" t="s">
-        <v>606</v>
+        <v>615</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -10373,7 +10400,7 @@
         <v>0</v>
       </c>
       <c r="H300" t="s">
-        <v>606</v>
+        <v>615</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -10399,7 +10426,7 @@
         <v>0</v>
       </c>
       <c r="H301" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -10425,7 +10452,7 @@
         <v>1</v>
       </c>
       <c r="H302" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -10451,7 +10478,7 @@
         <v>1</v>
       </c>
       <c r="H303" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -10477,7 +10504,7 @@
         <v>1</v>
       </c>
       <c r="H304" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -10503,7 +10530,7 @@
         <v>0.4684480917829717</v>
       </c>
       <c r="H305" t="s">
-        <v>666</v>
+        <v>675</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -10529,7 +10556,7 @@
         <v>1</v>
       </c>
       <c r="H306" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -10555,7 +10582,7 @@
         <v>1</v>
       </c>
       <c r="H307" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -10581,7 +10608,7 @@
         <v>0</v>
       </c>
       <c r="H308" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -10607,7 +10634,7 @@
         <v>0.4802500784481633</v>
       </c>
       <c r="H309" t="s">
-        <v>667</v>
+        <v>676</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -10633,7 +10660,7 @@
         <v>0.532085355697567</v>
       </c>
       <c r="H310" t="s">
-        <v>668</v>
+        <v>677</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -10659,7 +10686,7 @@
         <v>1</v>
       </c>
       <c r="H311" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -10685,7 +10712,7 @@
         <v>1</v>
       </c>
       <c r="H312" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -10711,7 +10738,7 @@
         <v>0</v>
       </c>
       <c r="H313" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -10737,7 +10764,7 @@
         <v>0</v>
       </c>
       <c r="H314" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -10763,7 +10790,7 @@
         <v>1</v>
       </c>
       <c r="H315" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -10789,7 +10816,7 @@
         <v>0</v>
       </c>
       <c r="H316" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -10815,7 +10842,7 @@
         <v>0</v>
       </c>
       <c r="H317" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -10841,7 +10868,7 @@
         <v>0</v>
       </c>
       <c r="H318" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -10867,7 +10894,7 @@
         <v>0.5265664424230306</v>
       </c>
       <c r="H319" t="s">
-        <v>669</v>
+        <v>678</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -10893,7 +10920,7 @@
         <v>1</v>
       </c>
       <c r="H320" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -10919,7 +10946,7 @@
         <v>1</v>
       </c>
       <c r="H321" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -10945,7 +10972,7 @@
         <v>0.4883210443310049</v>
       </c>
       <c r="H322" t="s">
-        <v>670</v>
+        <v>679</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -10971,7 +10998,7 @@
         <v>1</v>
       </c>
       <c r="H323" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -10997,7 +11024,7 @@
         <v>1</v>
       </c>
       <c r="H324" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -11023,7 +11050,7 @@
         <v>0.4944701228381642</v>
       </c>
       <c r="H325" t="s">
-        <v>671</v>
+        <v>680</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -11049,7 +11076,7 @@
         <v>0.6176406945258538</v>
       </c>
       <c r="H326" t="s">
-        <v>672</v>
+        <v>681</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -11075,7 +11102,7 @@
         <v>1</v>
       </c>
       <c r="H327" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -11101,7 +11128,7 @@
         <v>0</v>
       </c>
       <c r="H328" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -11127,7 +11154,7 @@
         <v>1</v>
       </c>
       <c r="H329" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -11153,7 +11180,7 @@
         <v>1</v>
       </c>
       <c r="H330" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -11179,7 +11206,7 @@
         <v>1</v>
       </c>
       <c r="H331" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -11205,7 +11232,7 @@
         <v>0</v>
       </c>
       <c r="H332" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -11231,7 +11258,7 @@
         <v>1</v>
       </c>
       <c r="H333" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -11257,7 +11284,7 @@
         <v>0</v>
       </c>
       <c r="H334" t="s">
-        <v>606</v>
+        <v>615</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -11283,7 +11310,7 @@
         <v>0</v>
       </c>
       <c r="H335" t="s">
-        <v>606</v>
+        <v>615</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -11309,7 +11336,7 @@
         <v>0</v>
       </c>
       <c r="H336" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -11335,7 +11362,7 @@
         <v>0</v>
       </c>
       <c r="H337" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -11361,7 +11388,7 @@
         <v>0</v>
       </c>
       <c r="H338" t="s">
-        <v>606</v>
+        <v>615</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -11387,7 +11414,7 @@
         <v>0</v>
       </c>
       <c r="H339" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -11413,7 +11440,7 @@
         <v>0</v>
       </c>
       <c r="H340" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -11439,7 +11466,7 @@
         <v>0</v>
       </c>
       <c r="H341" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -11465,7 +11492,7 @@
         <v>0</v>
       </c>
       <c r="H342" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -11491,7 +11518,7 @@
         <v>0</v>
       </c>
       <c r="H343" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -11517,7 +11544,7 @@
         <v>0</v>
       </c>
       <c r="H344" t="s">
-        <v>606</v>
+        <v>615</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -11543,7 +11570,7 @@
         <v>0</v>
       </c>
       <c r="H345" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -11569,7 +11596,7 @@
         <v>1</v>
       </c>
       <c r="H346" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -11595,7 +11622,7 @@
         <v>0</v>
       </c>
       <c r="H347" t="s">
-        <v>606</v>
+        <v>615</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -11621,7 +11648,7 @@
         <v>1</v>
       </c>
       <c r="H348" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -11647,7 +11674,7 @@
         <v>0</v>
       </c>
       <c r="H349" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -11673,7 +11700,7 @@
         <v>0</v>
       </c>
       <c r="H350" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -11699,7 +11726,7 @@
         <v>1</v>
       </c>
       <c r="H351" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -11725,7 +11752,7 @@
         <v>0</v>
       </c>
       <c r="H352" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -11751,7 +11778,7 @@
         <v>1</v>
       </c>
       <c r="H353" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -11777,7 +11804,7 @@
         <v>0</v>
       </c>
       <c r="H354" t="s">
-        <v>606</v>
+        <v>615</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -11803,7 +11830,7 @@
         <v>0</v>
       </c>
       <c r="H355" t="s">
-        <v>606</v>
+        <v>615</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -11829,7 +11856,7 @@
         <v>0.4727916941910472</v>
       </c>
       <c r="H356" t="s">
-        <v>673</v>
+        <v>682</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -11855,7 +11882,7 @@
         <v>0.592905125734851</v>
       </c>
       <c r="H357" t="s">
-        <v>674</v>
+        <v>683</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -11881,7 +11908,7 @@
         <v>1</v>
       </c>
       <c r="H358" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -11907,7 +11934,7 @@
         <v>1</v>
       </c>
       <c r="H359" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -11933,7 +11960,7 @@
         <v>0.58097429381426</v>
       </c>
       <c r="H360" t="s">
-        <v>675</v>
+        <v>684</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -11959,7 +11986,7 @@
         <v>0.590320286768299</v>
       </c>
       <c r="H361" t="s">
-        <v>676</v>
+        <v>685</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -11985,7 +12012,7 @@
         <v>1</v>
       </c>
       <c r="H362" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -12011,7 +12038,7 @@
         <v>1</v>
       </c>
       <c r="H363" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -12037,7 +12064,7 @@
         <v>1</v>
       </c>
       <c r="H364" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -12063,7 +12090,7 @@
         <v>0.5415421297068406</v>
       </c>
       <c r="H365" t="s">
-        <v>677</v>
+        <v>686</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -12089,7 +12116,7 @@
         <v>0.4755980664578932</v>
       </c>
       <c r="H366" t="s">
-        <v>678</v>
+        <v>687</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -12115,7 +12142,7 @@
         <v>0.4674576009420436</v>
       </c>
       <c r="H367" t="s">
-        <v>679</v>
+        <v>688</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -12141,7 +12168,7 @@
         <v>0</v>
       </c>
       <c r="H368" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -12167,7 +12194,7 @@
         <v>0</v>
       </c>
       <c r="H369" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -12193,7 +12220,7 @@
         <v>0.4117206427581332</v>
       </c>
       <c r="H370" t="s">
-        <v>680</v>
+        <v>689</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -12219,7 +12246,7 @@
         <v>0</v>
       </c>
       <c r="H371" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -12245,7 +12272,7 @@
         <v>0.4877674881041185</v>
       </c>
       <c r="H372" t="s">
-        <v>681</v>
+        <v>690</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -12271,7 +12298,7 @@
         <v>1</v>
       </c>
       <c r="H373" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -12297,7 +12324,7 @@
         <v>0</v>
       </c>
       <c r="H374" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -12323,7 +12350,7 @@
         <v>1</v>
       </c>
       <c r="H375" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -12349,7 +12376,7 @@
         <v>1</v>
       </c>
       <c r="H376" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -12375,7 +12402,7 @@
         <v>1</v>
       </c>
       <c r="H377" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -12401,7 +12428,7 @@
         <v>0.5457340096649603</v>
       </c>
       <c r="H378" t="s">
-        <v>621</v>
+        <v>630</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -12427,7 +12454,7 @@
         <v>0.5430661202901698</v>
       </c>
       <c r="H379" t="s">
-        <v>682</v>
+        <v>691</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -12453,7 +12480,7 @@
         <v>0.3901508834189628</v>
       </c>
       <c r="H380" t="s">
-        <v>683</v>
+        <v>692</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -12479,7 +12506,7 @@
         <v>1</v>
       </c>
       <c r="H381" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -12505,7 +12532,7 @@
         <v>0</v>
       </c>
       <c r="H382" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -12531,7 +12558,7 @@
         <v>0.3842350957253691</v>
       </c>
       <c r="H383" t="s">
-        <v>684</v>
+        <v>693</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -12557,7 +12584,7 @@
         <v>0</v>
       </c>
       <c r="H384" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -12583,7 +12610,7 @@
         <v>0.5507071125792278</v>
       </c>
       <c r="H385" t="s">
-        <v>685</v>
+        <v>694</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -12609,7 +12636,7 @@
         <v>1</v>
       </c>
       <c r="H386" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -12635,7 +12662,7 @@
         <v>0.4377320953597089</v>
       </c>
       <c r="H387" t="s">
-        <v>686</v>
+        <v>695</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -12661,7 +12688,7 @@
         <v>1</v>
       </c>
       <c r="H388" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -12687,7 +12714,7 @@
         <v>1</v>
       </c>
       <c r="H389" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -12713,7 +12740,7 @@
         <v>0.4814930652016589</v>
       </c>
       <c r="H390" t="s">
-        <v>687</v>
+        <v>696</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -12739,7 +12766,7 @@
         <v>1</v>
       </c>
       <c r="H391" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -12765,7 +12792,7 @@
         <v>0</v>
       </c>
       <c r="H392" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -12791,7 +12818,7 @@
         <v>0</v>
       </c>
       <c r="H393" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -12817,7 +12844,7 @@
         <v>0</v>
       </c>
       <c r="H394" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -12843,7 +12870,7 @@
         <v>0</v>
       </c>
       <c r="H395" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -12869,7 +12896,7 @@
         <v>0</v>
       </c>
       <c r="H396" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -12895,7 +12922,7 @@
         <v>0</v>
       </c>
       <c r="H397" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -12921,7 +12948,7 @@
         <v>0</v>
       </c>
       <c r="H398" t="s">
-        <v>606</v>
+        <v>615</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -12947,7 +12974,7 @@
         <v>0</v>
       </c>
       <c r="H399" t="s">
-        <v>606</v>
+        <v>615</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -12973,7 +13000,7 @@
         <v>1</v>
       </c>
       <c r="H400" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -12999,7 +13026,7 @@
         <v>1</v>
       </c>
       <c r="H401" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -13025,7 +13052,7 @@
         <v>0</v>
       </c>
       <c r="H402" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -13051,7 +13078,7 @@
         <v>1</v>
       </c>
       <c r="H403" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -13077,7 +13104,7 @@
         <v>0</v>
       </c>
       <c r="H404" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -13103,7 +13130,7 @@
         <v>0</v>
       </c>
       <c r="H405" t="s">
-        <v>606</v>
+        <v>615</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -13129,7 +13156,7 @@
         <v>0</v>
       </c>
       <c r="H406" t="s">
-        <v>606</v>
+        <v>615</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -13155,7 +13182,7 @@
         <v>0</v>
       </c>
       <c r="H407" t="s">
-        <v>606</v>
+        <v>615</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -13181,7 +13208,7 @@
         <v>0</v>
       </c>
       <c r="H408" t="s">
-        <v>606</v>
+        <v>615</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -13207,7 +13234,7 @@
         <v>0</v>
       </c>
       <c r="H409" t="s">
-        <v>606</v>
+        <v>615</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -13233,7 +13260,7 @@
         <v>1</v>
       </c>
       <c r="H410" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -13259,7 +13286,7 @@
         <v>0.5237945388446439</v>
       </c>
       <c r="H411" t="s">
-        <v>688</v>
+        <v>697</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -13285,7 +13312,7 @@
         <v>0</v>
       </c>
       <c r="H412" t="s">
-        <v>606</v>
+        <v>615</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -13311,7 +13338,7 @@
         <v>1</v>
       </c>
       <c r="H413" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -13337,7 +13364,7 @@
         <v>0</v>
       </c>
       <c r="H414" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -13363,7 +13390,7 @@
         <v>0.4829678148125897</v>
       </c>
       <c r="H415" t="s">
-        <v>689</v>
+        <v>698</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -13389,7 +13416,7 @@
         <v>0</v>
       </c>
       <c r="H416" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -13415,7 +13442,7 @@
         <v>1</v>
       </c>
       <c r="H417" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -13441,7 +13468,7 @@
         <v>0.5064587496515739</v>
       </c>
       <c r="H418" t="s">
-        <v>690</v>
+        <v>699</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -13467,7 +13494,7 @@
         <v>1</v>
       </c>
       <c r="H419" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -13493,7 +13520,7 @@
         <v>1</v>
       </c>
       <c r="H420" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -13519,7 +13546,7 @@
         <v>0</v>
       </c>
       <c r="H421" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -13545,7 +13572,7 @@
         <v>1</v>
       </c>
       <c r="H422" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -13571,7 +13598,7 @@
         <v>1</v>
       </c>
       <c r="H423" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -13597,7 +13624,7 @@
         <v>1</v>
       </c>
       <c r="H424" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -13623,7 +13650,7 @@
         <v>0.4836442888087482</v>
       </c>
       <c r="H425" t="s">
-        <v>691</v>
+        <v>700</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -13649,7 +13676,7 @@
         <v>0.4305630440122571</v>
       </c>
       <c r="H426" t="s">
-        <v>692</v>
+        <v>701</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -13675,7 +13702,7 @@
         <v>0</v>
       </c>
       <c r="H427" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -13701,7 +13728,7 @@
         <v>0</v>
       </c>
       <c r="H428" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -13727,7 +13754,7 @@
         <v>0</v>
       </c>
       <c r="H429" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -13753,7 +13780,7 @@
         <v>0</v>
       </c>
       <c r="H430" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -13779,7 +13806,7 @@
         <v>1</v>
       </c>
       <c r="H431" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -13805,7 +13832,7 @@
         <v>0.3428495312542179</v>
       </c>
       <c r="H432" t="s">
-        <v>693</v>
+        <v>702</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -13831,7 +13858,7 @@
         <v>1</v>
       </c>
       <c r="H433" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -13857,7 +13884,7 @@
         <v>1</v>
       </c>
       <c r="H434" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -13883,7 +13910,7 @@
         <v>1</v>
       </c>
       <c r="H435" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -13909,7 +13936,7 @@
         <v>1</v>
       </c>
       <c r="H436" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -13935,7 +13962,7 @@
         <v>1</v>
       </c>
       <c r="H437" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -13961,7 +13988,7 @@
         <v>0.37692505804925</v>
       </c>
       <c r="H438" t="s">
-        <v>694</v>
+        <v>703</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -13987,7 +14014,7 @@
         <v>0</v>
       </c>
       <c r="H439" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -14013,7 +14040,7 @@
         <v>1</v>
       </c>
       <c r="H440" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -14039,7 +14066,7 @@
         <v>1</v>
       </c>
       <c r="H441" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -14065,7 +14092,7 @@
         <v>1</v>
       </c>
       <c r="H442" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -14091,7 +14118,7 @@
         <v>1</v>
       </c>
       <c r="H443" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -14117,7 +14144,7 @@
         <v>1</v>
       </c>
       <c r="H444" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -14143,7 +14170,7 @@
         <v>1</v>
       </c>
       <c r="H445" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -14169,7 +14196,7 @@
         <v>0</v>
       </c>
       <c r="H446" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -14195,7 +14222,7 @@
         <v>1</v>
       </c>
       <c r="H447" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -14221,7 +14248,7 @@
         <v>0.4999972278116096</v>
       </c>
       <c r="H448" t="s">
-        <v>695</v>
+        <v>704</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -14247,7 +14274,7 @@
         <v>1</v>
       </c>
       <c r="H449" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -14273,7 +14300,7 @@
         <v>1</v>
       </c>
       <c r="H450" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -14299,7 +14326,7 @@
         <v>0.5000008135448658</v>
       </c>
       <c r="H451" t="s">
-        <v>695</v>
+        <v>704</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -14325,7 +14352,7 @@
         <v>0.5000003432102331</v>
       </c>
       <c r="H452" t="s">
-        <v>695</v>
+        <v>704</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -14351,7 +14378,7 @@
         <v>0</v>
       </c>
       <c r="H453" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -14377,7 +14404,7 @@
         <v>0</v>
       </c>
       <c r="H454" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -14403,7 +14430,7 @@
         <v>0.5000000080651682</v>
       </c>
       <c r="H455" t="s">
-        <v>695</v>
+        <v>704</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -14429,7 +14456,7 @@
         <v>0.5000000574845813</v>
       </c>
       <c r="H456" t="s">
-        <v>695</v>
+        <v>704</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -14455,7 +14482,7 @@
         <v>0.5000000803710055</v>
       </c>
       <c r="H457" t="s">
-        <v>695</v>
+        <v>704</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -14481,7 +14508,7 @@
         <v>0.5000001550519353</v>
       </c>
       <c r="H458" t="s">
-        <v>695</v>
+        <v>704</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -14507,7 +14534,7 @@
         <v>0.4999998517320268</v>
       </c>
       <c r="H459" t="s">
-        <v>695</v>
+        <v>704</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -14533,7 +14560,7 @@
         <v>0.4999999162606177</v>
       </c>
       <c r="H460" t="s">
-        <v>695</v>
+        <v>704</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -14559,7 +14586,7 @@
         <v>1</v>
       </c>
       <c r="H461" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -14585,7 +14612,7 @@
         <v>0.4999999724325874</v>
       </c>
       <c r="H462" t="s">
-        <v>695</v>
+        <v>704</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -14611,7 +14638,7 @@
         <v>1</v>
       </c>
       <c r="H463" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -14637,7 +14664,7 @@
         <v>1</v>
       </c>
       <c r="H464" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -14663,7 +14690,7 @@
         <v>1</v>
       </c>
       <c r="H465" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -14689,7 +14716,7 @@
         <v>1</v>
       </c>
       <c r="H466" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -14715,7 +14742,7 @@
         <v>0.4999999784054215</v>
       </c>
       <c r="H467" t="s">
-        <v>695</v>
+        <v>704</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -14741,7 +14768,7 @@
         <v>1</v>
       </c>
       <c r="H468" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -14767,7 +14794,7 @@
         <v>0.4999989399808594</v>
       </c>
       <c r="H469" t="s">
-        <v>695</v>
+        <v>704</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -14793,7 +14820,7 @@
         <v>1</v>
       </c>
       <c r="H470" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -14819,7 +14846,7 @@
         <v>0.4999953048749839</v>
       </c>
       <c r="H471" t="s">
-        <v>695</v>
+        <v>704</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -14845,7 +14872,7 @@
         <v>1</v>
       </c>
       <c r="H472" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -14871,7 +14898,7 @@
         <v>0</v>
       </c>
       <c r="H473" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -14897,7 +14924,7 @@
         <v>1</v>
       </c>
       <c r="H474" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -14923,7 +14950,7 @@
         <v>1</v>
       </c>
       <c r="H475" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -14949,7 +14976,7 @@
         <v>0.4969990790199526</v>
       </c>
       <c r="H476" t="s">
-        <v>696</v>
+        <v>705</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -14975,7 +15002,7 @@
         <v>0.4981722583163443</v>
       </c>
       <c r="H477" t="s">
-        <v>697</v>
+        <v>706</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -15001,7 +15028,7 @@
         <v>0</v>
       </c>
       <c r="H478" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -15027,7 +15054,7 @@
         <v>0.5093432530308867</v>
       </c>
       <c r="H479" t="s">
-        <v>698</v>
+        <v>707</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -15053,7 +15080,7 @@
         <v>0.4678216607044495</v>
       </c>
       <c r="H480" t="s">
-        <v>699</v>
+        <v>708</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -15079,7 +15106,7 @@
         <v>1</v>
       </c>
       <c r="H481" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -15105,7 +15132,7 @@
         <v>1</v>
       </c>
       <c r="H482" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -15131,7 +15158,7 @@
         <v>1</v>
       </c>
       <c r="H483" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -15157,7 +15184,7 @@
         <v>0.369962575225719</v>
       </c>
       <c r="H484" t="s">
-        <v>700</v>
+        <v>709</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -15183,7 +15210,7 @@
         <v>0.6603250957542344</v>
       </c>
       <c r="H485" t="s">
-        <v>701</v>
+        <v>710</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -15209,7 +15236,7 @@
         <v>0</v>
       </c>
       <c r="H486" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -15235,7 +15262,7 @@
         <v>0.5055697140154364</v>
       </c>
       <c r="H487" t="s">
-        <v>702</v>
+        <v>711</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -15261,7 +15288,7 @@
         <v>1</v>
       </c>
       <c r="H488" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -15287,7 +15314,7 @@
         <v>0</v>
       </c>
       <c r="H489" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -15313,7 +15340,7 @@
         <v>1</v>
       </c>
       <c r="H490" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -15339,7 +15366,7 @@
         <v>1</v>
       </c>
       <c r="H491" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -15365,7 +15392,7 @@
         <v>0.4265981834073078</v>
       </c>
       <c r="H492" t="s">
-        <v>703</v>
+        <v>712</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -15391,7 +15418,7 @@
         <v>0.3945013483697977</v>
       </c>
       <c r="H493" t="s">
-        <v>704</v>
+        <v>713</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -15417,7 +15444,7 @@
         <v>0.4155486167886422</v>
       </c>
       <c r="H494" t="s">
-        <v>705</v>
+        <v>714</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -15443,7 +15470,7 @@
         <v>0.3574178298209847</v>
       </c>
       <c r="H495" t="s">
-        <v>706</v>
+        <v>715</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -15469,7 +15496,7 @@
         <v>0.6578042133963591</v>
       </c>
       <c r="H496" t="s">
-        <v>707</v>
+        <v>716</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -15495,7 +15522,7 @@
         <v>0.5644716658145573</v>
       </c>
       <c r="H497" t="s">
-        <v>708</v>
+        <v>717</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -15521,7 +15548,7 @@
         <v>1</v>
       </c>
       <c r="H498" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -15547,7 +15574,7 @@
         <v>0</v>
       </c>
       <c r="H499" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -15573,7 +15600,7 @@
         <v>1</v>
       </c>
       <c r="H500" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -15599,7 +15626,7 @@
         <v>1</v>
       </c>
       <c r="H501" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -15625,7 +15652,7 @@
         <v>1</v>
       </c>
       <c r="H502" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -15651,7 +15678,7 @@
         <v>0</v>
       </c>
       <c r="H503" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -15677,7 +15704,7 @@
         <v>1</v>
       </c>
       <c r="H504" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -15703,7 +15730,7 @@
         <v>0</v>
       </c>
       <c r="H505" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -15729,7 +15756,7 @@
         <v>0</v>
       </c>
       <c r="H506" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -15755,7 +15782,7 @@
         <v>0</v>
       </c>
       <c r="H507" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -15781,7 +15808,7 @@
         <v>0.6264273857853571</v>
       </c>
       <c r="H508" t="s">
-        <v>709</v>
+        <v>718</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -15807,7 +15834,7 @@
         <v>0.4175190869931275</v>
       </c>
       <c r="H509" t="s">
-        <v>710</v>
+        <v>719</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -15833,7 +15860,7 @@
         <v>0.4612237382094103</v>
       </c>
       <c r="H510" t="s">
-        <v>624</v>
+        <v>633</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -15859,7 +15886,7 @@
         <v>0.4666308316759433</v>
       </c>
       <c r="H511" t="s">
-        <v>711</v>
+        <v>720</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -15885,7 +15912,7 @@
         <v>1</v>
       </c>
       <c r="H512" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -15911,7 +15938,7 @@
         <v>1</v>
       </c>
       <c r="H513" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -15937,7 +15964,7 @@
         <v>1</v>
       </c>
       <c r="H514" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -15963,7 +15990,7 @@
         <v>0</v>
       </c>
       <c r="H515" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -15989,7 +16016,7 @@
         <v>1</v>
       </c>
       <c r="H516" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -16015,7 +16042,7 @@
         <v>0</v>
       </c>
       <c r="H517" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -16041,7 +16068,7 @@
         <v>0</v>
       </c>
       <c r="H518" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -16067,7 +16094,7 @@
         <v>0</v>
       </c>
       <c r="H519" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -16093,7 +16120,7 @@
         <v>0</v>
       </c>
       <c r="H520" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -16119,7 +16146,7 @@
         <v>0</v>
       </c>
       <c r="H521" t="s">
-        <v>606</v>
+        <v>615</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -16145,7 +16172,7 @@
         <v>0</v>
       </c>
       <c r="H522" t="s">
-        <v>606</v>
+        <v>615</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -16171,7 +16198,7 @@
         <v>0</v>
       </c>
       <c r="H523" t="s">
-        <v>606</v>
+        <v>615</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -16197,7 +16224,7 @@
         <v>0</v>
       </c>
       <c r="H524" t="s">
-        <v>606</v>
+        <v>615</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -16223,7 +16250,7 @@
         <v>0</v>
       </c>
       <c r="H525" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -16249,7 +16276,7 @@
         <v>0</v>
       </c>
       <c r="H526" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -16275,7 +16302,7 @@
         <v>0.5422831111408063</v>
       </c>
       <c r="H527" t="s">
-        <v>712</v>
+        <v>721</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -16301,7 +16328,7 @@
         <v>0</v>
       </c>
       <c r="H528" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -16327,7 +16354,7 @@
         <v>0</v>
       </c>
       <c r="H529" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -16353,7 +16380,7 @@
         <v>0</v>
       </c>
       <c r="H530" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -16379,7 +16406,7 @@
         <v>0</v>
       </c>
       <c r="H531" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -16405,7 +16432,7 @@
         <v>0</v>
       </c>
       <c r="H532" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -16431,7 +16458,7 @@
         <v>0</v>
       </c>
       <c r="H533" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -16457,7 +16484,7 @@
         <v>0</v>
       </c>
       <c r="H534" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -16483,7 +16510,7 @@
         <v>0</v>
       </c>
       <c r="H535" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -16509,7 +16536,7 @@
         <v>0</v>
       </c>
       <c r="H536" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -16535,7 +16562,7 @@
         <v>0</v>
       </c>
       <c r="H537" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -16561,7 +16588,7 @@
         <v>0</v>
       </c>
       <c r="H538" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -16587,7 +16614,7 @@
         <v>0</v>
       </c>
       <c r="H539" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -16613,7 +16640,7 @@
         <v>0</v>
       </c>
       <c r="H540" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -16639,7 +16666,7 @@
         <v>0</v>
       </c>
       <c r="H541" t="s">
-        <v>606</v>
+        <v>615</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -16665,7 +16692,7 @@
         <v>0</v>
       </c>
       <c r="H542" t="s">
-        <v>606</v>
+        <v>615</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -16691,7 +16718,7 @@
         <v>0</v>
       </c>
       <c r="H543" t="s">
-        <v>606</v>
+        <v>615</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -16717,7 +16744,7 @@
         <v>0</v>
       </c>
       <c r="H544" t="s">
-        <v>606</v>
+        <v>615</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -16743,7 +16770,7 @@
         <v>0</v>
       </c>
       <c r="H545" t="s">
-        <v>606</v>
+        <v>615</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -16769,7 +16796,7 @@
         <v>0</v>
       </c>
       <c r="H546" t="s">
-        <v>606</v>
+        <v>615</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -16795,7 +16822,7 @@
         <v>0</v>
       </c>
       <c r="H547" t="s">
-        <v>606</v>
+        <v>615</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -16821,7 +16848,7 @@
         <v>0</v>
       </c>
       <c r="H548" t="s">
-        <v>606</v>
+        <v>615</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -16847,7 +16874,7 @@
         <v>0</v>
       </c>
       <c r="H549" t="s">
-        <v>606</v>
+        <v>615</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -16873,7 +16900,7 @@
         <v>0</v>
       </c>
       <c r="H550" t="s">
-        <v>606</v>
+        <v>615</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -16899,7 +16926,7 @@
         <v>0</v>
       </c>
       <c r="H551" t="s">
-        <v>606</v>
+        <v>615</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -16925,7 +16952,7 @@
         <v>1</v>
       </c>
       <c r="H552" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -16951,7 +16978,7 @@
         <v>1</v>
       </c>
       <c r="H553" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -16977,7 +17004,7 @@
         <v>1</v>
       </c>
       <c r="H554" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -17003,7 +17030,7 @@
         <v>1</v>
       </c>
       <c r="H555" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -17029,7 +17056,7 @@
         <v>0</v>
       </c>
       <c r="H556" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -17055,7 +17082,7 @@
         <v>0</v>
       </c>
       <c r="H557" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -17081,7 +17108,7 @@
         <v>1</v>
       </c>
       <c r="H558" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -17107,7 +17134,7 @@
         <v>0</v>
       </c>
       <c r="H559" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -17133,7 +17160,7 @@
         <v>0</v>
       </c>
       <c r="H560" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="561" spans="1:8">
@@ -17159,7 +17186,7 @@
         <v>0</v>
       </c>
       <c r="H561" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="562" spans="1:8">
@@ -17185,7 +17212,7 @@
         <v>0</v>
       </c>
       <c r="H562" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="563" spans="1:8">
@@ -17211,7 +17238,7 @@
         <v>0</v>
       </c>
       <c r="H563" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="564" spans="1:8">
@@ -17237,7 +17264,7 @@
         <v>1</v>
       </c>
       <c r="H564" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="565" spans="1:8">
@@ -17263,7 +17290,7 @@
         <v>0.04043368191437317</v>
       </c>
       <c r="H565" t="s">
-        <v>713</v>
+        <v>722</v>
       </c>
     </row>
     <row r="566" spans="1:8">
@@ -17289,7 +17316,7 @@
         <v>1</v>
       </c>
       <c r="H566" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="567" spans="1:8">
@@ -17315,7 +17342,7 @@
         <v>1</v>
       </c>
       <c r="H567" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="568" spans="1:8">
@@ -17341,7 +17368,7 @@
         <v>1</v>
       </c>
       <c r="H568" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="569" spans="1:8">
@@ -17367,7 +17394,7 @@
         <v>0.8904983753195824</v>
       </c>
       <c r="H569" t="s">
-        <v>714</v>
+        <v>723</v>
       </c>
     </row>
     <row r="570" spans="1:8">
@@ -17393,7 +17420,7 @@
         <v>0.9006798926483729</v>
       </c>
       <c r="H570" t="s">
-        <v>715</v>
+        <v>724</v>
       </c>
     </row>
     <row r="571" spans="1:8">
@@ -17419,7 +17446,7 @@
         <v>0.8578184898667132</v>
       </c>
       <c r="H571" t="s">
-        <v>716</v>
+        <v>725</v>
       </c>
     </row>
     <row r="572" spans="1:8">
@@ -17445,7 +17472,7 @@
         <v>0</v>
       </c>
       <c r="H572" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="573" spans="1:8">
@@ -17471,7 +17498,7 @@
         <v>0.7706087229233247</v>
       </c>
       <c r="H573" t="s">
-        <v>717</v>
+        <v>726</v>
       </c>
     </row>
     <row r="574" spans="1:8">
@@ -17497,7 +17524,7 @@
         <v>0</v>
       </c>
       <c r="H574" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="575" spans="1:8">
@@ -17523,7 +17550,7 @@
         <v>0.511028129451869</v>
       </c>
       <c r="H575" t="s">
-        <v>718</v>
+        <v>727</v>
       </c>
     </row>
     <row r="576" spans="1:8">
@@ -17549,7 +17576,7 @@
         <v>0.5136569237850378</v>
       </c>
       <c r="H576" t="s">
-        <v>719</v>
+        <v>728</v>
       </c>
     </row>
     <row r="577" spans="1:8">
@@ -17575,7 +17602,7 @@
         <v>0.4857393817989359</v>
       </c>
       <c r="H577" t="s">
-        <v>720</v>
+        <v>729</v>
       </c>
     </row>
     <row r="578" spans="1:8">
@@ -17601,7 +17628,7 @@
         <v>0.5090868776602728</v>
       </c>
       <c r="H578" t="s">
-        <v>721</v>
+        <v>730</v>
       </c>
     </row>
     <row r="579" spans="1:8">
@@ -17627,7 +17654,7 @@
         <v>0</v>
       </c>
       <c r="H579" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="580" spans="1:8">
@@ -17653,7 +17680,7 @@
         <v>1</v>
       </c>
       <c r="H580" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="581" spans="1:8">
@@ -17679,7 +17706,7 @@
         <v>0</v>
       </c>
       <c r="H581" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="582" spans="1:8">
@@ -17705,7 +17732,7 @@
         <v>0</v>
       </c>
       <c r="H582" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="583" spans="1:8">
@@ -17731,7 +17758,7 @@
         <v>0.5001940020955155</v>
       </c>
       <c r="H583" t="s">
-        <v>722</v>
+        <v>731</v>
       </c>
     </row>
     <row r="584" spans="1:8">
@@ -17757,7 +17784,7 @@
         <v>0</v>
       </c>
       <c r="H584" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="585" spans="1:8">
@@ -17783,7 +17810,7 @@
         <v>0.5024496766726444</v>
       </c>
       <c r="H585" t="s">
-        <v>723</v>
+        <v>732</v>
       </c>
     </row>
     <row r="586" spans="1:8">
@@ -17809,7 +17836,7 @@
         <v>0.5042377180760544</v>
       </c>
       <c r="H586" t="s">
-        <v>724</v>
+        <v>733</v>
       </c>
     </row>
     <row r="587" spans="1:8">
@@ -17835,7 +17862,7 @@
         <v>0.4955106634346851</v>
       </c>
       <c r="H587" t="s">
-        <v>725</v>
+        <v>734</v>
       </c>
     </row>
     <row r="588" spans="1:8">
@@ -17861,7 +17888,7 @@
         <v>0.5082193092286729</v>
       </c>
       <c r="H588" t="s">
-        <v>726</v>
+        <v>735</v>
       </c>
     </row>
     <row r="589" spans="1:8">
@@ -17887,7 +17914,7 @@
         <v>0</v>
       </c>
       <c r="H589" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="590" spans="1:8">
@@ -17913,7 +17940,7 @@
         <v>0</v>
       </c>
       <c r="H590" t="s">
-        <v>727</v>
+        <v>736</v>
       </c>
     </row>
     <row r="591" spans="1:8">
@@ -17939,7 +17966,7 @@
         <v>0.5028108345242799</v>
       </c>
       <c r="H591" t="s">
-        <v>728</v>
+        <v>737</v>
       </c>
     </row>
     <row r="592" spans="1:8">
@@ -17965,7 +17992,7 @@
         <v>0.4987653268156931</v>
       </c>
       <c r="H592" t="s">
-        <v>729</v>
+        <v>738</v>
       </c>
     </row>
     <row r="593" spans="1:8">
@@ -17991,7 +18018,7 @@
         <v>0</v>
       </c>
       <c r="H593" t="s">
-        <v>730</v>
+        <v>739</v>
       </c>
     </row>
     <row r="594" spans="1:8">
@@ -18017,7 +18044,7 @@
         <v>0.4993729605626608</v>
       </c>
       <c r="H594" t="s">
-        <v>731</v>
+        <v>740</v>
       </c>
     </row>
     <row r="595" spans="1:8">
@@ -18043,7 +18070,7 @@
         <v>0.4877665357924177</v>
       </c>
       <c r="H595" t="s">
-        <v>732</v>
+        <v>741</v>
       </c>
     </row>
     <row r="596" spans="1:8">
@@ -18069,7 +18096,7 @@
         <v>0.5129306430713111</v>
       </c>
       <c r="H596" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="597" spans="1:8">
@@ -18095,7 +18122,7 @@
         <v>1</v>
       </c>
       <c r="H597" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="598" spans="1:8">
@@ -18105,9 +18132,15 @@
       <c r="B598" t="s">
         <v>603</v>
       </c>
+      <c r="C598">
+        <v>0</v>
+      </c>
       <c r="D598">
         <v>0</v>
       </c>
+      <c r="E598">
+        <v>1</v>
+      </c>
       <c r="F598">
         <v>1</v>
       </c>
@@ -18115,7 +18148,235 @@
         <v>0</v>
       </c>
       <c r="H598" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="599" spans="1:8">
+      <c r="A599" s="1">
+        <v>597</v>
+      </c>
+      <c r="B599" t="s">
         <v>604</v>
+      </c>
+      <c r="C599">
+        <v>1</v>
+      </c>
+      <c r="D599">
+        <v>1</v>
+      </c>
+      <c r="E599">
+        <v>1</v>
+      </c>
+      <c r="F599">
+        <v>0</v>
+      </c>
+      <c r="G599">
+        <v>1</v>
+      </c>
+      <c r="H599" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="600" spans="1:8">
+      <c r="A600" s="1">
+        <v>598</v>
+      </c>
+      <c r="B600" t="s">
+        <v>605</v>
+      </c>
+      <c r="C600">
+        <v>0</v>
+      </c>
+      <c r="D600">
+        <v>1</v>
+      </c>
+      <c r="E600">
+        <v>0</v>
+      </c>
+      <c r="F600">
+        <v>0</v>
+      </c>
+      <c r="G600">
+        <v>1</v>
+      </c>
+      <c r="H600" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="601" spans="1:8">
+      <c r="A601" s="1">
+        <v>599</v>
+      </c>
+      <c r="B601" t="s">
+        <v>606</v>
+      </c>
+      <c r="C601">
+        <v>0</v>
+      </c>
+      <c r="D601">
+        <v>1</v>
+      </c>
+      <c r="E601">
+        <v>0</v>
+      </c>
+      <c r="F601">
+        <v>0</v>
+      </c>
+      <c r="G601">
+        <v>1</v>
+      </c>
+      <c r="H601" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="602" spans="1:8">
+      <c r="A602" s="1">
+        <v>600</v>
+      </c>
+      <c r="B602" t="s">
+        <v>607</v>
+      </c>
+      <c r="C602">
+        <v>1</v>
+      </c>
+      <c r="D602">
+        <v>0</v>
+      </c>
+      <c r="E602">
+        <v>0</v>
+      </c>
+      <c r="F602">
+        <v>1</v>
+      </c>
+      <c r="G602">
+        <v>0</v>
+      </c>
+      <c r="H602" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="603" spans="1:8">
+      <c r="A603" s="1">
+        <v>601</v>
+      </c>
+      <c r="B603" t="s">
+        <v>608</v>
+      </c>
+      <c r="C603">
+        <v>0</v>
+      </c>
+      <c r="D603">
+        <v>1</v>
+      </c>
+      <c r="E603">
+        <v>0</v>
+      </c>
+      <c r="F603">
+        <v>0</v>
+      </c>
+      <c r="G603">
+        <v>1</v>
+      </c>
+      <c r="H603" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="604" spans="1:8">
+      <c r="A604" s="1">
+        <v>602</v>
+      </c>
+      <c r="B604" t="s">
+        <v>609</v>
+      </c>
+      <c r="C604">
+        <v>1</v>
+      </c>
+      <c r="D604">
+        <v>0</v>
+      </c>
+      <c r="E604">
+        <v>0</v>
+      </c>
+      <c r="F604">
+        <v>0</v>
+      </c>
+      <c r="G604">
+        <v>0</v>
+      </c>
+      <c r="H604" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="605" spans="1:8">
+      <c r="A605" s="1">
+        <v>603</v>
+      </c>
+      <c r="B605" t="s">
+        <v>610</v>
+      </c>
+      <c r="C605">
+        <v>1</v>
+      </c>
+      <c r="D605">
+        <v>0</v>
+      </c>
+      <c r="E605">
+        <v>0</v>
+      </c>
+      <c r="F605">
+        <v>0</v>
+      </c>
+      <c r="G605">
+        <v>0</v>
+      </c>
+      <c r="H605" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="606" spans="1:8">
+      <c r="A606" s="1">
+        <v>604</v>
+      </c>
+      <c r="B606" t="s">
+        <v>611</v>
+      </c>
+      <c r="C606">
+        <v>1</v>
+      </c>
+      <c r="D606">
+        <v>1</v>
+      </c>
+      <c r="E606">
+        <v>1</v>
+      </c>
+      <c r="F606">
+        <v>0</v>
+      </c>
+      <c r="G606">
+        <v>1</v>
+      </c>
+      <c r="H606" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="607" spans="1:8">
+      <c r="A607" s="1">
+        <v>605</v>
+      </c>
+      <c r="B607" t="s">
+        <v>612</v>
+      </c>
+      <c r="D607">
+        <v>1</v>
+      </c>
+      <c r="F607">
+        <v>0</v>
+      </c>
+      <c r="G607">
+        <v>1</v>
+      </c>
+      <c r="H607" t="s">
+        <v>613</v>
       </c>
     </row>
   </sheetData>
